--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F6749-484D-493F-BAE4-E04477E11BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115DFA01-B819-4AD8-9F44-4AF531E56521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="3435" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4335,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>135</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>3.9201792081923741E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>0.23837889732102033</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>4.722559888452043</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>12.322523315351559</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>15.377902989850961</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>17.080284813020018</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>17.397035293041966</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>17.077580689402939</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>14.581834598153057</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>9.6360805065374411</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>2.3542076209198135</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>1.8400841181311148E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>1.5840724147389595E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>1.2120554082472343E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
+        <v>3.9201792081923741E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
+        <v>0.23837889732102033</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
+        <v>4.722559888452043</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
+        <v>12.322523315351559</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
+        <v>15.377902989850961</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
+        <v>17.080284813020018</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
+        <v>17.397035293041966</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
+        <v>17.077580689402939</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
+        <v>14.581834598153057</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
+        <v>9.6360805065374411</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
+        <v>2.3542076209198135</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
+        <v>1.8400841181311148E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
+        <v>1.5840724147389595E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
+        <v>1.2120554082472343E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>6.8135245901639334E-4</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>0.19100102459016391</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>3.7593442622950812</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>8.9429303278688526</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>12.034520491803278</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>14.75990163934426</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>17.528545081967213</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>14.62795594262295</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>10.748621926229509</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>5.1562459016393438</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>1.0772182377049178</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>6.885245901639343E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>3.0122950819672129E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
+        <v>6.8135245901639334E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
+        <v>0.19100102459016391</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
+        <v>3.7593442622950812</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
+        <v>8.9429303278688526</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
+        <v>12.034520491803278</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
+        <v>14.75990163934426</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
+        <v>17.528545081967213</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
+        <v>14.62795594262295</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
+        <v>10.748621926229509</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
+        <v>5.1562459016393438</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
+        <v>1.0772182377049178</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
+        <v>6.885245901639343E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
+        <v>3.0122950819672129E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>0.20651417362692986</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>4.509455675778284</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>10.498865002531003</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>15.14042331055429</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>15.586200487218422</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>14.799342729688684</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>11.586884649455833</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>8.9255315110098703</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>3.7872374082510754</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>0.66862424069855719</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>1.0851683118197925E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
+        <v>0.20651417362692986</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
+        <v>4.509455675778284</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
+        <v>10.498865002531003</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
+        <v>15.14042331055429</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
+        <v>15.586200487218422</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
+        <v>14.799342729688684</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
+        <v>11.586884649455833</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
+        <v>8.9255315110098703</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
+        <v>3.7872374082510754</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
+        <v>0.66862424069855719</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
+        <v>1.0851683118197925E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -13004,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13032,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>4.9394258023223914E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>0.28843846575843463</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>5.9976510583340943</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>15.896055076803508</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>19.991273886806251</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>20.667144623754222</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>22.616145880954559</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>22.030079089329792</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>18.518929939654381</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>11.852379023041053</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>2.9663016023589646</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>2.3185059888452045E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>1.96424979427631E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>1.4665870439791533E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
+        <v>4.9394258023223914E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
+        <v>0.28843846575843463</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
+        <v>5.9976510583340943</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
+        <v>15.896055076803508</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
+        <v>19.991273886806251</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
+        <v>20.667144623754222</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
+        <v>22.616145880954559</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
+        <v>22.030079089329792</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
+        <v>18.518929939654381</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
+        <v>11.852379023041053</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
+        <v>2.9663016023589646</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
+        <v>2.3185059888452045E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
+        <v>1.96424979427631E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
+        <v>1.4665870439791533E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>8.6531762295081961E-4</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>0.24830133196721307</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>4.8495540983606551</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>11.53638012295082</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>15.283841024590163</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>19.18787213114754</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>22.787108606557375</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>19.016342725409835</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>13.113318749999999</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>6.5484322950819669</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>1.3788393442622948</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>8.331147540983604E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>3.6749999999999999E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
+        <v>8.6531762295081961E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
+        <v>0.24830133196721307</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
+        <v>4.8495540983606551</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
+        <v>11.53638012295082</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
+        <v>15.283841024590163</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
+        <v>19.18787213114754</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
+        <v>22.787108606557375</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
+        <v>19.016342725409835</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
+        <v>13.113318749999999</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
+        <v>6.5484322950819669</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
+        <v>1.3788393442622948</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
+        <v>8.331147540983604E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
+        <v>3.6749999999999999E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>0.256077575297393</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>5.5466304812072886</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>13.018592603138442</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>19.228337604403951</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>20.106198628511763</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>14.251868118830673</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>11.424680334092633</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>4.8855362566438876</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>0.86252527050113881</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>1.4107188053657303E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
+        <v>0.256077575297393</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
+        <v>5.5466304812072886</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
+        <v>13.018592603138442</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
+        <v>19.228337604403951</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
+        <v>20.106198628511763</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
+        <v>14.251868118830673</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
+        <v>11.424680334092633</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
+        <v>4.8855362566438876</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
+        <v>0.86252527050113881</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
+        <v>1.4107188053657303E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115DFA01-B819-4AD8-9F44-4AF531E56521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427AC12D-D9AF-4107-A806-E3F6CEFBFE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" tabRatio="722" firstSheet="26" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13004,7 +13004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -13089,7 +13089,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:Y9"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427AC12D-D9AF-4107-A806-E3F6CEFBFE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F820C-8C9D-4F72-BD72-D2902F8ABE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" tabRatio="722" firstSheet="26" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27236,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F820C-8C9D-4F72-BD72-D2902F8ABE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A386AA07-F799-44BC-87FE-6FABF81CB06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>numScenarios</t>
   </si>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>185</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>3.9201792081923741E-4</v>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.23837889732102033</v>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>4.722559888452043</v>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>12.322523315351559</v>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>15.377902989850961</v>
+        <v>6.151161195940384</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>17.080284813020018</v>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>17.397035293041966</v>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>17.077580689402939</v>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>14.581834598153057</v>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>9.6360805065374411</v>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.3542076209198135</v>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.8400841181311148E-2</v>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.5840724147389595E-3</v>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.2120554082472343E-3</v>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>3.9201792081923741E-4</v>
+        <v>1.5680716832769495E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.23837889732102033</v>
+        <v>9.5351558928408131E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>4.722559888452043</v>
+        <v>1.8890239553808172</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>12.322523315351559</v>
+        <v>4.9290093261406227</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>15.377902989850961</v>
+        <v>6.151161195940384</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>17.080284813020018</v>
+        <v>6.8321139252080076</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>17.397035293041966</v>
+        <v>6.9588141172167877</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>17.077580689402939</v>
+        <v>6.8310322757611761</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>14.581834598153057</v>
+        <v>5.8327338392612225</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>9.6360805065374411</v>
+        <v>3.8544322026149764</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.3542076209198135</v>
+        <v>0.94168304836792527</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.8400841181311148E-2</v>
+        <v>7.3603364725244582E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.5840724147389595E-3</v>
+        <v>6.336289658955838E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.2120554082472343E-3</v>
+        <v>4.8482216329889365E-4</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>7.6545872747117425</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>7.0739533191537003</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>7.4894793882234412</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>7.4568659744766599</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>6.1393204970334709</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>6.2270771297436482</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>6.2404651292958686</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>5.6040767379379819</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>5.0611134277398424</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>3.658461882906078</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>3.3743753498264857</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>2.2638531288480914</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>1.8815472825478563</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>1.8015322400089555</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>2.4993097223777005</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>3.3809856011418327</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>3.7801263573267661</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>5.191647892645249</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>4.7222142617261831</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>4.4892113511698195</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>5.9234008032016128</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>7.0845996585693491</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>6.6980608418224561</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>9.5207836113287811</v>
       </c>
     </row>
   </sheetData>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>6.8135245901639334E-4</v>
+        <v>2.7254098360655736E-4</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.19100102459016391</v>
+        <v>7.6400409836065566E-2</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>3.7593442622950812</v>
+        <v>1.5037377049180325</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>8.9429303278688526</v>
+        <v>3.5771721311475413</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>12.034520491803278</v>
+        <v>4.8138081967213111</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>14.75990163934426</v>
+        <v>5.9039606557377047</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>17.528545081967213</v>
+        <v>7.0114180327868851</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>14.62795594262295</v>
+        <v>5.85118237704918</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>10.748621926229509</v>
+        <v>4.2994487704918036</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.1562459016393438</v>
+        <v>2.0624983606557374</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.0772182377049178</v>
+        <v>0.4308872950819671</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>6.885245901639343E-3</v>
+        <v>2.754098360655737E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.0122950819672129E-3</v>
+        <v>1.2049180327868851E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>6.8135245901639334E-4</v>
+        <v>2.7254098360655736E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.19100102459016391</v>
+        <v>7.6400409836065566E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>3.7593442622950812</v>
+        <v>1.5037377049180325</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>8.9429303278688526</v>
+        <v>3.5771721311475413</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>12.034520491803278</v>
+        <v>4.8138081967213111</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>14.75990163934426</v>
+        <v>5.9039606557377047</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>17.528545081967213</v>
+        <v>7.0114180327868851</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>14.62795594262295</v>
+        <v>5.85118237704918</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>10.748621926229509</v>
+        <v>4.2994487704918036</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>5.1562459016393438</v>
+        <v>2.0624983606557374</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.0772182377049178</v>
+        <v>0.4308872950819671</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>6.885245901639343E-3</v>
+        <v>2.754098360655737E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.0122950819672129E-3</v>
+        <v>1.2049180327868851E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>10.388912567643457</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>9.1354924890238927</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>7.5187696229834557</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>6.5091342914028987</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>6.0684263005411481</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>4.8595037778231571</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>4.7312288135593219</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>4.2894547682254442</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>4.4211121605064321</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>4.6758315039820308</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>4.6801513362773122</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>5.4857930237900749</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>5.4881810930161317</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>5.5643339672248313</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>6.265797139830509</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>5.1724775372677154</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>5.3582122345313445</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>5.673694672758832</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>4.9494456746477429</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>5.1265293164182157</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>4.8040515238921788</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>4.3595691239534409</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>4.4682544159689606</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>4.8862094139268937</v>
       </c>
     </row>
   </sheetData>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.20651417362692986</v>
+        <v>8.260566945077194E-2</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>4.509455675778284</v>
+        <v>1.8037822703113136</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>10.498865002531003</v>
+        <v>4.1995460010124015</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>15.14042331055429</v>
+        <v>6.0561693242217167</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>15.586200487218422</v>
+        <v>6.234480194887368</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>14.799342729688684</v>
+        <v>5.919737091875473</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>11.586884649455833</v>
+        <v>4.6347538597823332</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.9255315110098703</v>
+        <v>3.5702126044039479</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>3.7872374082510754</v>
+        <v>1.5148949633004303</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.66862424069855719</v>
+        <v>0.26744969627942289</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0851683118197925E-3</v>
+        <v>4.3406732472791698E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.20651417362692986</v>
+        <v>8.260566945077194E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>4.509455675778284</v>
+        <v>1.8037822703113136</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>10.498865002531003</v>
+        <v>4.1995460010124015</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>15.14042331055429</v>
+        <v>6.0561693242217167</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>15.586200487218422</v>
+        <v>6.234480194887368</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>14.799342729688684</v>
+        <v>5.919737091875473</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>11.586884649455833</v>
+        <v>4.6347538597823332</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>8.9255315110098703</v>
+        <v>3.5702126044039479</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>3.7872374082510754</v>
+        <v>1.5148949633004303</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.66862424069855719</v>
+        <v>0.26744969627942289</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.0851683118197925E-3</v>
+        <v>4.3406732472791698E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>9.4792301721250229</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>8.8101470341931005</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>9.5486622304104714</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>10.647099835089797</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>9.1071625138498788</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>7.7261834883660994</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>5.5610850575897333</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>4.9503594527042694</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>5.0506653095931346</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>4.9371928547501858</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>4.9944695173799891</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>5.2533143085366794</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>4.8053496611610704</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>4.630672749877605</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>6.3449393181993861</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>8.2658381432142018</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>8.4391764796825477</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>8.5916103223479077</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>8.8285279187817274</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>9.3134876897111489</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>9.1857752067819316</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>8.9894788579968559</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>8.6075683797572733</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>7.9389147491561243</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13028,22 +13028,22 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2">
+        <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3">
+        <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>4.9394258023223914E-4</v>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.28843846575843463</v>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>5.9976510583340943</v>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>15.896055076803508</v>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>19.991273886806251</v>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>20.667144623754222</v>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>22.616145880954559</v>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>22.030079089329792</v>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>18.518929939654381</v>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>11.852379023041053</v>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>2.9663016023589646</v>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.3185059888452045E-2</v>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.96424979427631E-3</v>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.4665870439791533E-3</v>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>4.9394258023223914E-4</v>
+        <v>1.9757703209289567E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.28843846575843463</v>
+        <v>0.11537538630337385</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>5.9976510583340943</v>
+        <v>2.3990604233336379</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>15.896055076803508</v>
+        <v>6.3584220307214032</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>19.991273886806251</v>
+        <v>7.9965095547225005</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>20.667144623754222</v>
+        <v>8.2668578495016884</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>22.616145880954559</v>
+        <v>9.0464583523818227</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>22.030079089329792</v>
+        <v>8.8120316357319179</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>18.518929939654381</v>
+        <v>7.4075719758617522</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>11.852379023041053</v>
+        <v>4.7409516092164212</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>2.9663016023589646</v>
+        <v>1.1865206409435858</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.3185059888452045E-2</v>
+        <v>9.2740239553808189E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.96424979427631E-3</v>
+        <v>7.8569991771052395E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.4665870439791533E-3</v>
+        <v>5.8663481759166131E-4</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>5.8940322015280415</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>5.3054649893652757</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>5.4673199534031127</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>5.3689435016231952</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>4.6044903727751025</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>4.3589539908205541</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>4.8051581495578191</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>4.3711798555916257</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>3.5933905336952883</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>2.5975079368633152</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>2.6657565263629239</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>1.6526127840591067</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>1.3547140434344564</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>1.4412257920071641</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>1.9244684862308294</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>2.4343096328221194</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>2.8728960315683425</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>3.9456523984103891</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>3.5888828389118994</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>3.1873400593305719</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>4.7387206425612902</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>5.1009117541699318</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>4.9565650229486176</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>7.2357955446098741</v>
       </c>
     </row>
   </sheetData>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>8.6531762295081961E-4</v>
+        <v>3.4612704918032789E-4</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.24830133196721307</v>
+        <v>9.9320532786885241E-2</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>4.8495540983606551</v>
+        <v>1.9398216393442622</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>11.53638012295082</v>
+        <v>4.614552049180328</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>15.283841024590163</v>
+        <v>6.1135364098360654</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>19.18787213114754</v>
+        <v>7.6751488524590163</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>22.787108606557375</v>
+        <v>9.1148434426229503</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>19.016342725409835</v>
+        <v>7.6065370901639344</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>13.113318749999999</v>
+        <v>5.2453275000000001</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>6.5484322950819669</v>
+        <v>2.6193729180327869</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.3788393442622948</v>
+        <v>0.55153573770491793</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>8.331147540983604E-3</v>
+        <v>3.3324590163934416E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>3.6749999999999999E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>8.6531762295081961E-4</v>
+        <v>3.4612704918032789E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.24830133196721307</v>
+        <v>9.9320532786885241E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>4.8495540983606551</v>
+        <v>1.9398216393442622</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>11.53638012295082</v>
+        <v>4.614552049180328</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>15.283841024590163</v>
+        <v>6.1135364098360654</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>19.18787213114754</v>
+        <v>7.6751488524590163</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>22.787108606557375</v>
+        <v>9.1148434426229503</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>19.016342725409835</v>
+        <v>7.6065370901639344</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>13.113318749999999</v>
+        <v>5.2453275000000001</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>6.5484322950819669</v>
+        <v>2.6193729180327869</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.3788393442622948</v>
+        <v>0.55153573770491793</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>8.331147540983604E-3</v>
+        <v>3.3324590163934416E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>3.6749999999999999E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>7.7916844257325932</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>6.3948447423167245</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>5.7894526096972614</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>5.0771247472942616</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>4.551319725405861</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>3.8876030222585256</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>3.6430461864406776</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>3.3886692668981007</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>3.1832007555646307</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>3.5536319430263434</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>3.3229074487568915</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>3.8400551166530525</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>4.2258994416224223</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>4.0619637960741271</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>4.6366898834745767</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>4.0862572544414952</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>3.8579128088625678</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>3.9715862709311818</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>3.8110731694787616</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>3.9986928668062083</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>3.7471601886358998</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>3.1824854604860118</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>3.5746035327751682</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>3.4203465897488257</v>
       </c>
     </row>
   </sheetData>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.256077575297393</v>
+        <v>0.10243103011895721</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>5.5466304812072886</v>
+        <v>2.2186521924829155</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>13.018592603138442</v>
+        <v>5.2074370412553774</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>19.228337604403951</v>
+        <v>7.6913350417615796</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>20.106198628511763</v>
+        <v>8.0424794514047058</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>7.1036845102505675</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>14.251868118830673</v>
+        <v>5.70074724753227</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>11.424680334092633</v>
+        <v>4.5698721336370536</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>4.8855362566438876</v>
+        <v>1.954214502657555</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.86252527050113881</v>
+        <v>0.34501010820045552</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.4107188053657303E-3</v>
+        <v>5.6428752214629215E-4</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.256077575297393</v>
+        <v>0.10243103011895721</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>5.5466304812072886</v>
+        <v>2.2186521924829155</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>13.018592603138442</v>
+        <v>5.2074370412553774</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>19.228337604403951</v>
+        <v>7.6913350417615796</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>20.106198628511763</v>
+        <v>8.0424794514047058</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>7.1036845102505675</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>14.251868118830673</v>
+        <v>5.70074724753227</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>11.424680334092633</v>
+        <v>4.5698721336370536</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>4.8855362566438876</v>
+        <v>1.954214502657555</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.86252527050113881</v>
+        <v>0.34501010820045552</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.4107188053657303E-3</v>
+        <v>5.6428752214629215E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>6.7302534222087669</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>6.2552043942771007</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>7.543443162024273</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>7.6659118812646536</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>6.8303718853874091</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>6.0264231209255579</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>4.393257195495889</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>3.7622731840552452</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>3.8890122883867138</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>3.6535227125151377</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>3.9955756139039913</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>4.1501183037439766</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>3.4117982594243603</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>3.611924744904532</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>4.6318057022855523</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>6.0340618445463674</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>5.9074235357777836</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>6.357791638537452</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>6.1799695431472088</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>6.9851157672833617</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>7.0730469092220876</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>6.83200393207761</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>6.2835249172228096</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>6.112964356850215</v>
       </c>
     </row>
   </sheetData>
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27236,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A386AA07-F799-44BC-87FE-6FABF81CB06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C211B22-0A70-449B-B5B3-A453E57A5EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="23" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13088,7 +13088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,7 +27071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C211B22-0A70-449B-B5B3-A453E57A5EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EBDB9D-8EA6-4E6A-86AB-A0F4C5A961FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="722" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="900" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EBDB9D-8EA6-4E6A-86AB-A0F4C5A961FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7760944B-5C19-4780-972F-1EC6A2FBA1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="900" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28380" yWindow="3255" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27236,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7760944B-5C19-4780-972F-1EC6A2FBA1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A6CBC-5B98-4230-80C2-561212ADCC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28380" yWindow="3255" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="3765" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13088,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13253,76 +13253,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13330,76 +13330,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,8 +27071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27236,76 +27236,76 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -27313,76 +27313,76 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A6CBC-5B98-4230-80C2-561212ADCC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E1165-1089-485F-8084-1CB19F42D3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="3765" windowWidth="21600" windowHeight="12660" tabRatio="722" firstSheet="29" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1152,194 +1152,194 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>53.345852930370519</v>
+            <v>62.236828418765612</v>
           </cell>
           <cell r="C2">
-            <v>47.980182112575157</v>
+            <v>55.281514173184419</v>
           </cell>
           <cell r="D2">
-            <v>50.081028969922819</v>
+            <v>53.517962330603794</v>
           </cell>
           <cell r="E2">
-            <v>43.664376289063469</v>
+            <v>50.941772337240714</v>
           </cell>
           <cell r="F2">
-            <v>52.305295259295072</v>
+            <v>54.844387262173477</v>
           </cell>
           <cell r="G2">
-            <v>54.281049735333688</v>
+            <v>50.442995713643434</v>
           </cell>
           <cell r="H2">
-            <v>64.176359308110079</v>
+            <v>72.777314679300105</v>
           </cell>
           <cell r="I2">
-            <v>68.786478518766842</v>
+            <v>76.182874058419188</v>
           </cell>
           <cell r="J2">
-            <v>81.415484867557737</v>
+            <v>79.066961265608953</v>
           </cell>
           <cell r="K2">
-            <v>77.709389951019659</v>
+            <v>74.471498703060519</v>
           </cell>
           <cell r="L2">
-            <v>82.504791844794326</v>
+            <v>84.138550099146698</v>
           </cell>
           <cell r="M2">
-            <v>75.177367267660586</v>
+            <v>84.069313933727955</v>
           </cell>
           <cell r="N2">
-            <v>78.769655218865324</v>
+            <v>87.611147131186954</v>
           </cell>
           <cell r="O2">
-            <v>76.35807073501941</v>
+            <v>84.230036790176058</v>
           </cell>
           <cell r="P2">
-            <v>72.403181097320868</v>
+            <v>78.500291084463683</v>
           </cell>
           <cell r="Q2">
             <v>74.833896610931816</v>
           </cell>
           <cell r="R2">
-            <v>77.505418341412778</v>
+            <v>76.73036415799865</v>
           </cell>
           <cell r="S2">
-            <v>90.379525786878375</v>
+            <v>79.849872297144984</v>
           </cell>
           <cell r="T2">
-            <v>80.521773003926072</v>
+            <v>97.520813971421575</v>
           </cell>
           <cell r="U2">
-            <v>97.2</v>
+            <v>86.399999999999991</v>
           </cell>
           <cell r="V2">
-            <v>79.464544760881481</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>85.831924633066535</v>
+            <v>91.66516222948853</v>
           </cell>
           <cell r="X2">
-            <v>68.387902423988734</v>
+            <v>81.305617326297707</v>
           </cell>
           <cell r="Y2">
-            <v>62.463488040991962</v>
+            <v>71.866593767592903</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>63.009561742481864</v>
+            <v>65.555402620965978</v>
           </cell>
           <cell r="C3">
-            <v>53.429146562836614</v>
+            <v>57.584746851057233</v>
           </cell>
           <cell r="D3">
-            <v>59.625893132070708</v>
+            <v>57.938367854747952</v>
           </cell>
           <cell r="E3">
-            <v>52.501666367793781</v>
+            <v>56.969893292712399</v>
           </cell>
           <cell r="F3">
-            <v>57.091814066201827</v>
+            <v>59.352876009417749</v>
           </cell>
           <cell r="G3">
-            <v>63.377579449269767</v>
+            <v>60.270835358619287</v>
           </cell>
           <cell r="H3">
-            <v>68.952112448080143</v>
+            <v>79.332000343490051</v>
           </cell>
           <cell r="I3">
-            <v>86.56709867948814</v>
+            <v>81.212432781787854</v>
           </cell>
           <cell r="J3">
             <v>93.276418192593312</v>
           </cell>
           <cell r="K3">
-            <v>91.48832301780881</v>
+            <v>98.374540879364304</v>
           </cell>
           <cell r="L3">
-            <v>92.848149400130353</v>
+            <v>98.591333899107497</v>
           </cell>
           <cell r="M3">
-            <v>96.213093991960193</v>
+            <v>87.553915532683774</v>
           </cell>
           <cell r="N3">
-            <v>104.78609135609095</v>
+            <v>97.095369054726476</v>
           </cell>
           <cell r="O3">
             <v>101.18370637754681</v>
           </cell>
           <cell r="P3">
-            <v>82.041036251393038</v>
+            <v>96.309042555983126</v>
           </cell>
           <cell r="Q3">
             <v>87.48634299507394</v>
           </cell>
           <cell r="R3">
-            <v>87.50415604013692</v>
+            <v>94.720993651694613</v>
           </cell>
           <cell r="S3">
-            <v>106</v>
+            <v>102</v>
           </cell>
           <cell r="T3">
-            <v>93.659251486676368</v>
+            <v>91.666501455044965</v>
           </cell>
           <cell r="U3">
-            <v>93.671661140952665</v>
+            <v>98.550393492043952</v>
           </cell>
           <cell r="V3">
-            <v>96.855581754478948</v>
+            <v>104.52731100235847</v>
           </cell>
           <cell r="W3">
-            <v>97.970205240143954</v>
+            <v>84.488066904344308</v>
           </cell>
           <cell r="X3">
-            <v>70.766175552125503</v>
+            <v>80.201665625742223</v>
           </cell>
           <cell r="Y3">
-            <v>64.202884371166334</v>
+            <v>68.483076662577417</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>70.08880930820591</v>
+            <v>70.796777078995873</v>
           </cell>
           <cell r="C4">
-            <v>70.393171273107555</v>
+            <v>61.182849798121516</v>
           </cell>
           <cell r="D4">
-            <v>61.32108457333905</v>
+            <v>60.72573423767556</v>
           </cell>
           <cell r="E4">
-            <v>65.954346385392256</v>
+            <v>58.270344864764034</v>
           </cell>
           <cell r="F4">
-            <v>64.448123425868317</v>
+            <v>63.81002319392902</v>
           </cell>
           <cell r="G4">
-            <v>60.534801628319428</v>
+            <v>73.173936034232284</v>
           </cell>
           <cell r="H4">
-            <v>94.049094681755264</v>
+            <v>97.019066092758052</v>
           </cell>
           <cell r="I4">
-            <v>111.36341920653354</v>
+            <v>109.15820298462197</v>
           </cell>
           <cell r="J4">
-            <v>118.46681406049095</v>
+            <v>124.51103926765886</v>
           </cell>
           <cell r="K4">
-            <v>112.48192436834316</v>
+            <v>128.20520411875671</v>
           </cell>
           <cell r="L4">
-            <v>125.67355148870749</v>
+            <v>124.53106465699197</v>
           </cell>
           <cell r="M4">
-            <v>122.5</v>
+            <v>126.25</v>
           </cell>
           <cell r="N4">
-            <v>116.70677967063178</v>
+            <v>121.42220511186943</v>
           </cell>
           <cell r="O4">
-            <v>109.25295857577144</v>
+            <v>114.77078476646699</v>
           </cell>
           <cell r="P4">
             <v>101.65637363697931</v>
@@ -1348,28 +1348,28 @@
             <v>99.988044126192861</v>
           </cell>
           <cell r="R4">
-            <v>99.051334073102836</v>
+            <v>110.05703785900316</v>
           </cell>
           <cell r="S4">
-            <v>100.6259123453416</v>
+            <v>106.98123312504738</v>
           </cell>
           <cell r="T4">
-            <v>111.21811364485124</v>
+            <v>114.39577403470415</v>
           </cell>
           <cell r="U4">
-            <v>111.81782833372856</v>
+            <v>99.990942644584194</v>
           </cell>
           <cell r="V4">
-            <v>104.61396666703429</v>
+            <v>100.42940800035292</v>
           </cell>
           <cell r="W4">
-            <v>91.696633077086361</v>
+            <v>86.970002506102546</v>
           </cell>
           <cell r="X4">
-            <v>73.556714514571254</v>
+            <v>83.950598087282415</v>
           </cell>
           <cell r="Y4">
-            <v>71.179292716270893</v>
+            <v>76.595108466421934</v>
           </cell>
         </row>
       </sheetData>
@@ -1379,577 +1379,577 @@
             <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
-            <v>49.023229549805052</v>
+            <v>46.937134675345263</v>
           </cell>
           <cell r="D2">
-            <v>44.680133688852706</v>
+            <v>48.117067049533681</v>
           </cell>
           <cell r="E2">
-            <v>46.575334708334367</v>
+            <v>48.030813917969816</v>
           </cell>
           <cell r="F2">
-            <v>48.242748054689628</v>
+            <v>52.813113659870758</v>
           </cell>
           <cell r="G2">
-            <v>54.829343167003728</v>
+            <v>49.894702281973395</v>
           </cell>
           <cell r="H2">
-            <v>72.777314679300105</v>
+            <v>59.545075646700077</v>
           </cell>
           <cell r="I2">
-            <v>78.401792720314901</v>
+            <v>71.005397180662541</v>
           </cell>
           <cell r="J2">
-            <v>85.329690870805706</v>
+            <v>73.587072861061785</v>
           </cell>
           <cell r="K2">
-            <v>84.185172446937969</v>
+            <v>82.566226822958399</v>
           </cell>
           <cell r="L2">
-            <v>79.237275336089596</v>
+            <v>75.1528797002087</v>
           </cell>
           <cell r="M2">
-            <v>74.369008479836268</v>
+            <v>73.560649692011964</v>
           </cell>
           <cell r="N2">
-            <v>80.377199202923805</v>
+            <v>74.750795258719137</v>
           </cell>
           <cell r="O2">
-            <v>78.719660551566406</v>
+            <v>86.591626606723054</v>
           </cell>
           <cell r="P2">
-            <v>80.024568581249383</v>
+            <v>77.738152336070826</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>77.078913509259777</v>
           </cell>
           <cell r="R2">
-            <v>84.480905992139938</v>
+            <v>83.705851808725811</v>
           </cell>
           <cell r="S2">
-            <v>85.114699042011679</v>
+            <v>79.849872297144984</v>
           </cell>
           <cell r="T2">
-            <v>81.41645937063636</v>
+            <v>84.100518470767213</v>
           </cell>
           <cell r="U2">
-            <v>90</v>
+            <v>85.5</v>
           </cell>
           <cell r="V2">
-            <v>85.577202050180063</v>
+            <v>95.182806361934965</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>89.998522916225099</v>
           </cell>
           <cell r="X2">
-            <v>72.187230336432549</v>
+            <v>69.907633588966263</v>
           </cell>
           <cell r="Y2">
-            <v>61.120187222906111</v>
+            <v>69.179992131421201</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>68.101243499450092</v>
+            <v>63.009561742481864</v>
           </cell>
           <cell r="C3">
-            <v>56.991089667025712</v>
+            <v>54.022803746868128</v>
           </cell>
           <cell r="D3">
-            <v>52.313283597005437</v>
+            <v>54.56331730010244</v>
           </cell>
           <cell r="E3">
             <v>60.321063486401371</v>
           </cell>
           <cell r="F3">
-            <v>53.134955665573976</v>
+            <v>57.657079552005811</v>
           </cell>
           <cell r="G3">
-            <v>59.649486540489193</v>
+            <v>57.785440086098909</v>
           </cell>
           <cell r="H3">
-            <v>79.332000343490051</v>
+            <v>71.17637413995368</v>
           </cell>
           <cell r="I3">
-            <v>91.921764577188441</v>
+            <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>92.304788836420457</v>
+            <v>93.276418192593312</v>
           </cell>
           <cell r="K3">
-            <v>94.439559244189724</v>
+            <v>89.52083220022152</v>
           </cell>
           <cell r="L3">
-            <v>105.29171581458083</v>
+            <v>97.634136482611311</v>
           </cell>
           <cell r="M3">
-            <v>93.326701172201382</v>
+            <v>102.94801057139742</v>
           </cell>
           <cell r="N3">
-            <v>87.481966178020883</v>
+            <v>94.211348191714791</v>
           </cell>
           <cell r="O3">
-            <v>87.94471675805471</v>
+            <v>91.727285220766731</v>
           </cell>
           <cell r="P3">
-            <v>97.200792950020002</v>
+            <v>94.52554176790936</v>
           </cell>
           <cell r="Q3">
-            <v>95.282155737209251</v>
+            <v>93.54975290562362</v>
           </cell>
           <cell r="R3">
-            <v>88.406260741581633</v>
+            <v>97.427307756028753</v>
           </cell>
           <cell r="S3">
-            <v>104</v>
+            <v>99</v>
           </cell>
           <cell r="T3">
-            <v>104.61937666064914</v>
+            <v>105.61575167646484</v>
           </cell>
           <cell r="U3">
-            <v>99.526139962262206</v>
+            <v>90.744421730297901</v>
           </cell>
           <cell r="V3">
-            <v>101.65041253440366</v>
+            <v>97.814547910463887</v>
           </cell>
           <cell r="W3">
-            <v>94.374968350597385</v>
+            <v>92.577349905824093</v>
           </cell>
           <cell r="X3">
-            <v>84.919410662550604</v>
+            <v>77.056502267869988</v>
           </cell>
           <cell r="Y3">
-            <v>69.196442044479269</v>
+            <v>68.483076662577417</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>77.168487016105502</v>
+            <v>75.044583703735626</v>
           </cell>
           <cell r="C4">
-            <v>64.472250324902234</v>
+            <v>59.867089587409225</v>
           </cell>
           <cell r="D4">
-            <v>58.939683230685098</v>
+            <v>64.89318658731996</v>
           </cell>
           <cell r="E4">
-            <v>65.954346385392256</v>
+            <v>69.156013685654017</v>
           </cell>
           <cell r="F4">
-            <v>58.705221338414702</v>
+            <v>67.63862458556477</v>
           </cell>
           <cell r="G4">
-            <v>69.182630432365059</v>
+            <v>71.178283233298671</v>
           </cell>
           <cell r="H4">
-            <v>91.079123270752476</v>
+            <v>89.099142330083936</v>
           </cell>
           <cell r="I4">
             <v>113.56863542844509</v>
           </cell>
           <cell r="J4">
-            <v>124.51103926765886</v>
+            <v>118.46681406049095</v>
           </cell>
           <cell r="K4">
             <v>116.1103735415155</v>
           </cell>
           <cell r="L4">
-            <v>119.96111733012988</v>
+            <v>125.67355148870749</v>
           </cell>
           <cell r="M4">
-            <v>135</v>
+            <v>116.25</v>
           </cell>
           <cell r="N4">
-            <v>111.99135422939412</v>
+            <v>126.13763055310707</v>
           </cell>
           <cell r="O4">
-            <v>118.0814804808843</v>
+            <v>121.39217619530162</v>
           </cell>
           <cell r="P4">
-            <v>112.35704454613503</v>
+            <v>107.00670909155717</v>
           </cell>
           <cell r="Q4">
-            <v>90.989120154835504</v>
+            <v>101.98780500871672</v>
           </cell>
           <cell r="R4">
-            <v>93.048222917157219</v>
+            <v>98.050815547111895</v>
           </cell>
           <cell r="S4">
-            <v>115.4549941646551</v>
+            <v>102.74435260524353</v>
           </cell>
           <cell r="T4">
-            <v>98.507472085439673</v>
+            <v>113.33655390475317</v>
           </cell>
           <cell r="U4">
             <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>110.89080466705636</v>
+            <v>100.42940800035292</v>
           </cell>
           <cell r="W4">
-            <v>103.04054644744758</v>
+            <v>99.259241990660513</v>
           </cell>
           <cell r="X4">
-            <v>87.94824561524824</v>
+            <v>79.952950559316577</v>
           </cell>
           <cell r="Y4">
-            <v>69.631916787656309</v>
+            <v>75.047732537807349</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>62.829560117991953</v>
+            <v>56.309511426502212</v>
           </cell>
           <cell r="C2">
-            <v>53.716943017339581</v>
+            <v>52.673895580109686</v>
           </cell>
           <cell r="D2">
-            <v>47.135086089339119</v>
+            <v>52.044990890311951</v>
           </cell>
           <cell r="E2">
-            <v>43.664376289063469</v>
+            <v>52.88241128342132</v>
           </cell>
           <cell r="F2">
-            <v>50.781840057568033</v>
+            <v>46.211474452386909</v>
           </cell>
           <cell r="G2">
-            <v>52.087876008653538</v>
+            <v>58.119103757023957</v>
           </cell>
           <cell r="H2">
-            <v>64.176359308110079</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>72.484676288593022</v>
+            <v>77.662153166349668</v>
           </cell>
           <cell r="J2">
-            <v>83.764008469506507</v>
+            <v>79.849802466258538</v>
           </cell>
           <cell r="K2">
-            <v>83.375699634948177</v>
+            <v>85.804118070917553</v>
           </cell>
           <cell r="L2">
-            <v>88.222945735027608</v>
+            <v>84.955429226322877</v>
           </cell>
           <cell r="M2">
-            <v>88.919466660673805</v>
+            <v>80.835878782430726</v>
           </cell>
           <cell r="N2">
-            <v>82.788515179011526</v>
+            <v>83.592287171040766</v>
           </cell>
           <cell r="O2">
             <v>81.868446973629062</v>
           </cell>
           <cell r="P2">
-            <v>75.451736090892268</v>
+            <v>83.073123574820798</v>
           </cell>
           <cell r="Q2">
-            <v>80.82060833980637</v>
+            <v>75.582235577041132</v>
           </cell>
           <cell r="R2">
-            <v>75.180255791170396</v>
+            <v>75.955309974584523</v>
           </cell>
           <cell r="S2">
-            <v>92.134468035167288</v>
+            <v>93.889410283456186</v>
           </cell>
           <cell r="T2">
-            <v>89.46863667102896</v>
+            <v>93.942068504580419</v>
           </cell>
           <cell r="U2">
-            <v>84.6</v>
+            <v>87.3</v>
           </cell>
           <cell r="V2">
-            <v>86.450438805794136</v>
+            <v>80.337781516495568</v>
           </cell>
           <cell r="W2">
-            <v>81.665326349907957</v>
+            <v>84.998604976434819</v>
           </cell>
           <cell r="X2">
-            <v>78.266154996342649</v>
+            <v>82.825348491275236</v>
           </cell>
           <cell r="Y2">
-            <v>66.4933904952495</v>
+            <v>73.209894585678754</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>67.464783279829064</v>
+            <v>59.190800424755693</v>
           </cell>
           <cell r="C3">
-            <v>62.334004323309379</v>
+            <v>54.616460930899649</v>
           </cell>
           <cell r="D3">
-            <v>52.875792022779684</v>
+            <v>61.313418409393471</v>
           </cell>
           <cell r="E3">
-            <v>51.384609636564129</v>
+            <v>53.060194733408608</v>
           </cell>
           <cell r="F3">
-            <v>61.613937952633663</v>
+            <v>52.569690179770006</v>
           </cell>
           <cell r="G3">
-            <v>63.998928267399869</v>
+            <v>58.406788904229003</v>
           </cell>
           <cell r="H3">
-            <v>81.556262035363602</v>
+            <v>78.590579779532206</v>
           </cell>
           <cell r="I3">
-            <v>80.319988465504466</v>
+            <v>91.921764577188441</v>
           </cell>
           <cell r="J3">
-            <v>105.90759982284034</v>
+            <v>102.99271175432179</v>
           </cell>
           <cell r="K3">
-            <v>106.24450414971345</v>
+            <v>107.2282495585071</v>
           </cell>
           <cell r="L3">
-            <v>93.805346816626539</v>
+            <v>100.50572873209987</v>
           </cell>
           <cell r="M3">
-            <v>102.94801057139742</v>
+            <v>93.326701172201382</v>
           </cell>
           <cell r="N3">
-            <v>97.095369054726476</v>
+            <v>86.520625890350317</v>
           </cell>
           <cell r="O3">
-            <v>91.727285220766731</v>
+            <v>89.836000989410707</v>
           </cell>
           <cell r="P3">
-            <v>95.41729216194625</v>
+            <v>86.499788221577433</v>
           </cell>
           <cell r="Q3">
-            <v>83.155335916109877</v>
+            <v>87.48634299507394</v>
           </cell>
           <cell r="R3">
-            <v>82.993632532913381</v>
+            <v>97.427307756028753</v>
           </cell>
           <cell r="S3">
-            <v>98</v>
+            <v>102</v>
           </cell>
           <cell r="T3">
-            <v>101.63025161320202</v>
+            <v>96.648376534123486</v>
           </cell>
           <cell r="U3">
-            <v>99.526139962262206</v>
+            <v>88.792928789861392</v>
           </cell>
           <cell r="V3">
-            <v>88.224886350614497</v>
+            <v>98.773514066448826</v>
           </cell>
           <cell r="W3">
-            <v>85.386876126730954</v>
+            <v>80.892830014797752</v>
           </cell>
           <cell r="X3">
-            <v>86.491992341486721</v>
+            <v>83.346828983614472</v>
           </cell>
           <cell r="Y3">
-            <v>78.470192009203302</v>
+            <v>72.763268953988515</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>75.044583703735626</v>
+            <v>77.168487016105502</v>
           </cell>
           <cell r="C4">
-            <v>71.051051378463697</v>
+            <v>64.472250324902234</v>
           </cell>
           <cell r="D4">
-            <v>57.748982559358126</v>
+            <v>56.558281888031154</v>
           </cell>
           <cell r="E4">
-            <v>69.796347145706378</v>
+            <v>64.673679465287549</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>59.343321570353993</v>
           </cell>
           <cell r="G4">
-            <v>69.182630432365059</v>
+            <v>71.84350083360988</v>
           </cell>
           <cell r="H4">
-            <v>106.91897079610072</v>
+            <v>108.89895173676926</v>
           </cell>
           <cell r="I4">
-            <v>115.77385165035665</v>
+            <v>113.56863542844509</v>
           </cell>
           <cell r="J4">
-            <v>112.42258885332305</v>
+            <v>122.09334918479169</v>
           </cell>
           <cell r="K4">
-            <v>120.94830577241198</v>
+            <v>118.52933965696374</v>
           </cell>
           <cell r="L4">
-            <v>116.5336568349833</v>
+            <v>107.39376218125912</v>
           </cell>
           <cell r="M4">
-            <v>112.5</v>
+            <v>123.75</v>
           </cell>
           <cell r="N4">
-            <v>115.52792331032236</v>
+            <v>113.17021058970353</v>
           </cell>
           <cell r="O4">
-            <v>109.25295857577144</v>
+            <v>110.35652381391056</v>
           </cell>
           <cell r="P4">
-            <v>110.21691036430389</v>
+            <v>115.56724581888174</v>
           </cell>
           <cell r="Q4">
-            <v>107.9870876562883</v>
+            <v>90.989120154835504</v>
           </cell>
           <cell r="R4">
-            <v>110.05703785900316</v>
+            <v>92.047704391166278</v>
           </cell>
           <cell r="S4">
-            <v>114.39577403470415</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="T4">
-            <v>110.15889351490029</v>
+            <v>97.448251955488715</v>
           </cell>
           <cell r="U4">
-            <v>96.765428365726635</v>
+            <v>101.06611407087003</v>
           </cell>
           <cell r="V4">
-            <v>96.244849333671553</v>
+            <v>110.89080466705636</v>
           </cell>
           <cell r="W4">
-            <v>97.368589762266978</v>
+            <v>100.20456810485727</v>
           </cell>
           <cell r="X4">
-            <v>84.750127592875572</v>
+            <v>81.552009570502904</v>
           </cell>
           <cell r="Y4">
-            <v>83.558300145187573</v>
+            <v>73.500356609192764</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>11.388435706142491</v>
+            <v>10.698227481527795</v>
           </cell>
           <cell r="C2">
-            <v>8.9621956837424133</v>
+            <v>8.074849576441185</v>
           </cell>
           <cell r="D2">
-            <v>7.5961367846516046</v>
+            <v>7.2922913132655403</v>
           </cell>
           <cell r="E2">
-            <v>8.176657126814149</v>
+            <v>7.5076579073475358</v>
           </cell>
           <cell r="F2">
             <v>8.6173937063137149</v>
           </cell>
           <cell r="G2">
-            <v>9.9653898262285168</v>
+            <v>10.384985187332877</v>
           </cell>
           <cell r="H2">
-            <v>14.810378351287854</v>
+            <v>14.973129761741566</v>
           </cell>
           <cell r="I2">
-            <v>20.067521415869454</v>
+            <v>19.074079761618489</v>
           </cell>
           <cell r="J2">
-            <v>24.792072150320028</v>
+            <v>21.11917257249484</v>
           </cell>
           <cell r="K2">
-            <v>24.014446126256086</v>
+            <v>22.750527909084713</v>
           </cell>
           <cell r="L2">
-            <v>26.766279072614047</v>
+            <v>27.785946846808869</v>
           </cell>
           <cell r="M2">
-            <v>24.283569410551301</v>
+            <v>26.035991945333357</v>
           </cell>
           <cell r="N2">
-            <v>26.398290172587117</v>
+            <v>25.141228735797252</v>
           </cell>
           <cell r="O2">
-            <v>24.138136644772068</v>
+            <v>24.635830183839534</v>
           </cell>
           <cell r="P2">
-            <v>20.428454431666598</v>
+            <v>23.122316554523731</v>
           </cell>
           <cell r="Q2">
-            <v>20.262003063769829</v>
+            <v>19.195581849887208</v>
           </cell>
           <cell r="R2">
-            <v>22.01099874677239</v>
+            <v>22.231108734240113</v>
           </cell>
           <cell r="S2">
-            <v>30.3</v>
+            <v>29.7</v>
           </cell>
           <cell r="T2">
-            <v>32.652529518319184</v>
+            <v>28.159062153412869</v>
           </cell>
           <cell r="U2">
-            <v>31.656127895941694</v>
+            <v>27.009356828647501</v>
           </cell>
           <cell r="V2">
-            <v>24.46237425307066</v>
+            <v>25.806460750492125</v>
           </cell>
           <cell r="W2">
-            <v>24.624022482795553</v>
+            <v>23.667749765017081</v>
           </cell>
           <cell r="X2">
-            <v>17.939039792003484</v>
+            <v>20.278914547482202</v>
           </cell>
           <cell r="Y2">
-            <v>14.809861311821411</v>
+            <v>15.408239546642479</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-26.477511239440371</v>
+            <v>-30.550974507046583</v>
           </cell>
           <cell r="C3">
-            <v>-32.888478552585298</v>
+            <v>-29.726124845605938</v>
           </cell>
           <cell r="D3">
-            <v>-30.656624782507482</v>
+            <v>-36.78794973900898</v>
           </cell>
           <cell r="E3">
-            <v>-32.12419976923784</v>
+            <v>-35.505694481789199</v>
           </cell>
           <cell r="F3">
-            <v>-33.25</v>
+            <v>-34.299999999999997</v>
           </cell>
           <cell r="G3">
-            <v>-32.091286045662528</v>
+            <v>-30.845022509908645</v>
           </cell>
           <cell r="H3">
-            <v>-22.737824767768746</v>
+            <v>-22.2737875276102</v>
           </cell>
           <cell r="I3">
-            <v>-10.218872426865063</v>
+            <v>-9.7413550237405264</v>
           </cell>
           <cell r="J3">
-            <v>-3.0375243851877078</v>
+            <v>-2.8125225788775072</v>
           </cell>
           <cell r="K3">
-            <v>-0.47077042064057217</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-3.6338353085281616</v>
+            <v>-4.2263084566577529</v>
           </cell>
           <cell r="M3">
-            <v>-2.6715251531427726</v>
+            <v>-2.9038316881986659</v>
           </cell>
           <cell r="N3">
-            <v>-4.0594912600311215</v>
+            <v>-4.0996842428037068</v>
           </cell>
           <cell r="O3">
-            <v>-4.2167238257296438</v>
+            <v>-4.297814668532137</v>
           </cell>
           <cell r="P3">
-            <v>-10.454996986558173</v>
+            <v>-9.8399971638194561</v>
           </cell>
           <cell r="Q3">
-            <v>-15.352073897049898</v>
+            <v>-13.433064659918662</v>
           </cell>
           <cell r="R3">
-            <v>-12.208812759637116</v>
+            <v>-11.946257646526639</v>
           </cell>
           <cell r="S3">
-            <v>-4.9293153105021688</v>
+            <v>-4.3019479073473468</v>
           </cell>
           <cell r="T3">
             <v>-5.9318649619408612</v>
@@ -1958,240 +1958,240 @@
             <v>-8.1941074192990548</v>
           </cell>
           <cell r="V3">
-            <v>-12.099201218912656</v>
+            <v>-11.970486312328481</v>
           </cell>
           <cell r="W3">
             <v>-18.211753550434707</v>
           </cell>
           <cell r="X3">
-            <v>-22.191934802360052</v>
+            <v>-20.398647141563281</v>
           </cell>
           <cell r="Y3">
-            <v>-25.735847104036036</v>
+            <v>-23.717349291954775</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.153484322237276</v>
+            <v>44.400858509753611</v>
           </cell>
           <cell r="C4">
-            <v>50</v>
+            <v>53.5</v>
           </cell>
           <cell r="D4">
+            <v>50.5</v>
+          </cell>
+          <cell r="E4">
+            <v>47</v>
+          </cell>
+          <cell r="F4">
             <v>49</v>
           </cell>
-          <cell r="E4">
-            <v>46</v>
-          </cell>
-          <cell r="F4">
-            <v>52</v>
-          </cell>
           <cell r="G4">
-            <v>37.271648996155214</v>
+            <v>42.943421669483179</v>
           </cell>
           <cell r="H4">
             <v>17.640518327623312</v>
           </cell>
           <cell r="I4">
-            <v>2.1290942754628754</v>
+            <v>2.4129735121912588</v>
           </cell>
           <cell r="J4">
-            <v>-14.810788388588996</v>
+            <v>-13.426602557879743</v>
           </cell>
           <cell r="K4">
-            <v>-12.872928225596043</v>
+            <v>-14.257114056305294</v>
           </cell>
           <cell r="L4">
             <v>-1.2635986981622949</v>
           </cell>
           <cell r="M4">
-            <v>-15.300929136764116</v>
+            <v>-13.13570331552391</v>
           </cell>
           <cell r="N4">
-            <v>-15.445277524846796</v>
+            <v>-13.28005170360659</v>
           </cell>
           <cell r="O4">
-            <v>-11.620505217207103</v>
+            <v>-10.279677692144746</v>
           </cell>
           <cell r="P4">
-            <v>-1.3202476900774478</v>
+            <v>-1.431426442926075</v>
           </cell>
           <cell r="Q4">
-            <v>8.4780027081262332</v>
+            <v>8.8137651916163815</v>
           </cell>
           <cell r="R4">
-            <v>11.072561207213832</v>
+            <v>10.839454655483015</v>
           </cell>
           <cell r="S4">
-            <v>12.704307069329555</v>
+            <v>11.538774310675468</v>
           </cell>
           <cell r="T4">
-            <v>11.655327586540876</v>
+            <v>10.722901379617607</v>
           </cell>
           <cell r="U4">
-            <v>12.704307069329555</v>
+            <v>11.189114483079241</v>
           </cell>
           <cell r="V4">
-            <v>10.722901379617607</v>
+            <v>12.587753793464147</v>
           </cell>
           <cell r="W4">
-            <v>25.763418231124426</v>
+            <v>25.520367115736459</v>
           </cell>
           <cell r="X4">
-            <v>39.381709115562217</v>
+            <v>34.551876865540436</v>
           </cell>
           <cell r="Y4">
-            <v>37.524081327092304</v>
+            <v>40.867811346338151</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>11.963609226654738</v>
+            <v>11.043331593835143</v>
           </cell>
           <cell r="C2">
-            <v>8.4297880193616752</v>
+            <v>9.0509302944725363</v>
           </cell>
           <cell r="D2">
-            <v>7.0644072097259922</v>
+            <v>7.3682526811120566</v>
           </cell>
           <cell r="E2">
-            <v>7.0616584277031276</v>
+            <v>7.8793241403845427</v>
           </cell>
           <cell r="F2">
-            <v>9.2087834704725005</v>
+            <v>8.1104881941776146</v>
           </cell>
           <cell r="G2">
-            <v>11.224175909541595</v>
+            <v>10.909479388713324</v>
           </cell>
           <cell r="H2">
-            <v>16.763395276732407</v>
+            <v>17.739903739454682</v>
           </cell>
           <cell r="I2">
-            <v>18.478014769067915</v>
+            <v>19.868833085019261</v>
           </cell>
           <cell r="J2">
-            <v>21.578285019722983</v>
+            <v>22.955622361407432</v>
           </cell>
           <cell r="K2">
-            <v>27.300633490901657</v>
+            <v>26.542282560598832</v>
           </cell>
           <cell r="L2">
-            <v>27.785946846808869</v>
+            <v>23.707275750029584</v>
           </cell>
           <cell r="M2">
-            <v>25.28495371614105</v>
+            <v>27.037376250923103</v>
           </cell>
           <cell r="N2">
-            <v>26.901114747303062</v>
+            <v>25.895465597871169</v>
           </cell>
           <cell r="O2">
-            <v>23.640443105704602</v>
+            <v>27.124297879176861</v>
           </cell>
           <cell r="P2">
-            <v>21.775385493095161</v>
+            <v>20.203965921428502</v>
           </cell>
           <cell r="Q2">
-            <v>23.247982462641176</v>
+            <v>23.034698219864651</v>
           </cell>
           <cell r="R2">
-            <v>22.231108734240113</v>
+            <v>21.570778771836942</v>
           </cell>
           <cell r="S2">
-            <v>28.799999999999997</v>
+            <v>32.1</v>
           </cell>
           <cell r="T2">
-            <v>30.555578081362903</v>
+            <v>27.260368680431611</v>
           </cell>
           <cell r="U2">
-            <v>27.009356828647501</v>
+            <v>30.784858320824032</v>
           </cell>
           <cell r="V2">
-            <v>25.000008852039247</v>
+            <v>24.731191552554954</v>
           </cell>
           <cell r="W2">
-            <v>22.711477047238613</v>
+            <v>22.950545226683232</v>
           </cell>
           <cell r="X2">
-            <v>20.668893673395321</v>
+            <v>21.058872799308439</v>
           </cell>
           <cell r="Y2">
-            <v>15.857023222758279</v>
+            <v>15.408239546642479</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-29.09616619718722</v>
+            <v>-32.005782816905942</v>
           </cell>
           <cell r="C3">
-            <v>-34.153420035377039</v>
+            <v>-31.623537069793553</v>
           </cell>
           <cell r="D3">
-            <v>-33.041028932258058</v>
+            <v>-36.106691410508809</v>
           </cell>
           <cell r="E3">
-            <v>-31.786050297982708</v>
+            <v>-33.476797654258384</v>
           </cell>
           <cell r="F3">
-            <v>-35.35</v>
+            <v>-36.75</v>
           </cell>
           <cell r="G3">
-            <v>-28.975627206277821</v>
+            <v>-33.337549581416418</v>
           </cell>
           <cell r="H3">
-            <v>-20.881675807134563</v>
+            <v>-24.593973728402933</v>
           </cell>
           <cell r="I3">
-            <v>-10.218872426865063</v>
+            <v>-10.027865465615248</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-2.671896449933632</v>
           </cell>
           <cell r="K3">
-            <v>-0.48396959131273776</v>
+            <v>-0.39597512016496722</v>
           </cell>
           <cell r="L3">
-            <v>-3.7128317282787733</v>
+            <v>-3.9893191974059161</v>
           </cell>
           <cell r="M3">
-            <v>-2.7586401037887325</v>
+            <v>-2.9619083219626394</v>
           </cell>
           <cell r="N3">
-            <v>-3.9389123117133655</v>
+            <v>-4.4212281049843902</v>
           </cell>
           <cell r="O3">
-            <v>-4.1356329829271505</v>
+            <v>-4.2572692471308899</v>
           </cell>
           <cell r="P3">
-            <v>-11.274996750209795</v>
+            <v>-10.659996927471079</v>
           </cell>
           <cell r="Q3">
-            <v>-14.023529040574426</v>
+            <v>-13.875912945410484</v>
           </cell>
           <cell r="R3">
-            <v>-12.340090316192352</v>
+            <v>-14.177976107965684</v>
           </cell>
           <cell r="S3">
-            <v>-4.4811957368201529</v>
+            <v>-4.3019479073473468</v>
           </cell>
           <cell r="T3">
-            <v>-6.5837182544618349</v>
+            <v>-6.9096449007223226</v>
           </cell>
           <cell r="U3">
-            <v>-8.1941074192990548</v>
+            <v>-8.2760484934920449</v>
           </cell>
           <cell r="V3">
-            <v>-12.742775751833543</v>
+            <v>-11.584341592575948</v>
           </cell>
           <cell r="W3">
-            <v>-17.37635201142394</v>
+            <v>-18.044673242632555</v>
           </cell>
           <cell r="X3">
-            <v>-24.657705335955615</v>
+            <v>-21.743612887160861</v>
           </cell>
           <cell r="Y3">
-            <v>-27.249720463096981</v>
+            <v>-24.978910424505564</v>
           </cell>
         </row>
         <row r="4">
@@ -2199,125 +2199,125 @@
             <v>40.768060995319225</v>
           </cell>
           <cell r="C4">
+            <v>54.500000000000007</v>
+          </cell>
+          <cell r="D4">
+            <v>45.5</v>
+          </cell>
+          <cell r="E4">
             <v>47</v>
           </cell>
-          <cell r="D4">
-            <v>54</v>
-          </cell>
-          <cell r="E4">
-            <v>46</v>
-          </cell>
           <cell r="F4">
-            <v>54.500000000000007</v>
+            <v>50.5</v>
           </cell>
           <cell r="G4">
-            <v>40.512661952342619</v>
+            <v>41.32291519138947</v>
           </cell>
           <cell r="H4">
-            <v>16.905496730639008</v>
+            <v>17.089252129885086</v>
           </cell>
           <cell r="I4">
-            <v>2.2946904968877657</v>
+            <v>2.5075999244340532</v>
           </cell>
           <cell r="J4">
-            <v>-13.703439724021594</v>
+            <v>-15.226044137801772</v>
           </cell>
           <cell r="K4">
-            <v>-12.457672476383268</v>
+            <v>-13.011346808666968</v>
           </cell>
           <cell r="L4">
-            <v>-1.0728668191944013</v>
+            <v>-1.2635986981622949</v>
           </cell>
           <cell r="M4">
-            <v>-15.300929136764116</v>
+            <v>-15.445277524846796</v>
           </cell>
           <cell r="N4">
-            <v>-14.867883972516074</v>
+            <v>-15.733974301012157</v>
           </cell>
           <cell r="O4">
-            <v>-10.056206437967687</v>
+            <v>-10.391413319233276</v>
           </cell>
           <cell r="P4">
-            <v>-1.2507609695470558</v>
+            <v>-1.4592211311382317</v>
           </cell>
           <cell r="Q4">
-            <v>8.6458839498713065</v>
+            <v>9.2334682959790655</v>
           </cell>
           <cell r="R4">
+            <v>10.722901379617607</v>
+          </cell>
+          <cell r="S4">
+            <v>11.655327586540876</v>
+          </cell>
+          <cell r="T4">
+            <v>11.538774310675468</v>
+          </cell>
+          <cell r="U4">
             <v>10.839454655483015</v>
           </cell>
-          <cell r="S4">
-            <v>10.606348103752197</v>
-          </cell>
-          <cell r="T4">
-            <v>10.722901379617607</v>
-          </cell>
-          <cell r="U4">
-            <v>12.704307069329555</v>
-          </cell>
           <cell r="V4">
-            <v>12.23809396586792</v>
+            <v>11.422221034810059</v>
           </cell>
           <cell r="W4">
-            <v>22.846804846468828</v>
+            <v>24.06206042340866</v>
           </cell>
           <cell r="X4">
-            <v>39.753234673256202</v>
+            <v>37.524081327092304</v>
           </cell>
           <cell r="Y4">
-            <v>39.381709115562217</v>
+            <v>34.180351307846458</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>12.423748043064537</v>
+            <v>10.353123369220446</v>
           </cell>
           <cell r="C2">
-            <v>8.6959918515520442</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>8.3557504631167649</v>
           </cell>
           <cell r="E2">
-            <v>6.764325441273523</v>
+            <v>7.4333246607401344</v>
           </cell>
           <cell r="F2">
-            <v>9.2932677224951838</v>
+            <v>8.194972446200298</v>
           </cell>
           <cell r="G2">
-            <v>11.224175909541595</v>
+            <v>10.909479388713324</v>
           </cell>
           <cell r="H2">
-            <v>14.810378351287854</v>
+            <v>17.57715232900097</v>
           </cell>
           <cell r="I2">
-            <v>19.074079761618489</v>
+            <v>18.676703099918104</v>
           </cell>
           <cell r="J2">
-            <v>22.726066137793357</v>
+            <v>23.87384725586373</v>
           </cell>
           <cell r="K2">
-            <v>23.003311552518987</v>
+            <v>25.278364343427459</v>
           </cell>
           <cell r="L2">
-            <v>24.217109637126995</v>
+            <v>23.197441862932177</v>
           </cell>
           <cell r="M2">
-            <v>25.034607639743612</v>
+            <v>24.784261563346174</v>
           </cell>
           <cell r="N2">
-            <v>24.638404161081308</v>
+            <v>23.381342724291446</v>
           </cell>
           <cell r="O2">
-            <v>24.635830183839534</v>
+            <v>27.124297879176861</v>
           </cell>
           <cell r="P2">
-            <v>23.122316554523731</v>
+            <v>20.877431452142787</v>
           </cell>
           <cell r="Q2">
-            <v>23.247982462641176</v>
+            <v>20.048718820993304</v>
           </cell>
           <cell r="R2">
             <v>22.891438696643288</v>
@@ -2326,167 +2326,167 @@
             <v>33</v>
           </cell>
           <cell r="T2">
-            <v>28.159062153412869</v>
+            <v>27.260368680431611</v>
           </cell>
           <cell r="U2">
-            <v>27.299780020353385</v>
+            <v>29.623165554000483</v>
           </cell>
           <cell r="V2">
-            <v>25.537643451007831</v>
+            <v>26.881729948429296</v>
           </cell>
           <cell r="W2">
-            <v>25.102158841684787</v>
+            <v>21.755204329460149</v>
           </cell>
           <cell r="X2">
-            <v>18.718998043829721</v>
+            <v>17.549060666090366</v>
           </cell>
           <cell r="Y2">
-            <v>14.061888518295078</v>
+            <v>13.762699400884545</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-30.841936169018453</v>
+            <v>-31.132897830990327</v>
           </cell>
           <cell r="C3">
             <v>-32.888478552585298</v>
           </cell>
           <cell r="D3">
-            <v>-34.403545589258393</v>
+            <v>-37.128578903259061</v>
           </cell>
           <cell r="E3">
-            <v>-34.829395539278927</v>
+            <v>-33.476797654258384</v>
           </cell>
           <cell r="F3">
-            <v>-36.050000000000004</v>
+            <v>-37.800000000000004</v>
           </cell>
           <cell r="G3">
-            <v>-33.337549581416418</v>
+            <v>-34.27224723323183</v>
           </cell>
           <cell r="H3">
-            <v>-23.433880628006566</v>
+            <v>-25.522048208720022</v>
           </cell>
           <cell r="I3">
-            <v>-9.6458515431156204</v>
+            <v>-8.8818236981163636</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-2.9812739336101579</v>
           </cell>
           <cell r="K3">
-            <v>-0.46197097352579508</v>
+            <v>-0.41797373795190984</v>
           </cell>
           <cell r="L3">
-            <v>-4.305304876408365</v>
+            <v>-3.9498209875306101</v>
           </cell>
           <cell r="M3">
-            <v>-2.9328700050806527</v>
+            <v>-2.9909466388446257</v>
           </cell>
           <cell r="N3">
-            <v>-4.3006491566666343</v>
+            <v>-4.0996842428037068</v>
           </cell>
           <cell r="O3">
             <v>-3.8518150331184242</v>
           </cell>
           <cell r="P3">
-            <v>-10.967496838840438</v>
+            <v>-11.274996750209795</v>
           </cell>
           <cell r="Q3">
-            <v>-15.204457801885956</v>
+            <v>-13.728296850246544</v>
           </cell>
           <cell r="R3">
-            <v>-12.471367872747591</v>
+            <v>-13.390310768634256</v>
           </cell>
           <cell r="S3">
-            <v>-4.6604435662929591</v>
+            <v>-4.7500674810293626</v>
           </cell>
           <cell r="T3">
-            <v>-7.1052008884786142</v>
+            <v>-6.7792742422181274</v>
           </cell>
           <cell r="U3">
             <v>-7.948284196720083</v>
           </cell>
           <cell r="V3">
-            <v>-14.029924817675315</v>
+            <v>-13.772495004506961</v>
           </cell>
           <cell r="W3">
-            <v>-15.371388317798102</v>
+            <v>-18.378833858236863</v>
           </cell>
           <cell r="X3">
-            <v>-22.640256717559247</v>
+            <v>-21.071130014362069</v>
           </cell>
           <cell r="Y3">
-            <v>-26.240471557056349</v>
+            <v>-26.745096010076665</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.960772658778247</v>
+            <v>42.382637668401173</v>
           </cell>
           <cell r="C4">
-            <v>54</v>
+            <v>52</v>
           </cell>
           <cell r="D4">
-            <v>54</v>
+            <v>50</v>
           </cell>
           <cell r="E4">
-            <v>52.5</v>
+            <v>55.000000000000007</v>
           </cell>
           <cell r="F4">
-            <v>47.5</v>
+            <v>51</v>
           </cell>
           <cell r="G4">
-            <v>39.702408713295767</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
-            <v>17.824273726869389</v>
+            <v>19.294316920838</v>
           </cell>
           <cell r="I4">
-            <v>2.5312565274947518</v>
+            <v>2.1764074815842727</v>
           </cell>
           <cell r="J4">
-            <v>-13.841858307092519</v>
+            <v>-14.257114056305294</v>
           </cell>
           <cell r="K4">
-            <v>-14.11869547323437</v>
+            <v>-13.565021140950668</v>
           </cell>
           <cell r="L4">
-            <v>-1.1801535011138413</v>
+            <v>-1.2278364708558149</v>
           </cell>
           <cell r="M4">
-            <v>-15.300929136764116</v>
+            <v>-14.001793644019992</v>
           </cell>
           <cell r="N4">
-            <v>-15.589625912929476</v>
+            <v>-13.857445255937311</v>
           </cell>
           <cell r="O4">
-            <v>-10.726620200498864</v>
+            <v>-11.620505217207103</v>
           </cell>
           <cell r="P4">
-            <v>-1.4453237870321534</v>
+            <v>-1.3341450341835261</v>
           </cell>
           <cell r="Q4">
-            <v>8.8137651916163815</v>
+            <v>8.2261808455086225</v>
           </cell>
           <cell r="R4">
+            <v>12.354647241733328</v>
+          </cell>
+          <cell r="S4">
+            <v>10.839454655483015</v>
+          </cell>
+          <cell r="T4">
+            <v>12.587753793464147</v>
+          </cell>
+          <cell r="U4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="S4">
-            <v>12.121540690002512</v>
-          </cell>
-          <cell r="T4">
-            <v>10.956007931348424</v>
-          </cell>
-          <cell r="U4">
-            <v>11.305667758944649</v>
-          </cell>
           <cell r="V4">
-            <v>12.121540690002512</v>
+            <v>12.23809396586792</v>
           </cell>
           <cell r="W4">
             <v>25.763418231124426</v>
           </cell>
           <cell r="X4">
-            <v>40.124760230950187</v>
+            <v>38.638658000174253</v>
           </cell>
           <cell r="Y4">
             <v>35.666453538622385</v>
@@ -2496,276 +2496,276 @@
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>60.084366391108787</v>
+            <v>69.129324772566022</v>
           </cell>
           <cell r="C2">
-            <v>53.461139946800223</v>
+            <v>60.285966322987498</v>
           </cell>
           <cell r="D2">
-            <v>55.931244385164135</v>
+            <v>57.006845238724985</v>
           </cell>
           <cell r="E2">
-            <v>54.678063923937877</v>
+            <v>51.032859662342013</v>
           </cell>
           <cell r="F2">
-            <v>52.995534550049037</v>
+            <v>60.72405000526453</v>
           </cell>
           <cell r="G2">
-            <v>53.091176480765199</v>
+            <v>46.012352949996504</v>
           </cell>
           <cell r="H2">
-            <v>60.487226914758452</v>
+            <v>57.522166771878133</v>
           </cell>
           <cell r="I2">
-            <v>70.206488958322353</v>
+            <v>72.959684603746766</v>
           </cell>
           <cell r="J2">
-            <v>82.969424951232611</v>
+            <v>72.113612340790965</v>
           </cell>
           <cell r="K2">
-            <v>87.383824241762397</v>
+            <v>82.390462856518823</v>
           </cell>
           <cell r="L2">
             <v>84.168275910791152</v>
           </cell>
           <cell r="M2">
-            <v>84.627909658470699</v>
+            <v>82.883004304687802</v>
           </cell>
           <cell r="N2">
-            <v>85.400009082065864</v>
+            <v>84.510425654127687</v>
           </cell>
           <cell r="O2">
-            <v>82.511988695362149</v>
+            <v>85.202597022384808</v>
           </cell>
           <cell r="P2">
-            <v>99.000000000000014</v>
+            <v>84.6</v>
           </cell>
           <cell r="Q2">
-            <v>90.07135452915179</v>
+            <v>77.946364496381364</v>
           </cell>
           <cell r="R2">
-            <v>86.650420267926251</v>
+            <v>81.451395051850668</v>
           </cell>
           <cell r="S2">
-            <v>82.439431491030234</v>
+            <v>84.937596081667508</v>
           </cell>
           <cell r="T2">
-            <v>83.710294906507926</v>
+            <v>88.732912600898402</v>
           </cell>
           <cell r="U2">
-            <v>82.710566652055149</v>
+            <v>88.618464270059093</v>
           </cell>
           <cell r="V2">
-            <v>82.867716224872666</v>
+            <v>80.356573308967441</v>
           </cell>
           <cell r="W2">
-            <v>94.508902315233939</v>
+            <v>85.838360818423467</v>
           </cell>
           <cell r="X2">
-            <v>77.088291863237529</v>
+            <v>84.712408640920358</v>
           </cell>
           <cell r="Y2">
-            <v>70.410508912331025</v>
+            <v>78.738633622391674</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>77.303152226424046</v>
+            <v>76.573877205420033</v>
           </cell>
           <cell r="C3">
-            <v>72.221110146398729</v>
+            <v>72.883689138567533</v>
           </cell>
           <cell r="D3">
-            <v>62.496524084707048</v>
+            <v>67.704567758432646</v>
           </cell>
           <cell r="E3">
-            <v>65.583584831497305</v>
+            <v>66.232927255571539</v>
           </cell>
           <cell r="F3">
-            <v>68.835723540077041</v>
+            <v>60.393606502143072</v>
           </cell>
           <cell r="G3">
-            <v>69.514261656233217</v>
+            <v>70.157912227124257</v>
           </cell>
           <cell r="H3">
-            <v>75.046850778962721</v>
+            <v>62.53904231580227</v>
           </cell>
           <cell r="I3">
-            <v>79.199063479870105</v>
+            <v>77.54908299070614</v>
           </cell>
           <cell r="J3">
-            <v>85.563140889459717</v>
+            <v>92.144920957879691</v>
           </cell>
           <cell r="K3">
-            <v>97.88379405524276</v>
+            <v>96.914647579448271</v>
           </cell>
           <cell r="L3">
-            <v>98.811914116902088</v>
+            <v>104.56794794895464</v>
           </cell>
           <cell r="M3">
-            <v>102.59264522486689</v>
+            <v>96.673838769586098</v>
           </cell>
           <cell r="N3">
-            <v>93</v>
+            <v>108</v>
           </cell>
           <cell r="O3">
-            <v>106.00220233070868</v>
+            <v>94.224179849518819</v>
           </cell>
           <cell r="P3">
-            <v>90.5423503554089</v>
+            <v>85.826602941064692</v>
           </cell>
           <cell r="Q3">
-            <v>95.044881048182802</v>
+            <v>89.613744988286641</v>
           </cell>
           <cell r="R3">
-            <v>91.177211143766925</v>
+            <v>94.861138866747424</v>
           </cell>
           <cell r="S3">
-            <v>87.427614202813601</v>
+            <v>89.287776207128786</v>
           </cell>
           <cell r="T3">
-            <v>101.80914470498028</v>
+            <v>99.007058153467057</v>
           </cell>
           <cell r="U3">
-            <v>90.019505139466972</v>
+            <v>96.449469792286052</v>
           </cell>
           <cell r="V3">
             <v>88.447321565564536</v>
           </cell>
           <cell r="W3">
-            <v>91.151144335688855</v>
+            <v>90.191658605839493</v>
           </cell>
           <cell r="X3">
-            <v>97.484894873025439</v>
+            <v>93.013110704538036</v>
           </cell>
           <cell r="Y3">
-            <v>77.066080724905206</v>
+            <v>73.786673034483712</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>90.673838861083524</v>
+            <v>89.84196877978917</v>
           </cell>
           <cell r="C4">
-            <v>79.531483733543794</v>
+            <v>71.199614009077294</v>
           </cell>
           <cell r="D4">
-            <v>65.55352936596563</v>
+            <v>71.316477002534043</v>
           </cell>
           <cell r="E4">
-            <v>67.388153834443699</v>
+            <v>68.08287706985034</v>
           </cell>
           <cell r="F4">
-            <v>75.030109423916699</v>
+            <v>68.08287706985034</v>
           </cell>
           <cell r="G4">
-            <v>73.744986800804185</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>101.7336458898196</v>
+            <v>100.80030968899557</v>
           </cell>
           <cell r="I4">
-            <v>105.66507845707133</v>
+            <v>118.29894653346028</v>
           </cell>
           <cell r="J4">
-            <v>116.27478684861634</v>
+            <v>107.88382284923166</v>
           </cell>
           <cell r="K4">
-            <v>111.49402086189069</v>
+            <v>110.32039958966025</v>
           </cell>
           <cell r="L4">
-            <v>117.30638638065362</v>
+            <v>121.99864183587977</v>
           </cell>
           <cell r="M4">
-            <v>115</v>
+            <v>126.25</v>
           </cell>
           <cell r="N4">
-            <v>122.5</v>
+            <v>121.25</v>
           </cell>
           <cell r="O4">
-            <v>131.25</v>
+            <v>130</v>
           </cell>
           <cell r="P4">
-            <v>115.16619429455505</v>
+            <v>112.79163358745083</v>
           </cell>
           <cell r="Q4">
-            <v>110.15231154251752</v>
+            <v>122.51634651157563</v>
           </cell>
           <cell r="R4">
-            <v>100.51844759873973</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="S4">
-            <v>97.377246111279121</v>
+            <v>112.03618638609532</v>
           </cell>
           <cell r="T4">
-            <v>100.51844759873973</v>
+            <v>108.8949848986347</v>
           </cell>
           <cell r="U4">
-            <v>108.8949848986347</v>
+            <v>115.17738787355594</v>
           </cell>
           <cell r="V4">
+            <v>106.80085057366097</v>
+          </cell>
+          <cell r="W4">
             <v>103.65964908620035</v>
           </cell>
-          <cell r="W4">
-            <v>113.08325354858221</v>
-          </cell>
           <cell r="X4">
-            <v>104.98130510466393</v>
+            <v>98.924691348625615</v>
           </cell>
           <cell r="Y4">
-            <v>94.448616607568312</v>
+            <v>96.33758893971968</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>63.960777126019032</v>
+            <v>62.668640214382279</v>
           </cell>
           <cell r="C2">
-            <v>60.285966322987498</v>
+            <v>54.598611009498107</v>
           </cell>
           <cell r="D2">
-            <v>57.006845238724985</v>
+            <v>50.553240117359884</v>
           </cell>
           <cell r="E2">
-            <v>49.470629264515217</v>
+            <v>57.281781253649207</v>
           </cell>
           <cell r="F2">
-            <v>55.755718641197433</v>
+            <v>55.203681822967752</v>
           </cell>
           <cell r="G2">
-            <v>55.61932774175402</v>
+            <v>50.563025219776378</v>
           </cell>
           <cell r="H2">
-            <v>57.522166771878133</v>
+            <v>61.673250971910583</v>
           </cell>
           <cell r="I2">
-            <v>65.388396578829642</v>
+            <v>70.206488958322353</v>
           </cell>
           <cell r="J2">
-            <v>82.194009764772488</v>
+            <v>77.541518646011781</v>
           </cell>
           <cell r="K2">
-            <v>84.887143549140603</v>
+            <v>75.732647676194077</v>
           </cell>
           <cell r="L2">
-            <v>91.898015535251574</v>
+            <v>90.180295618704804</v>
           </cell>
           <cell r="M2">
-            <v>92.479983750493759</v>
+            <v>86.372815012253596</v>
           </cell>
           <cell r="N2">
             <v>96.075010217324106</v>
           </cell>
           <cell r="O2">
-            <v>89.686944234089282</v>
+            <v>86.099466464725708</v>
           </cell>
           <cell r="P2">
-            <v>87.3</v>
+            <v>88.2</v>
           </cell>
           <cell r="Q2">
-            <v>85.741000946019483</v>
+            <v>84.87493022939303</v>
           </cell>
           <cell r="R2">
             <v>81.451395051850668</v>
@@ -2774,765 +2774,765 @@
             <v>76.610380779543249</v>
           </cell>
           <cell r="T2">
-            <v>89.570015549963486</v>
+            <v>80.361883110247604</v>
           </cell>
           <cell r="U2">
-            <v>79.334625156052894</v>
+            <v>88.618464270059093</v>
           </cell>
           <cell r="V2">
-            <v>92.075240249858538</v>
+            <v>77.008382754427132</v>
           </cell>
           <cell r="W2">
-            <v>87.572469117785573</v>
+            <v>85.838360818423467</v>
           </cell>
           <cell r="X2">
-            <v>83.018160468101954</v>
+            <v>91.489401332193992</v>
           </cell>
           <cell r="Y2">
-            <v>78.738633622391674</v>
+            <v>68.896304419592724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>77.303152226424046</v>
+            <v>80.220252310440046</v>
           </cell>
           <cell r="C3">
-            <v>59.632109295191611</v>
+            <v>69.570794177723542</v>
           </cell>
           <cell r="D3">
-            <v>68.355573217648342</v>
+            <v>69.657584136079734</v>
           </cell>
           <cell r="E3">
-            <v>70.128981800016916</v>
+            <v>60.388845438903459</v>
           </cell>
           <cell r="F3">
-            <v>71.433298013287498</v>
+            <v>68.835723540077041</v>
           </cell>
           <cell r="G3">
-            <v>70.801562798015311</v>
+            <v>67.583309943560067</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>76.436607274869445</v>
           </cell>
           <cell r="I3">
-            <v>79.199063479870105</v>
+            <v>78.374073235288122</v>
           </cell>
           <cell r="J3">
-            <v>87.443649480436861</v>
+            <v>84.62288659397116</v>
           </cell>
           <cell r="K3">
             <v>95.945501103653783</v>
           </cell>
           <cell r="L3">
-            <v>98.811914116902088</v>
+            <v>89.218524396814502</v>
           </cell>
           <cell r="M3">
-            <v>103.57911296741369</v>
+            <v>90.755032314305325</v>
           </cell>
           <cell r="N3">
-            <v>104</v>
+            <v>108</v>
           </cell>
           <cell r="O3">
-            <v>104.0391985838437</v>
+            <v>94.224179849518819</v>
           </cell>
           <cell r="P3">
-            <v>91.485499838277747</v>
+            <v>100.91699466696618</v>
           </cell>
           <cell r="Q3">
-            <v>83.277419585074455</v>
+            <v>97.76044907813089</v>
           </cell>
           <cell r="R3">
-            <v>89.335247282276683</v>
+            <v>94.861138866747424</v>
           </cell>
           <cell r="S3">
-            <v>90.217857209286379</v>
+            <v>83.707290194183244</v>
           </cell>
           <cell r="T3">
-            <v>101.80914470498028</v>
+            <v>85.930654246405368</v>
           </cell>
           <cell r="U3">
-            <v>93.693770655363593</v>
+            <v>97.368036171260201</v>
           </cell>
           <cell r="V3">
-            <v>83.84069023402472</v>
+            <v>87.525995299256564</v>
           </cell>
           <cell r="W3">
-            <v>105.5434302834292</v>
+            <v>98.82703017448371</v>
           </cell>
           <cell r="X3">
-            <v>92.11875387084055</v>
+            <v>90.330040203445591</v>
           </cell>
           <cell r="Y3">
-            <v>79.525636492721333</v>
+            <v>84.444748028353587</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>84.018878210728758</v>
+            <v>85.682618373317453</v>
           </cell>
           <cell r="C4">
-            <v>68.169843200180395</v>
+            <v>79.531483733543794</v>
           </cell>
           <cell r="D4">
-            <v>78.520161548244545</v>
+            <v>64.833160911394586</v>
           </cell>
           <cell r="E4">
-            <v>75.030109423916699</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="F4">
-            <v>71.55649324688352</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="G4">
-            <v>78.214379940246872</v>
+            <v>74.489885657377968</v>
           </cell>
           <cell r="H4">
-            <v>84.933594274987001</v>
+            <v>94.26695628322733</v>
           </cell>
           <cell r="I4">
-            <v>117.15041307197038</v>
+            <v>124.04161384090982</v>
           </cell>
           <cell r="J4">
-            <v>110.28124113477014</v>
+            <v>112.67865942030862</v>
           </cell>
           <cell r="K4">
-            <v>123.23023358419498</v>
+            <v>120.88299103973412</v>
           </cell>
           <cell r="L4">
-            <v>129.03702501871899</v>
+            <v>117.30638638065362</v>
           </cell>
           <cell r="M4">
-            <v>131.25</v>
+            <v>116.25</v>
           </cell>
           <cell r="N4">
-            <v>137.5</v>
+            <v>115</v>
           </cell>
           <cell r="O4">
-            <v>128.75</v>
+            <v>136.25</v>
           </cell>
           <cell r="P4">
-            <v>123.47715676941986</v>
+            <v>127.03899783007621</v>
           </cell>
           <cell r="Q4">
-            <v>104.53229564749114</v>
+            <v>110.15231154251752</v>
           </cell>
           <cell r="R4">
-            <v>114.13032071106907</v>
+            <v>101.56551476122659</v>
           </cell>
           <cell r="S4">
-            <v>110.98911922360845</v>
+            <v>97.377246111279121</v>
           </cell>
           <cell r="T4">
             <v>109.94205206112159</v>
           </cell>
           <cell r="U4">
-            <v>107.84791773614783</v>
+            <v>104.70671624868721</v>
           </cell>
           <cell r="V4">
-            <v>106.80085057366097</v>
+            <v>115.17738787355594</v>
           </cell>
           <cell r="W4">
-            <v>105.75378341117408</v>
+            <v>113.08325354858221</v>
           </cell>
           <cell r="X4">
-            <v>91.858641966580933</v>
+            <v>107.00017635667669</v>
           </cell>
           <cell r="Y4">
-            <v>100.11553360402242</v>
+            <v>85.94824111288716</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>67.837187860929276</v>
+            <v>69.129324772566022</v>
           </cell>
           <cell r="C2">
-            <v>51.754933352753412</v>
+            <v>54.598611009498107</v>
           </cell>
           <cell r="D2">
-            <v>49.477639263799041</v>
+            <v>57.544645665505406</v>
           </cell>
           <cell r="E2">
-            <v>51.032859662342013</v>
+            <v>52.595090060168815</v>
           </cell>
           <cell r="F2">
-            <v>50.787387277130335</v>
+            <v>49.683313640670981</v>
           </cell>
           <cell r="G2">
-            <v>52.585546228567438</v>
+            <v>54.102436985160729</v>
           </cell>
           <cell r="H2">
-            <v>62.266263000486646</v>
+            <v>56.929154743302071</v>
           </cell>
           <cell r="I2">
-            <v>66.076695490185742</v>
+            <v>75.712880249171178</v>
           </cell>
           <cell r="J2">
-            <v>80.643179391852257</v>
+            <v>75.215273086631427</v>
           </cell>
           <cell r="K2">
-            <v>79.893782163897043</v>
+            <v>82.390462856518823</v>
           </cell>
           <cell r="L2">
-            <v>85.027135869064523</v>
+            <v>85.885995827337908</v>
           </cell>
           <cell r="M2">
-            <v>80.265646274013449</v>
+            <v>95.097341781168112</v>
           </cell>
           <cell r="N2">
-            <v>94.295843361447737</v>
+            <v>86.289592510004056</v>
           </cell>
           <cell r="O2">
-            <v>95.965030330475543</v>
+            <v>81.615119253021248</v>
           </cell>
           <cell r="P2">
-            <v>89.1</v>
+            <v>82.8</v>
           </cell>
           <cell r="Q2">
-            <v>82.276718079513643</v>
+            <v>91.80349596240471</v>
           </cell>
           <cell r="R2">
-            <v>84.917411862567718</v>
+            <v>93.582453889360352</v>
           </cell>
           <cell r="S2">
-            <v>79.941266900392947</v>
+            <v>85.770317611879946</v>
           </cell>
           <cell r="T2">
             <v>91.24422144809364</v>
           </cell>
           <cell r="U2">
-            <v>83.554552026055703</v>
+            <v>91.994405766061348</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>87.05295441804806</v>
           </cell>
           <cell r="W2">
-            <v>87.572469117785573</v>
+            <v>95.375956464914978</v>
           </cell>
           <cell r="X2">
-            <v>92.336525418603202</v>
+            <v>87.253780900147973</v>
           </cell>
           <cell r="Y2">
-            <v>68.139202173223566</v>
+            <v>79.495735868760832</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>79.490977289436046</v>
+            <v>74.386052142408033</v>
           </cell>
           <cell r="C3">
-            <v>64.270162240373182</v>
+            <v>67.583057201217159</v>
           </cell>
           <cell r="D3">
-            <v>69.006578676864038</v>
+            <v>70.959595054511141</v>
           </cell>
           <cell r="E3">
-            <v>65.583584831497305</v>
+            <v>62.986215135200375</v>
           </cell>
           <cell r="F3">
-            <v>60.393606502143072</v>
+            <v>66.238149066866583</v>
           </cell>
           <cell r="G3">
-            <v>64.365057089104823</v>
+            <v>61.146804234649579</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>69.487824795335854</v>
           </cell>
           <cell r="I3">
-            <v>81.674034213616039</v>
+            <v>76.724092746124171</v>
           </cell>
           <cell r="J3">
-            <v>99.666955321788251</v>
+            <v>84.62288659397116</v>
           </cell>
           <cell r="K3">
-            <v>106.60611233739311</v>
+            <v>100.79123348262621</v>
           </cell>
           <cell r="L3">
-            <v>103.60860897694587</v>
+            <v>89.218524396814502</v>
           </cell>
           <cell r="M3">
-            <v>105.55204845250728</v>
+            <v>92.727967799398911</v>
           </cell>
           <cell r="N3">
-            <v>100</v>
+            <v>96</v>
           </cell>
           <cell r="O3">
             <v>97.168685469816282</v>
           </cell>
           <cell r="P3">
-            <v>87.712901906802372</v>
+            <v>84.883453458195845</v>
           </cell>
           <cell r="Q3">
-            <v>96.855259734814851</v>
+            <v>82.37223024175843</v>
           </cell>
           <cell r="R3">
             <v>85.651319559296212</v>
           </cell>
           <cell r="S3">
-            <v>97.658505226547121</v>
+            <v>85.56745219849843</v>
           </cell>
           <cell r="T3">
-            <v>102.74317355548469</v>
+            <v>91.534827349431808</v>
           </cell>
           <cell r="U3">
-            <v>83.589540486647905</v>
+            <v>91.856637897415283</v>
           </cell>
           <cell r="V3">
-            <v>90.289974098180465</v>
+            <v>82.919363967716762</v>
           </cell>
           <cell r="W3">
-            <v>91.151144335688855</v>
+            <v>95.948572984935637</v>
           </cell>
           <cell r="X3">
-            <v>92.11875387084055</v>
+            <v>98.379251706722926</v>
           </cell>
           <cell r="Y3">
-            <v>77.885932647510586</v>
+            <v>82.80504418314284</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>88.178228617200489</v>
+            <v>84.850748292023113</v>
           </cell>
           <cell r="C4">
-            <v>71.199614009077294</v>
+            <v>68.92728590240462</v>
           </cell>
           <cell r="D4">
             <v>77.079424639102442</v>
           </cell>
           <cell r="E4">
-            <v>67.388153834443699</v>
+            <v>73.64066295310343</v>
           </cell>
           <cell r="F4">
             <v>65.99870736363043</v>
           </cell>
           <cell r="G4">
-            <v>73.000087944230401</v>
+            <v>71.510290231082848</v>
           </cell>
           <cell r="H4">
-            <v>98.933637287347509</v>
+            <v>102.66698209064364</v>
           </cell>
           <cell r="I4">
-            <v>126.33868076388964</v>
+            <v>103.36801153409151</v>
           </cell>
           <cell r="J4">
-            <v>130.65929656184724</v>
+            <v>128.26187827630875</v>
           </cell>
           <cell r="K4">
-            <v>115.01488467858198</v>
+            <v>129.09833994534713</v>
           </cell>
           <cell r="L4">
-            <v>114.96025865304054</v>
+            <v>105.57574774258826</v>
           </cell>
           <cell r="M4">
-            <v>125</v>
+            <v>133.75</v>
           </cell>
           <cell r="N4">
-            <v>126.25</v>
+            <v>113.75</v>
           </cell>
           <cell r="O4">
             <v>122.5</v>
           </cell>
           <cell r="P4">
-            <v>117.54075500165929</v>
+            <v>108.04251217324239</v>
           </cell>
           <cell r="Q4">
-            <v>118.02033379555451</v>
+            <v>114.64832425853866</v>
           </cell>
           <cell r="R4">
-            <v>95.283111786305369</v>
+            <v>108.8949848986347</v>
           </cell>
           <cell r="S4">
-            <v>96.330178948792238</v>
+            <v>108.8949848986347</v>
           </cell>
           <cell r="T4">
-            <v>99.471380436252844</v>
+            <v>105.75378341117408</v>
           </cell>
           <cell r="U4">
-            <v>94.236044623818501</v>
+            <v>101.56551476122659</v>
           </cell>
           <cell r="V4">
-            <v>108.8949848986347</v>
+            <v>102.61258192371346</v>
           </cell>
           <cell r="W4">
-            <v>100.51844759873973</v>
+            <v>107.84791773614783</v>
           </cell>
           <cell r="X4">
             <v>100.94356260063839</v>
           </cell>
           <cell r="Y4">
-            <v>87.837213445038529</v>
+            <v>95.393102773643989</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>11.798036269694947</v>
           </cell>
           <cell r="C2">
-            <v>9.0395819672703368</v>
+            <v>9.7273762473887313</v>
           </cell>
           <cell r="D2">
-            <v>10.149271903563729</v>
+            <v>9.3112586271226867</v>
           </cell>
           <cell r="E2">
-            <v>7.9695662025609142</v>
+            <v>7.4003114738065632</v>
           </cell>
           <cell r="F2">
-            <v>9.1745480002675723</v>
+            <v>9.9234906941669667</v>
           </cell>
           <cell r="G2">
-            <v>4.0842519685488439</v>
+            <v>3.9539035014674981</v>
           </cell>
           <cell r="H2">
-            <v>8.0357763648702143</v>
+            <v>6.8986382000300903</v>
           </cell>
           <cell r="I2">
-            <v>15.73304644321821</v>
+            <v>13.110872036015174</v>
           </cell>
           <cell r="J2">
-            <v>19.919975009909081</v>
+            <v>22.674865170853955</v>
           </cell>
           <cell r="K2">
-            <v>24.174097799079192</v>
+            <v>25.433165392781234</v>
           </cell>
           <cell r="L2">
-            <v>28.864799401649762</v>
+            <v>28.040090847316911</v>
           </cell>
           <cell r="M2">
-            <v>29.633682184985876</v>
+            <v>27.639107422534902</v>
           </cell>
           <cell r="N2">
             <v>29.179231895335448</v>
           </cell>
           <cell r="O2">
-            <v>30.3</v>
+            <v>32.700000000000003</v>
           </cell>
           <cell r="P2">
-            <v>32.765766666837344</v>
+            <v>27.701966363780663</v>
           </cell>
           <cell r="Q2">
-            <v>28.795491987925047</v>
+            <v>31.099131346959052</v>
           </cell>
           <cell r="R2">
-            <v>29.869819755437376</v>
+            <v>29.595784711809511</v>
           </cell>
           <cell r="S2">
-            <v>22.615297845120683</v>
+            <v>24.560699810292352</v>
           </cell>
           <cell r="T2">
-            <v>26.383470610585558</v>
+            <v>24.93116947605791</v>
           </cell>
           <cell r="U2">
-            <v>24.868381896940935</v>
+            <v>22.105228352836384</v>
           </cell>
           <cell r="V2">
-            <v>22.831428783820105</v>
+            <v>19.718052131480995</v>
           </cell>
           <cell r="W2">
-            <v>25.37984803202621</v>
+            <v>24.633381913437205</v>
           </cell>
           <cell r="X2">
-            <v>24.524896472126461</v>
+            <v>20.734685199161461</v>
           </cell>
           <cell r="Y2">
-            <v>17.583560283527891</v>
+            <v>18.480680706156868</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.140202653524344</v>
+            <v>-25.62836192835006</v>
           </cell>
           <cell r="C3">
             <v>-31.098682928010788</v>
           </cell>
           <cell r="D3">
-            <v>-31.82841087762575</v>
+            <v>-34.276750175904652</v>
           </cell>
           <cell r="E3">
-            <v>-32.236860837910527</v>
+            <v>-31.917683997931213</v>
           </cell>
           <cell r="F3">
-            <v>-32.158775238708884</v>
+            <v>-31.474545978310829</v>
           </cell>
           <cell r="G3">
-            <v>-38.5</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="H3">
-            <v>-30.940843180062252</v>
+            <v>-30.334159980453187</v>
           </cell>
           <cell r="I3">
-            <v>-4.3417686801156039</v>
+            <v>-5.191245161007787</v>
           </cell>
           <cell r="J3">
-            <v>14.694190478724103</v>
+            <v>16.663514975872694</v>
           </cell>
           <cell r="K3">
-            <v>22.494559613210075</v>
+            <v>20.509745529691543</v>
           </cell>
           <cell r="L3">
-            <v>18.896255942231068</v>
+            <v>16.815934187123062</v>
           </cell>
           <cell r="M3">
-            <v>22.399286049692037</v>
+            <v>24.939411271822067</v>
           </cell>
           <cell r="N3">
-            <v>20.082495043761927</v>
+            <v>19.262801368506338</v>
           </cell>
           <cell r="O3">
-            <v>21.953715064365976</v>
+            <v>23.009182134768189</v>
           </cell>
           <cell r="P3">
-            <v>10.455979658368168</v>
+            <v>11.76297711566419</v>
           </cell>
           <cell r="Q3">
-            <v>2.9187522095627498</v>
+            <v>2.7810752185456389</v>
           </cell>
           <cell r="R3">
-            <v>5.6354866096941647</v>
+            <v>5.8805077666373888</v>
           </cell>
           <cell r="S3">
-            <v>7.6636117306348908</v>
+            <v>6.7707637620172338</v>
           </cell>
           <cell r="T3">
-            <v>4.303258215747408</v>
+            <v>4.7066886734737281</v>
           </cell>
           <cell r="U3">
-            <v>-0.83620585243776402</v>
+            <v>-0.86965408653527465</v>
           </cell>
           <cell r="V3">
-            <v>-3.5908546575574491</v>
+            <v>-3.3297015915532708</v>
           </cell>
           <cell r="W3">
-            <v>-2.4982506189737341</v>
+            <v>-2.3619824033933483</v>
           </cell>
           <cell r="X3">
-            <v>-10.782870305222625</v>
+            <v>-10.67395242335169</v>
           </cell>
           <cell r="Y3">
-            <v>-14.890351351284648</v>
+            <v>-15.037780572584497</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-34.420620107858348</v>
+            <v>-37.068360116155141</v>
           </cell>
           <cell r="C4">
-            <v>-38.959602979224279</v>
+            <v>-36.690111543541313</v>
           </cell>
           <cell r="D4">
-            <v>-41.277682912849912</v>
+            <v>-44.351552916998308</v>
           </cell>
           <cell r="E4">
             <v>-50.5</v>
           </cell>
           <cell r="F4">
-            <v>-46.5</v>
+            <v>-45.5</v>
           </cell>
           <cell r="G4">
-            <v>-52</v>
+            <v>-53.5</v>
           </cell>
           <cell r="H4">
-            <v>-19.936776562849264</v>
+            <v>-21.531718687877206</v>
           </cell>
           <cell r="I4">
             <v>4.421821968909363</v>
           </cell>
           <cell r="J4">
-            <v>13.648370863254453</v>
+            <v>13.910839533701655</v>
           </cell>
           <cell r="K4">
-            <v>12.72973051668925</v>
+            <v>14.173308204148857</v>
           </cell>
           <cell r="L4">
-            <v>12.959517741266986</v>
+            <v>11.519571325570652</v>
           </cell>
           <cell r="M4">
-            <v>16.363498785430291</v>
+            <v>16.869586376732261</v>
           </cell>
           <cell r="N4">
-            <v>23.092134341027904</v>
+            <v>22.863499347552381</v>
           </cell>
           <cell r="O4">
-            <v>25.686871351608826</v>
+            <v>23.565937019824609</v>
           </cell>
           <cell r="P4">
-            <v>14.274448368504242</v>
+            <v>12.820569368008439</v>
           </cell>
           <cell r="Q4">
-            <v>10.416901148213565</v>
+            <v>11.242002229260184</v>
           </cell>
           <cell r="R4">
-            <v>-1.7912469114027969</v>
+            <v>-1.6740625340213053</v>
           </cell>
           <cell r="S4">
-            <v>-1.7745062860625838</v>
+            <v>-1.6908031593615185</v>
           </cell>
           <cell r="T4">
             <v>-1.607100032660453</v>
           </cell>
           <cell r="U4">
-            <v>-1.7577656607223706</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="V4">
-            <v>-10.558312583575585</v>
+            <v>-9.8117652291813524</v>
           </cell>
           <cell r="W4">
             <v>-12.978832324693663</v>
           </cell>
           <cell r="X4">
-            <v>-37.817455958072053</v>
+            <v>-41.63740100434196</v>
           </cell>
           <cell r="Y4">
-            <v>-36.671472444191075</v>
+            <v>-38.199450462699041</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>13.721629139753906</v>
+            <v>12.823952467059724</v>
           </cell>
           <cell r="C2">
-            <v>9.9238888988511302</v>
+            <v>10.120401550313529</v>
           </cell>
           <cell r="D2">
-            <v>8.6594705232240994</v>
+            <v>9.1250334545802332</v>
           </cell>
           <cell r="E2">
-            <v>8.782787243638559</v>
+            <v>8.7014651395307947</v>
           </cell>
           <cell r="F2">
-            <v>10.017108530904391</v>
+            <v>10.20434420437924</v>
           </cell>
           <cell r="G2">
-            <v>4.2146004356301896</v>
+            <v>4.6056458368742286</v>
           </cell>
           <cell r="H2">
-            <v>7.2018750439874566</v>
+            <v>7.9599671538808732</v>
           </cell>
           <cell r="I2">
-            <v>15.587370087262485</v>
+            <v>13.693577459838069</v>
           </cell>
           <cell r="J2">
-            <v>19.708060382144094</v>
+            <v>21.403377404264013</v>
           </cell>
           <cell r="K2">
-            <v>26.944046505223685</v>
+            <v>25.433165392781234</v>
           </cell>
           <cell r="L2">
-            <v>28.040090847316911</v>
+            <v>28.864799401649762</v>
           </cell>
           <cell r="M2">
-            <v>25.644532660083932</v>
+            <v>27.639107422534902</v>
           </cell>
           <cell r="N2">
-            <v>29.179231895335448</v>
+            <v>27.690495574144865</v>
           </cell>
           <cell r="O2">
-            <v>28.2</v>
+            <v>31.8</v>
           </cell>
           <cell r="P2">
-            <v>27.106225151656346</v>
+            <v>29.787060606215764</v>
           </cell>
           <cell r="Q2">
-            <v>31.099131346959052</v>
+            <v>30.811176427079801</v>
           </cell>
           <cell r="R2">
-            <v>29.321749668181642</v>
+            <v>26.581399231902981</v>
           </cell>
           <cell r="S2">
-            <v>25.290225547231731</v>
+            <v>24.803875055938811</v>
           </cell>
           <cell r="T2">
-            <v>25.415269854233795</v>
+            <v>23.478868341530266</v>
           </cell>
           <cell r="U2">
-            <v>21.184177171468203</v>
+            <v>22.105228352836384</v>
           </cell>
           <cell r="V2">
-            <v>19.925610574970271</v>
+            <v>21.586078122884459</v>
           </cell>
           <cell r="W2">
-            <v>24.882203952966872</v>
+            <v>24.384559873907534</v>
           </cell>
           <cell r="X2">
-            <v>23.187174846374106</v>
+            <v>22.964221242082047</v>
           </cell>
           <cell r="Y2">
-            <v>16.148167607321533</v>
+            <v>16.686439860898918</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.872441565762916</v>
+            <v>-26.360600840588631</v>
           </cell>
           <cell r="C3">
-            <v>-29.512015431683707</v>
+            <v>-32.050683425807037</v>
           </cell>
           <cell r="D3">
-            <v>-33.227461905213694</v>
+            <v>-37.774377744874521</v>
           </cell>
           <cell r="E3">
-            <v>-32.236860837910527</v>
+            <v>-28.725915598138094</v>
           </cell>
           <cell r="F3">
             <v>-36.606265431296286</v>
           </cell>
           <cell r="G3">
-            <v>-35.35</v>
+            <v>-37.800000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-29.727476780844121</v>
+            <v>-32.457551179084909</v>
           </cell>
           <cell r="I3">
-            <v>-5.0496657475257569</v>
+            <v>-4.6721206449070083</v>
           </cell>
           <cell r="J3">
-            <v>14.08824447960146</v>
+            <v>13.633784980259477</v>
           </cell>
           <cell r="K3">
             <v>20.950815326028991</v>
           </cell>
           <cell r="L3">
-            <v>18.202815357195067</v>
+            <v>17.682734918418063</v>
           </cell>
           <cell r="M3">
-            <v>23.092047473909318</v>
+            <v>21.706524625474756</v>
           </cell>
           <cell r="N3">
-            <v>18.852954530878545</v>
+            <v>19.877571624948033</v>
           </cell>
           <cell r="O3">
-            <v>20.898247993963768</v>
+            <v>22.164808478446421</v>
           </cell>
           <cell r="P3">
-            <v>11.327311296565515</v>
+            <v>10.129230294044163</v>
           </cell>
           <cell r="Q3">
-            <v>2.8636814131559056</v>
+            <v>2.7260044221387947</v>
           </cell>
           <cell r="R3">
-            <v>5.7579971881657768</v>
+            <v>6.3705500805238389</v>
           </cell>
           <cell r="S3">
-            <v>8.1844397123285244</v>
+            <v>7.3659957410956709</v>
           </cell>
           <cell r="T3">
-            <v>4.0343045772631951</v>
+            <v>4.4825606414035502</v>
           </cell>
           <cell r="U3">
-            <v>-0.79439555981587573</v>
+            <v>-0.89474026210840751</v>
           </cell>
           <cell r="V3">
-            <v>-2.9379719925470038</v>
+            <v>-3.5582105243069271</v>
           </cell>
           <cell r="W3">
-            <v>-2.452827880446939</v>
+            <v>-2.2938482956031558</v>
           </cell>
           <cell r="X3">
-            <v>-11.872049123931982</v>
+            <v>-10.129363013997011</v>
           </cell>
           <cell r="Y3">
             <v>-13.563488359586016</v>
@@ -3540,73 +3540,73 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.177117253086003</v>
+            <v>-37.824857261382796</v>
           </cell>
           <cell r="C4">
-            <v>-40.472597269679596</v>
+            <v>-40.850845842293424</v>
           </cell>
           <cell r="D4">
-            <v>-45.229801489612136</v>
+            <v>-41.716807199156825</v>
           </cell>
           <cell r="E4">
-            <v>-51.5</v>
+            <v>-52</v>
           </cell>
           <cell r="F4">
-            <v>-46.5</v>
+            <v>-54</v>
           </cell>
           <cell r="G4">
-            <v>-46.5</v>
+            <v>-47</v>
           </cell>
           <cell r="H4">
             <v>-20.136144328477759</v>
           </cell>
           <cell r="I4">
-            <v>4.0085675792916655</v>
+            <v>4.1738693351387441</v>
           </cell>
           <cell r="J4">
-            <v>13.517136528030852</v>
+            <v>13.254667857583652</v>
           </cell>
           <cell r="K4">
-            <v>11.942324505347646</v>
+            <v>14.173308204148857</v>
           </cell>
           <cell r="L4">
-            <v>12.239544533418819</v>
+            <v>11.519571325570652</v>
           </cell>
           <cell r="M4">
-            <v>16.532194649197617</v>
+            <v>17.881761559336198</v>
           </cell>
           <cell r="N4">
-            <v>21.263054393223715</v>
+            <v>21.491689386699235</v>
           </cell>
           <cell r="O4">
-            <v>22.85895890922987</v>
+            <v>21.916321428436888</v>
           </cell>
           <cell r="P4">
-            <v>12.291886095100875</v>
+            <v>12.424056913327764</v>
           </cell>
           <cell r="Q4">
-            <v>9.282387161774464</v>
+            <v>10.313763513082737</v>
           </cell>
           <cell r="R4">
-            <v>-1.7745062860625838</v>
+            <v>-1.7075437847017314</v>
           </cell>
           <cell r="S4">
+            <v>-1.7912469114027969</v>
+          </cell>
+          <cell r="T4">
             <v>-1.5736187819800269</v>
           </cell>
-          <cell r="T4">
-            <v>-1.607100032660453</v>
-          </cell>
           <cell r="U4">
-            <v>-1.8079875367430098</v>
+            <v>-1.824728162083223</v>
           </cell>
           <cell r="V4">
-            <v>-10.131714095350308</v>
+            <v>-9.5984659850687137</v>
           </cell>
           <cell r="W4">
-            <v>-14.891502351490626</v>
+            <v>-14.754883063862271</v>
           </cell>
           <cell r="X4">
-            <v>-35.907483434937099</v>
+            <v>-38.581444967326028</v>
           </cell>
           <cell r="Y4">
             <v>-36.289477939564087</v>
@@ -3616,224 +3616,224 @@
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>13.465150090412711</v>
+            <v>13.978108189095101</v>
           </cell>
           <cell r="C2">
-            <v>9.3343509444639334</v>
+            <v>8.8430693158079379</v>
           </cell>
           <cell r="D2">
-            <v>8.6594705232240994</v>
+            <v>9.3112586271226867</v>
           </cell>
           <cell r="E2">
-            <v>7.5629556820220918</v>
+            <v>8.2948546189919714</v>
           </cell>
           <cell r="F2">
-            <v>8.8000766533178751</v>
+            <v>8.8936944900552994</v>
           </cell>
           <cell r="G2">
-            <v>4.5187468588199975</v>
+            <v>4.1277014575759594</v>
           </cell>
           <cell r="H2">
-            <v>7.3534934659661397</v>
+            <v>7.5051118879448229</v>
           </cell>
           <cell r="I2">
-            <v>15.73304644321821</v>
+            <v>14.858988307483864</v>
           </cell>
           <cell r="J2">
             <v>23.098694426383936</v>
           </cell>
           <cell r="K2">
-            <v>24.174097799079192</v>
+            <v>25.936792430262049</v>
           </cell>
           <cell r="L2">
-            <v>25.840868035762643</v>
+            <v>28.314993698761196</v>
           </cell>
           <cell r="M2">
-            <v>29.063803681428457</v>
+            <v>31.05837844387943</v>
           </cell>
           <cell r="N2">
-            <v>29.774726423811682</v>
+            <v>31.561210009240384</v>
           </cell>
           <cell r="O2">
-            <v>33</v>
+            <v>28.2</v>
           </cell>
           <cell r="P2">
-            <v>27.106225151656346</v>
+            <v>31.57428424258871</v>
           </cell>
           <cell r="Q2">
-            <v>31.099131346959052</v>
+            <v>27.355717388528792</v>
           </cell>
           <cell r="R2">
             <v>24.937188970135789</v>
           </cell>
           <cell r="S2">
-            <v>25.047050301585269</v>
+            <v>22.858473090767138</v>
           </cell>
           <cell r="T2">
-            <v>24.93116947605791</v>
+            <v>25.657320043321736</v>
           </cell>
           <cell r="U2">
-            <v>23.256542329546615</v>
+            <v>21.184177171468203</v>
           </cell>
           <cell r="V2">
-            <v>19.925610574970271</v>
+            <v>20.755844348927365</v>
           </cell>
           <cell r="W2">
             <v>27.370424348263562</v>
           </cell>
           <cell r="X2">
-            <v>20.734685199161461</v>
+            <v>21.180592407745578</v>
           </cell>
           <cell r="Y2">
-            <v>16.148167607321533</v>
+            <v>17.942408452579482</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-24.896123016111485</v>
+            <v>-25.872441565762916</v>
           </cell>
           <cell r="C3">
-            <v>-31.416016427276205</v>
+            <v>-29.512015431683707</v>
           </cell>
           <cell r="D3">
-            <v>-31.82841087762575</v>
+            <v>-33.926987419007666</v>
           </cell>
           <cell r="E3">
-            <v>-30.960153477993277</v>
+            <v>-29.683446118076031</v>
           </cell>
           <cell r="F3">
             <v>-33.527233759505009</v>
           </cell>
           <cell r="G3">
-            <v>-35</v>
+            <v>-33.25</v>
           </cell>
           <cell r="H3">
-            <v>-32.760892778889442</v>
+            <v>-29.727476780844121</v>
           </cell>
           <cell r="I3">
-            <v>-4.5777343692523207</v>
+            <v>-5.0024726096984127</v>
           </cell>
           <cell r="J3">
-            <v>16.663514975872694</v>
+            <v>14.08824447960146</v>
           </cell>
           <cell r="K3">
-            <v>20.509745529691543</v>
+            <v>22.494559613210075</v>
           </cell>
           <cell r="L3">
-            <v>17.856095064677064</v>
+            <v>17.509374772159063</v>
           </cell>
           <cell r="M3">
-            <v>23.784808898126599</v>
+            <v>21.244683675996573</v>
           </cell>
           <cell r="N3">
-            <v>19.877571624948033</v>
+            <v>21.721882394273109</v>
           </cell>
           <cell r="O3">
             <v>21.109341408044209</v>
           </cell>
           <cell r="P3">
-            <v>10.564896113142836</v>
+            <v>11.545144206114852</v>
           </cell>
           <cell r="Q3">
-            <v>2.8636814131559056</v>
+            <v>2.67093362573195</v>
           </cell>
           <cell r="R3">
-            <v>6.4318053697596449</v>
+            <v>5.9417630558731949</v>
           </cell>
           <cell r="S3">
-            <v>7.2171877463260614</v>
+            <v>7.4403997384804761</v>
           </cell>
           <cell r="T3">
-            <v>4.4825606414035502</v>
+            <v>4.1687813965053016</v>
           </cell>
           <cell r="U3">
-            <v>-0.91146437915716283</v>
+            <v>-0.84456791096214168</v>
           </cell>
           <cell r="V3">
-            <v>-3.0685485255490925</v>
+            <v>-3.0359043922985705</v>
           </cell>
           <cell r="W3">
-            <v>-2.4982506189737341</v>
+            <v>-2.339271034129951</v>
           </cell>
           <cell r="X3">
-            <v>-10.67395242335169</v>
+            <v>-10.238280895867947</v>
           </cell>
           <cell r="Y3">
-            <v>-15.037780572584497</v>
+            <v>-15.480068236484041</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.177117253086003</v>
+            <v>-37.824857261382796</v>
           </cell>
           <cell r="C4">
-            <v>-37.068360116155141</v>
+            <v>-41.229094414907252</v>
           </cell>
           <cell r="D4">
-            <v>-39.96031005392917</v>
+            <v>-47.425422921146712</v>
           </cell>
           <cell r="E4">
-            <v>-50</v>
+            <v>-51.5</v>
           </cell>
           <cell r="F4">
-            <v>-52</v>
+            <v>-53</v>
           </cell>
           <cell r="G4">
-            <v>-54.500000000000007</v>
+            <v>-47.5</v>
           </cell>
           <cell r="H4">
-            <v>-21.332350922248715</v>
+            <v>-19.338673265963784</v>
           </cell>
           <cell r="I4">
-            <v>4.0912184572152048</v>
+            <v>4.0498930182534352</v>
           </cell>
           <cell r="J4">
-            <v>14.435776874596057</v>
+            <v>12.073558840571247</v>
           </cell>
           <cell r="K4">
-            <v>11.942324505347646</v>
+            <v>11.811090170124046</v>
           </cell>
           <cell r="L4">
-            <v>12.599531137342902</v>
+            <v>12.359540068060181</v>
           </cell>
           <cell r="M4">
-            <v>18.219153286870842</v>
+            <v>16.532194649197617</v>
           </cell>
           <cell r="N4">
-            <v>23.549404327978952</v>
+            <v>21.263054393223715</v>
           </cell>
           <cell r="O4">
-            <v>23.801596390022855</v>
+            <v>21.680662058238642</v>
           </cell>
           <cell r="P4">
-            <v>13.084911004462221</v>
+            <v>13.745765095596676</v>
           </cell>
           <cell r="Q4">
-            <v>9.5918000671669468</v>
+            <v>9.3855247969052904</v>
           </cell>
           <cell r="R4">
+            <v>-1.7410250353821577</v>
+          </cell>
+          <cell r="S4">
+            <v>-1.6405812833408793</v>
+          </cell>
+          <cell r="T4">
             <v>-1.5066562806191748</v>
           </cell>
-          <cell r="S4">
-            <v>-1.7242844100419445</v>
-          </cell>
-          <cell r="T4">
-            <v>-1.8414687874234361</v>
-          </cell>
           <cell r="U4">
-            <v>-1.7577656607223706</v>
+            <v>-1.6238406580006661</v>
           </cell>
           <cell r="V4">
-            <v>-10.664962205631904</v>
+            <v>-11.731458426195095</v>
           </cell>
           <cell r="W4">
-            <v>-14.071786625720499</v>
+            <v>-14.345025200977208</v>
           </cell>
           <cell r="X4">
-            <v>-38.581444967326028</v>
+            <v>-38.199450462699041</v>
           </cell>
           <cell r="Y4">
-            <v>-36.671472444191075</v>
+            <v>-35.907483434937099</v>
           </cell>
         </row>
       </sheetData>
@@ -4513,99 +4513,99 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>12.573873532683217</v>
+        <v>11.606652491707585</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>8.8597919285616928</v>
+        <v>9.512618702245188</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>7.4247629754209159</v>
+        <v>7.7441076195250416</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>7.4218739778893505</v>
+        <v>8.2812488595396978</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>9.6785239766613547</v>
+        <v>8.5242046032980721</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>11.796721685018523</v>
+        <v>11.465972478896507</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>17.61849690964463</v>
+        <v>18.644817117973442</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>19.420579228186607</v>
+        <v>20.88234325611463</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>22.678994419651129</v>
+        <v>24.126589808139503</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>28.693240173034287</v>
+        <v>27.896205723783332</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>29.203309387540525</v>
+        <v>24.916585073773106</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>26.574740471977584</v>
+        <v>28.416554168055239</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>28.273341958308837</v>
+        <v>27.216394595381402</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>24.846343292912792</v>
+        <v>28.507909672920995</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>22.886148998044757</v>
+        <v>21.23457123529926</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>24.43386321278442</v>
+        <v>24.209699330098328</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>23.365118704552248</v>
+        <v>22.671105277684358</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>30.269089442879995</v>
+        <v>33.737422608209997</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>32.114219650127687</v>
+        <v>28.650921452564898</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>28.387105473645587</v>
+        <v>32.355195486090665</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>26.275260556082213</v>
+        <v>25.992730872683477</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>23.869990629263253</v>
+        <v>24.121253688518657</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>21.723214975186789</v>
+        <v>22.13308695585069</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>16.665890771788042</v>
+        <v>16.194214617869513</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4614,99 +4614,99 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-30.580363092623664</v>
+        <v>-33.638399401886034</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-35.895587702467964</v>
+        <v>-33.236655280062926</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-34.726453473448089</v>
+        <v>-37.948495548304102</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-33.407458316163925</v>
+        <v>-35.184450779789664</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-37.153205271034999</v>
+        <v>-38.624619341174999</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-30.453675401748974</v>
+        <v>-35.038099655775703</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-21.946851136228453</v>
+        <v>-25.848513560446847</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-10.740137621324958</v>
+        <v>-10.539387385412342</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-3.0446691814294331</v>
+        <v>-2.8081900217067584</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.50865690441247702</v>
+        <v>-0.41617383088293569</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-3.9022234607511428</v>
+        <v>-4.1928145695304835</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-2.8993584736908646</v>
+        <v>-3.1129954138575604</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-4.1398364260733711</v>
+        <v>-4.6467551721231715</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-4.3465918285814764</v>
+        <v>-4.4744327647162256</v>
       </c>
       <c r="P3" s="2">
         <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-11.850134899315332</v>
+        <v>-11.203763904807223</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-14.738869959512931</v>
+        <v>-14.58372395993911</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-12.969558941459848</v>
+        <v>-14.901195379549614</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.7097817558632551</v>
+        <v>-4.521390485628725</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-6.9195540524662169</v>
+        <v>-7.2621062332813775</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-8.6120892492822811</v>
+        <v>-8.6982101417751032</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-13.392785381347636</v>
+        <v>-12.17525943758876</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-18.262720598081909</v>
+        <v>-18.965132928777368</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-25.915496120493746</v>
+        <v>-22.852755669889941</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-28.63973006913055</v>
+        <v>-26.253085896703002</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4719,95 +4719,95 @@
       </c>
       <c r="C4" s="2">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>49.3974723547</v>
+        <v>57.280047730450001</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>56.754542705399999</v>
+        <v>47.820957279549994</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>48.346462304599996</v>
+        <v>49.3974723547</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>57.280047730450001</v>
+        <v>53.076007530049999</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>42.579214868215978</v>
+        <v>43.430799165580297</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>17.767846965834288</v>
+        <v>17.960975737202055</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.4117427740980042</v>
+        <v>2.6355127222101902</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>-14.402452870886265</v>
+        <v>-16.002725412095849</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-13.093138973532968</v>
+        <v>-13.675056261245544</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-1.1275938093921354</v>
+        <v>-1.3280549310618481</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>-16.081430298607003</v>
+        <v>-16.233141905197634</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-15.626295478835104</v>
+        <v>-16.536565118378899</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-10.56917403218436</v>
+        <v>-10.921479833257171</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.3145623492667757</v>
+        <v>-1.5336560741445715</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>9.0869109233130274</v>
+        <v>9.7044679763537189</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>11.392375780515881</v>
+        <v>11.26987711620926</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>11.147378451902636</v>
+        <v>12.249866430662237</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>11.26987711620926</v>
+        <v>12.127367766355615</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>13.352354409421839</v>
+        <v>11.392375780515881</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>12.862359752195349</v>
+        <v>12.004869102048993</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>24.012221506312123</v>
+        <v>25.289467331115961</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>41.781049165576057</v>
+        <v>39.438186595543755</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>41.39057207057067</v>
+        <v>35.923892740495305</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5660,67 +5660,67 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>13.057484053171034</v>
+        <v>10.881236710975861</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>9.1395748315689058</v>
+        <v>9.326096766907046</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>7.8239437805510716</v>
+        <v>8.7819777128634495</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>7.1093740209255891</v>
+        <v>7.8124989240940534</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>9.7673177746123763</v>
+        <v>8.6129984012490937</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>11.796721685018523</v>
+        <v>11.465972478896507</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>15.565856492987002</v>
+        <v>18.473763749918639</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>20.047049525870044</v>
+        <v>19.629402660747751</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>23.885323910058109</v>
+        <v>25.091653400465084</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>24.176711627278888</v>
+        <v>26.567814975031744</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>25.452425612994034</v>
+        <v>24.380744534552182</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>26.311624229680774</v>
+        <v>26.048507987383964</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>25.895210391722113</v>
+        <v>24.57402618806282</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>25.892505115772281</v>
+        <v>28.507909672920995</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>24.301787080398043</v>
+        <v>21.942390276475905</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>24.43386321278442</v>
+        <v>21.071404972492985</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
@@ -5732,27 +5732,27 @@
       </c>
       <c r="T2" s="2">
         <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>29.595457324627471</v>
+        <v>28.650921452564898</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>28.69234316691059</v>
+        <v>31.13424471303064</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>26.840319922879676</v>
+        <v>28.252968339873341</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>26.382621221817285</v>
+        <v>22.864938392241648</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>19.673855071867276</v>
+        <v>18.444239129875573</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>14.779186156113923</v>
+        <v>14.464735386834905</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-32.415184878181087</v>
+        <v>-32.720988509107322</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
@@ -5769,47 +5769,47 @@
       </c>
       <c r="D3" s="2">
         <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-36.158472173384098</v>
+        <v>-39.022509573256109</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-36.606044750690259</v>
+        <v>-35.184450779789664</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-37.888912306104999</v>
+        <v>-39.728179893780002</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-35.038099655775703</v>
+        <v>-36.020476281638572</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-24.629244052878597</v>
+        <v>-26.823929166501443</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-10.13788691358711</v>
+        <v>-9.3348859699366464</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-3.0446691814294331</v>
+        <v>-3.1333488663254361</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.4855361360300916</v>
+        <v>-0.439294599265321</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-4.5249186938497301</v>
+        <v>-4.151301553990578</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-3.0824758509766039</v>
+        <v>-3.1435149767385164</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-4.5200254856107218</v>
+        <v>-4.308809341423304</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
@@ -5817,23 +5817,23 @@
       </c>
       <c r="P3" s="2">
         <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-11.526949402061279</v>
+        <v>-11.850134899315332</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-15.980037956103494</v>
+        <v>-14.42857796036529</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-13.107532972751974</v>
+        <v>-14.073351191796858</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.8981730260977852</v>
+        <v>-4.9923686612150506</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-7.4676375417704719</v>
+        <v>-7.1250853609553131</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
@@ -5841,19 +5841,19 @@
       </c>
       <c r="V3" s="2">
         <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-14.745591985524165</v>
+        <v>-14.475030664688861</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-16.155483605995538</v>
+        <v>-19.316339094125102</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-23.795137346998803</v>
+        <v>-22.145969412058289</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-27.578999325829415</v>
+        <v>-28.109364697479982</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5862,87 +5862,87 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>41.999173674137232</v>
+        <v>44.544578139236464</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>56.754542705399999</v>
+        <v>54.652522605199998</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>56.754542705399999</v>
+        <v>52.550502504999997</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>55.178027630249993</v>
+        <v>57.805552755500003</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>49.922977379749994</v>
+        <v>53.601512555099994</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>41.727630570851659</v>
+        <v>45.559759908991097</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>18.733490822673108</v>
+        <v>20.278520993615224</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.6603760497782112</v>
+        <v>2.2874261362579009</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-14.547932192814407</v>
+        <v>-14.984370158598841</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-14.838890836670696</v>
+        <v>-14.25697354895812</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-1.2403531903313487</v>
+        <v>-1.2904684707487772</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-16.081430298607003</v>
+        <v>-14.716025839291312</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-16.384853511788265</v>
+        <v>-14.56431423270068</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-11.273785634329982</v>
+        <v>-12.213267770524148</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.5190498258193852</v>
+        <v>-1.402199839217894</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>9.2633557956103694</v>
+        <v>8.6457987425696778</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>11.024879787596014</v>
+        <v>12.984858416501972</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>12.739861087888727</v>
+        <v>11.392375780515881</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>11.514874444822503</v>
+        <v>13.229855745115218</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>11.88237043774237</v>
+        <v>11.024879787596014</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>12.739861087888727</v>
+        <v>12.862359752195349</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="X4" s="2">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>42.171526260581437</v>
+        <v>40.609617880559902</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
@@ -13004,7 +13004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -13885,43 +13885,43 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.734821887446003</v>
+        <v>76.241164049093783</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>59.893350145389611</v>
+        <v>67.066311256950002</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>62.102048582906697</v>
+        <v>63.232515889895289</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>60.611952474068943</v>
+        <v>56.780806160464344</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.275323710523317</v>
+        <v>66.398071126307968</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>57.986104416916966</v>
+        <v>50.546189743194702</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>66.246894380590348</v>
+        <v>63.130586371272187</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>74.252146105431464</v>
+        <v>77.145782398664082</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>87.610109574763172</v>
+        <v>76.200541419186678</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>92.436681075764284</v>
+        <v>87.188608076092024</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
@@ -13929,55 +13929,55 @@
       </c>
       <c r="M2" s="2">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>89.382949263007561</v>
+        <v>87.549036199708439</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>90.454357373382493</v>
+        <v>89.519396250217056</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>88.007129466063205</v>
+        <v>90.83498585864676</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>105.4222528959</v>
+        <v>90.287708174459979</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>96.015402495258684</v>
+        <v>83.271916113454637</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>91.82747983947921</v>
+        <v>86.363252086660452</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>88.186710870603207</v>
+        <v>90.812306962166929</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>88.885281336574664</v>
+        <v>94.164103011189141</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>87.56588139227587</v>
+        <v>93.775141163759869</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>88.060984189175997</v>
+        <v>85.421747747322186</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>99.926960067730022</v>
+        <v>90.814133814773115</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>83.746123467804694</v>
+        <v>91.759146824285381</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>77.287811754015522</v>
+        <v>86.040754522775416</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13986,83 +13986,83 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>85.230333179381859</v>
+        <v>84.463857803019749</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>80.021951228244149</v>
+        <v>80.718328407998683</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>69.370862264343799</v>
+        <v>74.84456850678913</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>72.423182079489578</v>
+        <v>73.105647493147885</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>75.20979756652612</v>
+        <v>66.337047715537068</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>75.489903585982177</v>
+        <v>76.166386804741265</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>81.846339942044835</v>
+        <v>68.700507542537366</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>83.755034595851356</v>
+        <v>82.020888519271111</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>90.381509992944416</v>
+        <v>97.299026992401664</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>103.53841082897877</v>
+        <v>102.51982814289975</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>104.24192507648216</v>
+        <v>110.29157448268501</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>108.31275196767886</v>
+        <v>102.09202689858201</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>98.519589714299997</v>
+        <v>114.2847404658</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>112.83849119730847</v>
+        <v>100.45967119927418</v>
       </c>
       <c r="P3" s="2">
         <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>96.685651223210058</v>
+        <v>91.729353297001211</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>101.39257370219913</v>
+        <v>95.684395119787752</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>96.669295577188748</v>
+        <v>100.54114063788326</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>93.600678793422588</v>
+        <v>95.555727754772008</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>108.00790104701947</v>
+        <v>105.06287992012902</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>95.318343041608387</v>
+        <v>102.076300513509</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
@@ -14070,15 +14070,15 @@
       </c>
       <c r="W3" s="2">
         <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>96.46427311992467</v>
+        <v>95.455843974925457</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>105.48599754949169</v>
+        <v>100.78610744653335</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>84.647957868693254</v>
+        <v>81.201267427685053</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14087,99 +14087,99 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>100.27904503039672</v>
+        <v>99.404741214578848</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>88.734436997069196</v>
+        <v>79.977558180530977</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>73.505402376905352</v>
+        <v>79.562318261138799</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>75.19334606268518</v>
+        <v>75.923507165135533</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>82.435849464639162</v>
+        <v>75.134238440135533</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>80.543867222137038</v>
+        <v>76.629386299301828</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>110.63726619476495</v>
+        <v>109.65632046757673</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>111.70008805298696</v>
+        <v>124.97841037290931</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>122.77320580113107</v>
+        <v>113.95421830775048</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>118.00828587065618</v>
+        <v>116.77479811853084</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>123.77720386448071</v>
+        <v>128.70881150555994</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>121.474719224</v>
+        <v>133.29858228762498</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>129.71829995599998</v>
+        <v>128.40453739337499</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>139.73145809437497</v>
+        <v>138.41769553174998</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>122.94674143534662</v>
+        <v>120.45105426760753</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>117.64549711043215</v>
+        <v>130.64022212270007</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>106.69731155297565</v>
+        <v>105.59683344207225</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>104.48618632651549</v>
+        <v>119.89287987916298</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>106.90273210922565</v>
+        <v>115.70655699645279</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>115.33339657770279</v>
+        <v>121.93626524312315</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>110.28925187943584</v>
+        <v>113.59068621214601</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>119.68101640881638</v>
+        <v>109.77671341068584</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>114.12189836886621</v>
+        <v>107.75633644169604</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>103.82986090384605</v>
+        <v>105.81518980929798</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15034,51 +15034,51 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.808968528152192</v>
+        <v>69.450919647916791</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>67.066311256950002</v>
+        <v>61.088843663983013</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>63.232515889895289</v>
+        <v>56.449712047963736</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>55.138886311776659</v>
+        <v>63.348485555215085</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.17630493044642</v>
+        <v>60.596108686461797</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>60.643216800389204</v>
+        <v>55.328992033444727</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>63.130586371272187</v>
+        <v>67.493417584317612</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>69.188282592274405</v>
+        <v>74.252146105431464</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>86.795140420793416</v>
+        <v>81.905325496974925</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>89.812644575928147</v>
+        <v>80.191177409862377</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>96.936387154795341</v>
+        <v>95.131046259247739</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>97.635558047853621</v>
+        <v>91.216862326306682</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
@@ -15086,15 +15086,15 @@
       </c>
       <c r="O2" s="2">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>95.548079846286072</v>
+        <v>91.777604656174631</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>93.125435309729994</v>
+        <v>94.071344354819999</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>91.464157358900081</v>
+        <v>90.553908331628378</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
@@ -15106,27 +15106,27 @@
       </c>
       <c r="T2" s="2">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>95.043906623624892</v>
+        <v>85.366066886831675</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>84.017732951427874</v>
+        <v>93.775141163759869</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>97.738184475973355</v>
+        <v>81.902765824850434</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>92.63669906536451</v>
+        <v>90.814133814773115</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>89.978474967289671</v>
+        <v>98.881834252268206</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>86.040754522775416</v>
+        <v>75.696367614240998</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -15135,39 +15135,39 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>85.230333179381859</v>
+        <v>88.296234684830225</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>66.790784812908015</v>
+        <v>77.236442509226009</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>75.528781787094786</v>
+        <v>76.897208347706112</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>77.200439975097751</v>
+        <v>66.96345877022307</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>77.939874443753524</v>
+        <v>75.20979756652612</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>76.842870023500353</v>
+        <v>73.460453929704883</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>69.43083156473223</v>
+        <v>83.306987986434564</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>83.755034595851356</v>
+        <v>82.887961557561226</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>92.357943421360773</v>
+        <v>89.393293278736238</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
@@ -15175,59 +15175,59 @@
       </c>
       <c r="L3" s="2">
         <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>104.24192507648216</v>
+        <v>94.159176066144084</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>109.34953947919502</v>
+        <v>95.871301829485162</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>110.0807002654</v>
+        <v>114.2847404658</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>110.77535453096941</v>
+        <v>100.45967119927418</v>
       </c>
       <c r="P3" s="2">
         <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>97.676910808451836</v>
+        <v>107.58950666086955</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>89.024853440307808</v>
+        <v>104.24666299340483</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.733373046841493</v>
+        <v>100.54114063788326</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>96.53325223544671</v>
+        <v>89.690580870723764</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>108.00790104701947</v>
+        <v>91.319447994640271</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>99.180033025551595</v>
+        <v>103.04172300949479</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>89.190943163280892</v>
+        <v>93.064235824524005</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>111.59071029491278</v>
+        <v>104.53170627991834</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.846129425941683</v>
+        <v>97.966173384758349</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>87.23297569944944</v>
+        <v>92.403011360961784</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15236,75 +15236,75 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>93.284614503853817</v>
+        <v>95.033222135489552</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>76.793238610880735</v>
+        <v>88.734436997069196</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>87.13346311643059</v>
+        <v>72.748287891376179</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>83.225118189639176</v>
+        <v>75.19334606268518</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>78.785043952387355</v>
+        <v>74.404077337685166</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>85.241244329539299</v>
+        <v>81.326763406704089</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>92.980243105377156</v>
+        <v>102.78970037725925</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>123.77129016200728</v>
+        <v>131.01401142741946</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>116.47392902014494</v>
+        <v>118.99363973253938</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>130.34316339190946</v>
+        <v>127.8761878876588</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>136.10622296717881</v>
+        <v>123.77720386448071</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>138.55363253812499</v>
+        <v>122.788481786625</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>145.48345070749997</v>
+        <v>121.83572458025</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>137.10393296912497</v>
+        <v>144.98650834487498</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>131.68164652243351</v>
+        <v>135.4251772740422</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>111.73880392303766</v>
+        <v>117.64549711043215</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>121.00352699471976</v>
+        <v>107.79778966387904</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>118.79240176825958</v>
+        <v>104.48618632651549</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
@@ -15312,23 +15312,23 @@
       </c>
       <c r="U4" s="2">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>114.2329184667994</v>
+        <v>110.93148413408922</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>113.59068621214601</v>
+        <v>122.39451109937315</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>111.97766963249262</v>
+        <v>119.68101640881638</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>100.32984752666418</v>
+        <v>116.24375234458959</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>109.78584762020182</v>
+        <v>94.895880829312404</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16183,75 +16183,75 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>74.883115168858396</v>
+        <v>76.241164049093783</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>58.100109867499519</v>
+        <v>61.088843663983013</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.319244740975158</v>
+        <v>63.797749543389585</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>56.780806160464344</v>
+        <v>58.422726009152029</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>55.954538734584858</v>
+        <v>54.794146246615618</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>57.454681940222521</v>
+        <v>59.048949370305863</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>68.116679186181244</v>
+        <v>62.507324769408562</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>69.911691665582552</v>
+        <v>80.039418691896699</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.165202112853919</v>
+        <v>79.460418035065672</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>84.564571576255901</v>
+        <v>87.188608076092024</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>89.715023572605006</v>
+        <v>90.617694020378806</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>84.798166604759743</v>
+        <v>100.38642764280232</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>99.803968605036928</v>
+        <v>91.389318496547943</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>102.14641142898111</v>
+        <v>87.064510668535334</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>95.01725339990999</v>
+        <v>88.395890084279984</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>87.823161249813211</v>
+        <v>97.835900549802119</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>90.006070588539615</v>
+        <v>99.113116843237549</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>85.561114779039457</v>
+        <v>91.687505659354855</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
@@ -16259,23 +16259,23 @@
       </c>
       <c r="U2" s="2">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>88.452918502487861</v>
+        <v>97.323289604607865</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>84.542002266704245</v>
+        <v>92.459711592265705</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>92.63669906536451</v>
+        <v>100.83824269302571</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.772170180766068</v>
+        <v>94.430154609778938</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>74.900645544353722</v>
+        <v>86.836476592662692</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -16284,55 +16284,55 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>87.52975930846813</v>
+        <v>82.164431673933464</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>71.66542507118973</v>
+        <v>75.147310969962405</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>76.212995067400456</v>
+        <v>78.265634908317452</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>72.423182079489578</v>
+        <v>69.69332042485631</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>66.337047715537068</v>
+        <v>72.479720689298716</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>70.078037835909413</v>
+        <v>66.695621742113943</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>69.43083156473223</v>
+        <v>76.003747764485965</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>86.356253710721703</v>
+        <v>81.15381548098101</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>105.20476070606712</v>
+        <v>89.393293278736238</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>112.70565500368976</v>
+        <v>106.59415888721576</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>109.28329958165119</v>
+        <v>94.159176066144084</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>111.42311450222729</v>
+        <v>97.944876852517439</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>105.876660065</v>
+        <v>101.67261986459999</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
@@ -16340,11 +16340,11 @@
       </c>
       <c r="P3" s="2">
         <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>93.711872467484753</v>
+        <v>90.738093711759433</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>103.29529989633626</v>
+        <v>88.073490343239257</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
@@ -16352,31 +16352,31 @@
       </c>
       <c r="S3" s="2">
         <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>104.35344808084439</v>
+        <v>91.645629832073183</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>108.98957475598294</v>
+        <v>97.209490248421162</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>88.56038556970779</v>
+        <v>97.249188033579983</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>95.969205320456354</v>
+        <v>88.222619997970128</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>96.46427311992467</v>
+        <v>101.50641884492072</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.846129425941683</v>
+        <v>106.42597557008337</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>85.509630478945326</v>
+        <v>90.67966614045767</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16385,11 +16385,11 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>97.656133582943127</v>
+        <v>94.158918319671699</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>79.977558180530977</v>
+        <v>77.589318503293299</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="E4" s="2">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>75.19334606268518</v>
+        <v>81.764795984738441</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
@@ -16405,35 +16405,35 @@
       </c>
       <c r="G4" s="2">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>79.760971037569988</v>
+        <v>78.195178668435915</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>107.69442901320032</v>
+        <v>111.61821192195316</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>133.42825184922356</v>
+        <v>109.28584763118289</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>137.89147007549784</v>
+        <v>135.37175936310337</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>121.70874912703216</v>
+        <v>136.51060215253611</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>121.31140004394109</v>
+        <v>111.44818476178264</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>131.98481972499999</v>
+        <v>141.18115766337499</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>133.65958764387497</v>
+        <v>120.521962017625</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
@@ -16441,35 +16441,35 @@
       </c>
       <c r="P4" s="2">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>125.44242860308574</v>
+        <v>115.45967993212932</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>125.91486757278446</v>
+        <v>122.37085166034777</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>101.1949209984587</v>
+        <v>115.50113644020279</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>103.38570821561208</v>
+        <v>116.59144554645279</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>105.80225399832226</v>
+        <v>112.40512266374262</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>99.926703025055303</v>
+        <v>107.63004980137904</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>115.79164243395279</v>
+        <v>109.18877376853243</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>106.47527907797566</v>
+        <v>114.17862585429941</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="Y4" s="2">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>96.881209734764326</v>
+        <v>104.822525356572</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17332,51 +17332,51 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>13.343321895635613</v>
+        <v>12.399854690893703</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>9.5006914963038529</v>
+        <v>10.223570197109579</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>10.666986771843037</v>
+        <v>9.7862263961862723</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>8.3760941738288128</v>
+        <v>7.7778017328410405</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>9.642542153406076</v>
+        <v>10.429688451643306</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>4.2925898660855442</v>
+        <v>4.1555923171679208</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>8.4456817198346386</v>
+        <v>7.2505380802353985</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>16.535589930512398</v>
+        <v>13.779658275426996</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>20.936093933155288</v>
+        <v>23.83151117922996</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>25.407219738932518</v>
+        <v>26.73051243366859</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>30.337194265254364</v>
+        <v>29.470417286247095</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>31.14529779788948</v>
+        <v>29.048979676877689</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
@@ -17384,47 +17384,47 @@
       </c>
       <c r="O2" s="2">
         <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>31.845604518029997</v>
+        <v>34.368028638269998</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>34.437150066077628</v>
+        <v>29.115045055865629</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>30.264351476883249</v>
+        <v>32.68549959503391</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>31.393480757640205</v>
+        <v>31.105467172707726</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>23.768905321226708</v>
+        <v>25.813542338106423</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>27.729292768243404</v>
+        <v>26.202909680083213</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>26.136919303409822</v>
+        <v>23.232817158586506</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>23.996061109937347</v>
+        <v>20.72387095858225</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>26.674475351670253</v>
+        <v>25.889931958974067</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>25.775912669866944</v>
+        <v>21.792362529978416</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>18.480498574527019</v>
+        <v>19.423381154860031</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -17433,7 +17433,7 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-26.422605650404773</v>
+        <v>-26.935665954296127</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
@@ -17441,91 +17441,91 @@
       </c>
       <c r="D3" s="2">
         <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-33.451979711096818</v>
+        <v>-36.025208919642729</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-33.881264724319067</v>
+        <v>-33.54580665774165</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-33.799195974790059</v>
+        <v>-33.080064145539218</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-40.463886928849995</v>
+        <v>-39.360326376244998</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-32.51913714081347</v>
+        <v>-31.881507000797516</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-4.5632425180109113</v>
+        <v>-5.4560508367521763</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>15.443741871222761</v>
+        <v>17.513521709634059</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>23.642008226057357</v>
+        <v>21.555948676699359</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>19.860154904546697</v>
+        <v>17.673715832486511</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>23.541874753291058</v>
+        <v>26.211571890262213</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>21.106904122077225</v>
+        <v>20.245397831380192</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>23.073575169680407</v>
+        <v>24.182881668222738</v>
       </c>
       <c r="P3" s="2">
         <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>10.989339704586108</v>
+        <v>12.363007167659374</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>3.0676379060020311</v>
+        <v>2.9229380047755202</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>5.9229530639925425</v>
+        <v>6.1804727624270006</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>8.0545329489615245</v>
+        <v>7.1161407607329972</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>4.5227676329259197</v>
+        <v>4.9467770985127251</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.87886075486452753</v>
+        <v>-0.91401518505910873</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>-3.7740243335412726</v>
+        <v>-3.4995498365564526</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-2.6256865082099403</v>
+        <v>-2.4824672441257611</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-11.332905059713832</v>
+        <v>-11.218431271231875</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-15.64990891972028</v>
+        <v>-15.804858512984838</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -17534,15 +17534,15 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-36.176417664033266</v>
+        <v>-38.959219022805051</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-40.946934279070618</v>
+        <v>-38.561675971551942</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-43.383259586246297</v>
+        <v>-46.613927853307189</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
@@ -17550,15 +17550,15 @@
       </c>
       <c r="F4" s="2">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-48.871967329649998</v>
+        <v>-47.820957279549994</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-54.652522605199998</v>
+        <v>-56.229037680349997</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-20.953752534152709</v>
+        <v>-22.630052736884927</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
@@ -17566,43 +17566,43 @@
       </c>
       <c r="J4" s="2">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>14.344574944772441</v>
+        <v>14.620432155248835</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>13.379074708105065</v>
+        <v>14.896289365725229</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>13.620583390520853</v>
+        <v>12.107185236018534</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>17.198201678286377</v>
+        <v>17.730104822975651</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>24.270065270679666</v>
+        <v>24.029767594732345</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>26.997159946166644</v>
+        <v>24.768036647859304</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>15.002588694931505</v>
+        <v>13.474547253781074</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>10.948267797670686</v>
+        <v>11.815457326199056</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.8826185060949236</v>
+        <v>-1.759456547752265</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.865023940617401</v>
+        <v>-1.7770511132297877</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
@@ -17610,11 +17610,11 @@
       </c>
       <c r="U4" s="2">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.8474293751398783</v>
+        <v>-1.9002130715724461</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-11.096892637435236</v>
+        <v>-10.31226386509133</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
@@ -17622,11 +17622,11 @@
       </c>
       <c r="X4" s="2">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-39.746526281147851</v>
+        <v>-43.761326915607228</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-38.542086090810031</v>
+        <v>-40.148006344593782</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18481,99 +18481,99 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>14.421570129626373</v>
+        <v>13.478102924884459</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>10.43010696876836</v>
+        <v>10.636643740427139</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>9.1011905484532338</v>
+        <v>9.590501868262546</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>9.2307976609542024</v>
+        <v>9.1453273122416636</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>10.52808173892296</v>
+        <v>10.724868313482268</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>4.4295874150031667</v>
+        <v>4.8405800617560395</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>7.5692430507951958</v>
+        <v>8.3660054771946903</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>16.382482616340983</v>
+        <v>14.392087532112638</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>20.713369529611089</v>
+        <v>22.495164757964726</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>28.318463667351875</v>
+        <v>26.73051243366859</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>29.470417286247095</v>
+        <v>30.337194265254364</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>26.952661555865898</v>
+        <v>29.048979676877689</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>30.667665976196027</v>
+        <v>29.10298914067582</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>29.638483412819998</v>
+        <v>33.42211959318</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>28.488915054664215</v>
+        <v>31.306500060070565</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>32.68549959503391</v>
+        <v>32.382856080265078</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>30.817453587775244</v>
+        <v>27.937317738450453</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>26.580281219436319</v>
+        <v>26.069121965216389</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>26.71170404280328</v>
+        <v>24.676526591923025</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>22.26478311031207</v>
+        <v>23.232817158586506</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>20.942016968672593</v>
+        <v>22.687185049395307</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>26.151446423206128</v>
+        <v>25.628417494742006</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>24.369953796965106</v>
+        <v>24.135627318148135</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>16.971886445994201</v>
+        <v>17.53761599419401</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18582,19 +18582,19 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-27.192196106241802</v>
+        <v>-27.705256410133156</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-31.017424817405864</v>
+        <v>-33.685590393096689</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-34.922396401694485</v>
+        <v>-39.701250646136891</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-33.881264724319067</v>
+        <v>-30.191225991967489</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
@@ -18602,19 +18602,19 @@
       </c>
       <c r="G3" s="2">
         <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-37.153205271034999</v>
+        <v>-39.728179893780002</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-31.243876860781565</v>
+        <v>-34.113212490853343</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-5.3072494502952994</v>
+        <v>-4.9104457530769592</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>14.806886536326978</v>
+        <v>14.329245035155139</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
@@ -18622,55 +18622,55 @@
       </c>
       <c r="L3" s="2">
         <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>19.131341880526637</v>
+        <v>18.584732112511588</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>24.26997397246501</v>
+        <v>22.813775534117106</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>19.814644686031681</v>
+        <v>20.891527549402969</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>21.964268671138083</v>
+        <v>23.295436469388875</v>
       </c>
       <c r="P3" s="2">
         <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>11.905118013301617</v>
+        <v>10.645922838817793</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>3.0097579455114269</v>
+        <v>2.8650580442849161</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>6.051712913209772</v>
+        <v>6.6955121592959186</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>8.6019283920948322</v>
+        <v>7.7417355528853475</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>4.2400946558680497</v>
+        <v>4.7112162842978327</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.83491771712130103</v>
+        <v>-0.9403810077050444</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-3.0878380910792229</v>
+        <v>-3.7397150214181702</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.5779467535152141</v>
+        <v>-2.4108576120836722</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-12.477642944533413</v>
+        <v>-10.646062328822085</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
@@ -18683,27 +18683,27 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-36.971503766539492</v>
+        <v>-39.754305125311276</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-42.537106484083075</v>
+        <v>-42.934649535336185</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-47.5369759296103</v>
+        <v>-43.844783624397856</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-54.127017580149996</v>
+        <v>-54.652522605199998</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-48.871967329649998</v>
+        <v>-56.754542705399999</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-48.871967329649998</v>
+        <v>-49.3974723547</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
@@ -18711,67 +18711,67 @@
       </c>
       <c r="I4" s="2">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>4.213044812340569</v>
+        <v>4.3867786190350246</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>14.206646339534245</v>
+        <v>13.930789129057853</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>12.551503076675885</v>
+        <v>14.896289365725229</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>12.863884313269693</v>
+        <v>12.107185236018534</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>17.375502726516139</v>
+        <v>18.793911112354191</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>22.347683863101082</v>
+        <v>22.5879815390484</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>24.024995548423526</v>
+        <v>23.034274082509157</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>12.918895820635463</v>
+        <v>13.057808678921864</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>9.7558821959441762</v>
+        <v>10.839869106604638</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.865023940617401</v>
+        <v>-1.7946456787073102</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>-1.6538891548871288</v>
+        <v>-1.8826185060949236</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>-1.6890782858421742</v>
+        <v>-1.6538891548871288</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.9002130715724461</v>
+        <v>-1.917807637049969</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-10.648533338953003</v>
+        <v>-10.088084215850214</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-15.65111863250443</v>
+        <v>-15.507530388169526</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-37.739125963918156</v>
+        <v>-40.549486408039719</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
@@ -19630,35 +19630,35 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>14.152008071128682</v>
+        <v>14.691132188124062</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>9.8104966537920202</v>
+        <v>9.2941547246450735</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>9.1011905484532338</v>
+        <v>9.7862263961862723</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>7.948742430266118</v>
+        <v>8.7179755686789679</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>9.2489690042874599</v>
+        <v>9.347362291567114</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>4.7492483624776227</v>
+        <v>4.3382557157247517</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>7.7285955360750949</v>
+        <v>7.8879480213549931</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>16.535589930512398</v>
+        <v>15.61694604548393</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
@@ -19666,31 +19666,31 @@
       </c>
       <c r="K2" s="2">
         <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>25.407219738932518</v>
+        <v>27.259829511563016</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>27.159012008894383</v>
+        <v>29.759342945916188</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>30.546349763314684</v>
+        <v>32.642667884326478</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>31.293536710404108</v>
+        <v>33.171148913028354</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>34.683331653299994</v>
+        <v>29.638483412819998</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>28.488915054664215</v>
+        <v>33.1848900636748</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>32.68549959503391</v>
+        <v>28.751133903039083</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
@@ -19698,19 +19698,19 @@
       </c>
       <c r="S2" s="2">
         <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>26.324701592326353</v>
+        <v>24.024484948336671</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>26.202909680083213</v>
+        <v>26.96610122416331</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>24.442859718929558</v>
+        <v>22.26478311031207</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>20.942016968672593</v>
+        <v>21.81460100903395</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
@@ -19718,11 +19718,11 @@
       </c>
       <c r="X2" s="2">
         <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>21.792362529978416</v>
+        <v>22.261015487612358</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>16.971886445994201</v>
+        <v>18.857651606660223</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19731,19 +19731,19 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>-26.166075498459094</v>
+        <v>-27.192196106241802</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-33.018548999173987</v>
+        <v>-31.017424817405864</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-33.451979711096818</v>
+        <v>-35.657604746993314</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-32.539432458009401</v>
+        <v>-31.197600191699738</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
@@ -19751,35 +19751,35 @@
       </c>
       <c r="G3" s="2">
         <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-36.785351753499995</v>
+        <v>-34.946084165824999</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-34.432027560861322</v>
+        <v>-31.243876860781565</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.8112448287723728</v>
+        <v>-5.2576489881430062</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>17.513521709634059</v>
+        <v>14.806886536326978</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>21.555948676699359</v>
+        <v>23.642008226057357</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>18.766935368516602</v>
+        <v>18.402528856506571</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>24.998073191638962</v>
+        <v>22.328376054667807</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>20.891527549402969</v>
+        <v>22.829916703471287</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
@@ -19787,43 +19787,43 @@
       </c>
       <c r="P3" s="2">
         <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>11.103811993175547</v>
+        <v>12.134062590480495</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>3.0097579455114269</v>
+        <v>2.8071780837943114</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>6.7598920839045329</v>
+        <v>6.2448526870356149</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>7.5853368548472595</v>
+        <v>7.8199349019043911</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>4.7112162842978327</v>
+        <v>4.3814311443969842</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.957958222802335</v>
+        <v>-0.88764936241317283</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.2250753395716325</v>
+        <v>-3.1907660274485306</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-2.6256865082099403</v>
+        <v>-2.4585973667783985</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-11.218431271231875</v>
+        <v>-10.760536117304042</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-15.804858512984838</v>
+        <v>-16.269707292778509</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19832,99 +19832,99 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-36.971503766539492</v>
+        <v>-39.754305125311276</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-38.959219022805051</v>
+        <v>-43.332192586589301</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-41.998687471791627</v>
+        <v>-49.844596120368088</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-52.550502504999997</v>
+        <v>-54.127017580149996</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-54.652522605199998</v>
+        <v>-55.703532655299995</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-57.280047730450001</v>
+        <v>-49.922977379749994</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-22.4205152115434</v>
+        <v>-20.325139958128126</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>4.2999117156877968</v>
+        <v>4.2564782640141825</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>15.172146576201621</v>
+        <v>12.689431681914083</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>12.551503076675885</v>
+        <v>12.413574471437691</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>13.242233851895273</v>
+        <v>12.990000826144886</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>19.148513208813704</v>
+        <v>17.375502726516139</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>24.750660622574312</v>
+        <v>22.347683863101082</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>25.015717014337898</v>
+        <v>22.786593716030563</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>13.752372970353878</v>
+        <v>14.446937261785893</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>10.081078269142315</v>
+        <v>9.8642808870102208</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>-1.5835108929770385</v>
+        <v>-1.8298348096623558</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.8122402441848329</v>
+        <v>-1.7242674167972196</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.9354022025274917</v>
+        <v>-1.5835108929770385</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.8474293751398783</v>
+        <v>-1.7066728513196969</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-11.208982462055793</v>
+        <v>-12.329880708261372</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>-14.789589166495011</v>
+        <v>-15.076765655164817</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-40.549486408039719</v>
+        <v>-40.148006344593782</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-38.542086090810031</v>
+        <v>-37.739125963918156</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27071,7 +27071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451C0BC-1134-43AA-AB38-9EE91B1398E3}">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:Y4"/>
     </sheetView>
   </sheetViews>
@@ -28320,63 +28320,63 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>59.652576517475943</v>
+        <v>68.997081110971948</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>54.132808377444732</v>
+        <v>61.80658175226241</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.953413386238132</v>
+        <v>59.565664889837805</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>49.036456081153844</v>
+        <v>56.685072466346149</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>57.549875278967008</v>
+        <v>60.218486492120746</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>59.236673165813649</v>
+        <v>55.202839816190469</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>70.124209602152376</v>
+        <v>79.163900137734657</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>72.759700862211702</v>
+        <v>80.533386908901136</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.976902929567643</v>
+        <v>83.508581021022422</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>82.268753407161597</v>
+        <v>78.865697164425711</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>87.064014653287359</v>
+        <v>88.781110998045534</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>79.45033423137005</v>
+        <v>88.795859542360049</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>83.485788827439364</v>
+        <v>92.778285685167262</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>81.539299842252092</v>
+        <v>89.81281528026777</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>77.468728928494571</v>
+        <v>83.876852801546747</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
@@ -28384,35 +28384,35 @@
       </c>
       <c r="R2" s="2">
         <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>82.215990906529697</v>
+        <v>81.401401170389391</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>96.531829774281277</v>
+        <v>85.465058132500957</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>85.534112771997158</v>
+        <v>103.40027567089656</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>102.79442146122</v>
+        <v>91.44351292013998</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>84.484216778307726</v>
+        <v>90.908681022177561</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>90.807369319278678</v>
+        <v>96.93816065773936</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>74.601926727370312</v>
+        <v>88.178574914023571</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>68.935412949883712</v>
+        <v>78.818171570694162</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -28421,35 +28421,35 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.207625928744903</v>
+        <v>72.883330277987113</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>60.271408640807152</v>
+        <v>64.638986307925478</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.353800282994868</v>
+        <v>64.580194256730863</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>58.673954299548427</v>
+        <v>63.370105703765311</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>62.866830682018666</v>
+        <v>65.243229508237235</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>69.040188912193742</v>
+        <v>65.774969649831306</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>75.440708703557547</v>
+        <v>86.350075200544694</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>91.498913640140472</v>
+        <v>85.871105966729729</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
@@ -28457,19 +28457,19 @@
       </c>
       <c r="K3" s="2">
         <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>96.816706493512214</v>
+        <v>104.05419067318516</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>97.973948422723282</v>
+        <v>104.01009305072679</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>101.60777950676609</v>
+        <v>92.50689592045714</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>110.90689018094832</v>
+        <v>102.82386374968605</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
@@ -28477,7 +28477,7 @@
       </c>
       <c r="P3" s="2">
         <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>87.750684660832519</v>
+        <v>102.74650268184686</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
@@ -28485,35 +28485,35 @@
       </c>
       <c r="R3" s="2">
         <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>92.808877748702514</v>
+        <v>100.39384660838932</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>113.12044292059998</v>
+        <v>108.91640272019998</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>99.442281367340215</v>
+        <v>97.347881056758524</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>99.156795703702869</v>
+        <v>104.28439243644782</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>102.86972495223957</v>
+        <v>110.93278949340706</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>103.63117466275098</v>
+        <v>89.461311774987067</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>77.404355017424805</v>
+        <v>87.321149912414768</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>71.128609224504032</v>
+        <v>75.627134339137626</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28522,59 +28522,59 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>78.643972088716836</v>
+        <v>79.38805333096397</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>79.12997876019665</v>
+        <v>69.449838325334468</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>69.057060363361401</v>
+        <v>68.431341177248669</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>73.686400023823865</v>
+        <v>65.610437200659931</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>71.314075830672834</v>
+        <v>70.643426073933497</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.659829842173565</v>
+        <v>79.943687127352661</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>102.56072564458124</v>
+        <v>105.68219544605483</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>117.68910144956611</v>
+        <v>115.3713970376935</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>125.07704843090396</v>
+        <v>131.42958986870519</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>119.04658238446675</v>
+        <v>135.5719074226852</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>132.57117848389137</v>
+        <v>131.37041334165147</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>129.35729459974999</v>
+        <v>133.29858228762498</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>123.62956716739036</v>
+        <v>128.58552669662836</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>116.61234648504477</v>
+        <v>122.41163726617077</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
@@ -28586,35 +28586,35 @@
       </c>
       <c r="R4" s="2">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>105.15536049289364</v>
+        <v>116.72246578029849</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>107.90056718793568</v>
+        <v>114.58007319901581</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>118.14818865640258</v>
+        <v>121.48794166194267</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>118.40533440285523</v>
+        <v>105.97515868218065</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>111.29224924787943</v>
+        <v>106.89423603396425</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>97.203463355599851</v>
+        <v>92.235727122385953</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>81.094337838400918</v>
+        <v>92.018413932889644</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.373567635060425</v>
+        <v>85.065644417959035</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -29471,95 +29471,95 @@
       </c>
       <c r="C2" s="2">
         <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>55.2290617167044</v>
+        <v>53.036555038185064</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>50.277018166295775</v>
+        <v>53.889269669895448</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>52.095902635230765</v>
+        <v>53.625625912269228</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>53.280097337921021</v>
+        <v>58.08359752159776</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>59.812935072902675</v>
+        <v>54.626577909101435</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>79.163900137734657</v>
+        <v>65.256683929146533</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>82.865492722907973</v>
+        <v>75.091806676218525</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>90.090772777143016</v>
+        <v>77.749163234416883</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>89.074865892633397</v>
+        <v>87.373337771265454</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>83.629821963771022</v>
+        <v>79.337081101875626</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>78.600741021280044</v>
+        <v>77.751147811190037</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>85.175333710662613</v>
+        <v>79.261926619381228</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>84.0213544736568</v>
+        <v>92.294869911672478</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>85.478883769809798</v>
+        <v>83.075837317415221</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>77.641145762446655</v>
+        <v>82.36021640802069</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>89.547298531792379</v>
+        <v>88.732708795652073</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>90.998443953391117</v>
+        <v>85.465058132500957</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>86.474437135097133</v>
+        <v>89.295410224397017</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>95.2271491005</v>
+        <v>90.49760387504999</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>90.908681022177561</v>
+        <v>101.00426769111586</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>91.683196653344496</v>
+        <v>95.186505989607724</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>78.595058546974215</v>
+        <v>76.199179455211876</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>67.523590289767938</v>
+        <v>75.994526250462599</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29568,15 +29568,15 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>75.559034627229337</v>
+        <v>70.207625928744903</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>64.015046641194289</v>
+        <v>60.895348307538335</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>58.668174169184191</v>
+        <v>61.03298220420286</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
@@ -29584,83 +29584,83 @@
       </c>
       <c r="F3" s="2">
         <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.708132736136179</v>
+        <v>63.46093038857331</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>65.121925797358813</v>
+        <v>63.162794239941363</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>86.350075200544694</v>
+        <v>77.778430095769068</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>97.126721313551215</v>
+        <v>91.498913640140472</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>97.467049739436177</v>
+        <v>98.488241957746041</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>99.918485427657743</v>
+        <v>94.748853870748505</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>111.05226178339755</v>
+        <v>103.00406894605955</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>98.574151644663104</v>
+        <v>108.68624451833972</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>92.720080710608229</v>
+        <v>99.792728837962699</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>93.859892380913394</v>
+        <v>97.835409850415033</v>
       </c>
       <c r="P3" s="2">
         <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>103.68374130816025</v>
+        <v>100.87202542922006</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>101.64195178500029</v>
+        <v>99.821178998182091</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>93.756998856163364</v>
+        <v>103.23820993077189</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>111.01842282039999</v>
+        <v>105.76337256989999</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>110.96148307553962</v>
+        <v>112.00868323083046</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>105.30991178299681</v>
+        <v>96.080237664055915</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>107.90914029046925</v>
+        <v>103.8776080198855</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>99.852544559347265</v>
+        <v>97.963229507645408</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>92.27954735990977</v>
+        <v>84.015551614084785</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.376888524909901</v>
+        <v>75.627134339137626</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -29669,31 +29669,31 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>86.084784511188232</v>
+        <v>83.852540784446816</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>72.907031337785227</v>
+        <v>68.066961120354151</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.554183618910471</v>
+        <v>72.811375480037796</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>73.686400023823865</v>
+        <v>77.051384533475499</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.278228020018815</v>
+        <v>74.667324614369505</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>75.748784826769779</v>
+        <v>77.846235977061227</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>99.439255843107631</v>
+        <v>97.35827597545854</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
@@ -29701,7 +29701,7 @@
       </c>
       <c r="J4" s="2">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>131.42958986870519</v>
+        <v>125.07704843090396</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
@@ -29709,39 +29709,39 @@
       </c>
       <c r="L4" s="2">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>126.56735277269178</v>
+        <v>132.57117848389137</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>142.494920226</v>
+        <v>122.788481786625</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>118.67360763815236</v>
+        <v>133.54148622586635</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>125.89121173484637</v>
+        <v>129.37078620352196</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>119.99429681752129</v>
+        <v>114.37104048335361</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>97.504790369988584</v>
+        <v>109.06451868930039</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>98.846030336127356</v>
+        <v>104.10380546676592</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>123.48608121378936</v>
+        <v>110.12706919162906</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>104.7891766342423</v>
+        <v>120.37469066009598</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
@@ -29749,19 +29749,19 @@
       </c>
       <c r="V4" s="2">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>117.8892690687522</v>
+        <v>106.89423603396425</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>109.12603031531326</v>
+        <v>105.15184132874212</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>96.219981661539151</v>
+        <v>87.816846204240136</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>77.747259982803683</v>
+        <v>83.439336765702294</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -30614,55 +30614,55 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>69.62004808387168</v>
+        <v>62.767411381974604</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>60.162201743372911</v>
+        <v>59.065948404113243</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>52.85719781172412</v>
+        <v>58.017557102580803</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>49.036456081153844</v>
+        <v>58.724703502397439</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>55.948708551074766</v>
+        <v>51.145208367398034</v>
       </c>
       <c r="G2" s="2">
         <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>56.931625537457535</v>
+        <v>63.270506515436843</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>70.124209602152376</v>
+        <v>69.42884879172297</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>76.646543885556426</v>
+        <v>82.088124118239037</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>88.44522483811285</v>
+        <v>84.331354990537477</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>88.224101831949426</v>
+        <v>90.776394014001355</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>93.073851859940945</v>
+        <v>89.639659170424608</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>93.893418802900058</v>
+        <v>85.397486702000037</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>87.709651035497501</v>
+        <v>88.55442347710914</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
@@ -30670,43 +30670,43 @@
       </c>
       <c r="P2" s="2">
         <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>80.672790865020659</v>
+        <v>88.682945706335886</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>86.292775279332375</v>
+        <v>80.787192859496002</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>79.772221698108808</v>
+        <v>80.5868114342491</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>98.376291714578016</v>
+        <v>100.22075365487474</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>94.937356402996841</v>
+        <v>99.638978218496689</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>89.551694829959985</v>
+        <v>92.38942196523</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>91.826461628444676</v>
+        <v>85.401997384574855</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>86.428232648949603</v>
+        <v>89.93154198521286</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>84.984069458340443</v>
+        <v>89.775827641865135</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>73.170880930231036</v>
+        <v>80.22999423080995</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -30715,99 +30715,99 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>74.890108539918771</v>
+        <v>66.194069404881574</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>69.630503641774993</v>
+        <v>61.519287974269531</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>59.259376177938854</v>
+        <v>68.127406309258888</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>57.499916448494204</v>
+        <v>59.260973225075531</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.619628334455797</v>
+        <v>58.114033029581549</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>69.693232764666234</v>
+        <v>63.815838092413848</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>88.687796592756229</v>
+        <v>85.570834736474197</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>84.933138021161255</v>
+        <v>97.126721313551215</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>111.76374079577417</v>
+        <v>108.70016414084459</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>112.32560116423998</v>
+        <v>113.35952747562185</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>98.97997252739053</v>
+        <v>106.02214126006129</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>108.68624451833972</v>
+        <v>98.574151644663104</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>102.82386374968605</v>
+        <v>91.709702406700444</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>97.835409850415033</v>
+        <v>95.847651115664192</v>
       </c>
       <c r="P3" s="2">
         <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>101.80926405553346</v>
+        <v>92.436877792399486</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>88.896542277272957</v>
+        <v>93.448474244318433</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>88.068272211398266</v>
+        <v>103.23820993077189</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>104.71236251979998</v>
+        <v>108.91640272019998</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>107.81988260966705</v>
+        <v>102.58388183321279</v>
       </c>
       <c r="U3" s="2">
         <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>105.30991178299681</v>
+        <v>94.02919897095795</v>
       </c>
       <c r="V3" s="2">
         <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>93.798777343426138</v>
+        <v>104.88549108753143</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>90.405969300837995</v>
+        <v>85.682681671583367</v>
       </c>
       <c r="X3" s="2">
         <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>93.932346509074762</v>
+        <v>90.626748210744765</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>86.123692939949365</v>
+        <v>80.125659453771249</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -30816,99 +30816,99 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>83.852540784446816</v>
+        <v>86.084784511188232</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>79.821417362686802</v>
+        <v>72.907031337785227</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>65.302745246685006</v>
+        <v>64.051306874459542</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>77.72438143540586</v>
+        <v>72.340406219963199</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>69.302126560454823</v>
+        <v>65.948877776758152</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>75.748784826769779</v>
+        <v>78.545386360491705</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>116.08709478430025</v>
+        <v>118.16807465194934</v>
       </c>
       <c r="I4" s="2">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>122.3245102733113</v>
+        <v>120.00680586143871</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>118.72450699310275</v>
+        <v>128.8885732935847</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>127.94483432812284</v>
+        <v>125.40247662993538</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>122.965057345972</v>
+        <v>113.35893620805263</v>
       </c>
       <c r="M4" s="2">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>118.84719409874999</v>
+        <v>130.67105716237498</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>122.39057728508087</v>
+        <v>119.91259752046186</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>116.61234648504477</v>
+        <v>117.77220464126997</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>117.74499428385423</v>
+        <v>123.3682506180219</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>115.36982504528865</v>
+        <v>97.504790369988584</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>116.72246578029849</v>
+        <v>97.79447530999964</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>122.37283021194267</v>
+        <v>124.59933221563605</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>117.0349376545559</v>
+        <v>103.6759256323956</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>102.5851107583603</v>
+        <v>107.10517465678741</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>102.49622282004908</v>
+        <v>117.8892690687522</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>103.16474683545655</v>
+        <v>106.1453885753849</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>92.858727478619542</v>
+        <v>89.497473295699933</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>92.384028853114415</v>
+        <v>81.813029113445538</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -31761,19 +31761,19 @@
       </c>
       <c r="B2" s="2">
         <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>11.969360382073448</v>
+        <v>11.243944601341724</v>
       </c>
       <c r="C2" s="2">
         <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>9.419357734576117</v>
+        <v>8.4867480578854124</v>
       </c>
       <c r="D2" s="2">
         <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>7.9836161026031354</v>
+        <v>7.6642714584990097</v>
       </c>
       <c r="E2" s="2">
         <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>8.5937488165034601</v>
+        <v>7.890623913334994</v>
       </c>
       <c r="F2" s="2">
         <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
@@ -31781,79 +31781,79 @@
       </c>
       <c r="G2" s="2">
         <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>10.473724860530464</v>
+        <v>10.914723802026483</v>
       </c>
       <c r="H2" s="2">
         <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>15.565856492987002</v>
+        <v>15.736909861041804</v>
       </c>
       <c r="I2" s="2">
         <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>21.091166688675777</v>
+        <v>20.047049525870044</v>
       </c>
       <c r="J2" s="2">
         <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>26.056716992790665</v>
+        <v>22.196462623488348</v>
       </c>
       <c r="K2" s="2">
         <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>25.239424226280157</v>
+        <v>23.911033477528569</v>
       </c>
       <c r="L2" s="2">
         <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>28.131628309098669</v>
+        <v>29.203309387540525</v>
       </c>
       <c r="M2" s="2">
         <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>25.52227550279035</v>
+        <v>27.364089198868008</v>
       </c>
       <c r="N2" s="2">
         <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>27.744868276845121</v>
+        <v>26.423684073185829</v>
       </c>
       <c r="O2" s="2">
         <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>25.369424204342536</v>
+        <v>25.892505115772281</v>
       </c>
       <c r="P2" s="2">
         <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>21.470510915691477</v>
+        <v>24.301787080398043</v>
       </c>
       <c r="Q2" s="2">
         <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>21.295568855179081</v>
+        <v>20.174749441748602</v>
       </c>
       <c r="R2" s="2">
         <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>23.133780895596285</v>
+        <v>23.365118704552248</v>
       </c>
       <c r="S2" s="2">
         <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>31.845604518029997</v>
+        <v>31.214998487969996</v>
       </c>
       <c r="T2" s="2">
         <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>34.31813668494037</v>
+        <v>29.595457324627471</v>
       </c>
       <c r="U2" s="2">
         <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>33.270908565885684</v>
+        <v>28.387105473645587</v>
       </c>
       <c r="V2" s="2">
         <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>25.710201189284742</v>
+        <v>27.122849606278411</v>
       </c>
       <c r="W2" s="2">
         <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>25.880095103306477</v>
+        <v>24.875042866284865</v>
       </c>
       <c r="X2" s="2">
         <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>18.854111110539474</v>
+        <v>21.313342994522888</v>
       </c>
       <c r="Y2" s="2">
         <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>15.565313079311473</v>
+        <v>16.194214617869513</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -31862,75 +31862,75 @@
       </c>
       <c r="B3" s="2">
         <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-27.828130414287536</v>
+        <v>-32.109381247254852</v>
       </c>
       <c r="C3" s="2">
         <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-34.566121491265449</v>
+        <v>-31.24245596325915</v>
       </c>
       <c r="D3" s="2">
         <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-32.220420748560088</v>
+        <v>-38.664504898272106</v>
       </c>
       <c r="E3" s="2">
         <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-33.762856808889069</v>
+        <v>-37.31684173614056</v>
       </c>
       <c r="F3" s="2">
         <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-34.946084165824999</v>
+        <v>-36.049644718429995</v>
       </c>
       <c r="G3" s="2">
         <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-33.728264154625201</v>
+        <v>-32.418428653474713</v>
       </c>
       <c r="H3" s="2">
         <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-23.89768234833765</v>
+        <v>-23.409974545310348</v>
       </c>
       <c r="I3" s="2">
         <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-10.740137621324958</v>
+        <v>-10.238262031543417</v>
       </c>
       <c r="J3" s="2">
         <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-3.1924686562561044</v>
+        <v>-2.9559894965334297</v>
       </c>
       <c r="K3" s="2">
         <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.49478444338304578</v>
+        <v>-0.49940859705952284</v>
       </c>
       <c r="L3" s="2">
         <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-3.8191974296713318</v>
+        <v>-4.4418926627699182</v>
       </c>
       <c r="M3" s="2">
         <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-2.8077997850479952</v>
+        <v>-3.051956288095647</v>
       </c>
       <c r="N3" s="2">
         <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-4.2665661125858207</v>
+        <v>-4.308809341423304</v>
       </c>
       <c r="O3" s="2">
         <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-4.4318191193379759</v>
+        <v>-4.5170464100944763</v>
       </c>
       <c r="P3" s="2">
         <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-10.988306906637854</v>
+        <v>-10.341935912129744</v>
       </c>
       <c r="Q3" s="2">
         <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-16.135183955677313</v>
+        <v>-14.118285961217651</v>
       </c>
       <c r="R3" s="2">
         <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-12.831584910167724</v>
+        <v>-12.55563684758347</v>
       </c>
       <c r="S3" s="2">
         <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>-5.1807599314495807</v>
+        <v>-4.521390485628725</v>
       </c>
       <c r="T3" s="2">
         <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
@@ -31942,7 +31942,7 @@
       </c>
       <c r="V3" s="2">
         <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-12.71638207925937</v>
+        <v>-12.581101418841719</v>
       </c>
       <c r="W3" s="2">
         <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
@@ -31950,11 +31950,11 @@
       </c>
       <c r="X3" s="2">
         <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-23.323946508444369</v>
+        <v>-21.439183154226644</v>
       </c>
       <c r="Y3" s="2">
         <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-27.048633954178854</v>
+        <v>-24.927172467576586</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -31963,27 +31963,27 @@
       </c>
       <c r="B4" s="2">
         <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>41.150705519104157</v>
+        <v>46.665748526819151</v>
       </c>
       <c r="C4" s="2">
         <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>52.550502504999997</v>
+        <v>56.229037680349997</v>
       </c>
       <c r="D4" s="2">
         <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>51.499492454899993</v>
+        <v>53.076007530049999</v>
       </c>
       <c r="E4" s="2">
         <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>48.346462304599996</v>
+        <v>49.3974723547</v>
       </c>
       <c r="F4" s="2">
         <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>54.652522605199998</v>
+        <v>51.499492454899993</v>
       </c>
       <c r="G4" s="2">
         <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>39.172877678758702</v>
+        <v>45.133967760308941</v>
       </c>
       <c r="H4" s="2">
         <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
@@ -31991,15 +31991,15 @@
       </c>
       <c r="I4" s="2">
         <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.2376994811218598</v>
+        <v>2.5360594119381075</v>
       </c>
       <c r="J4" s="2">
         <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-15.566287446311417</v>
+        <v>-14.111494227029976</v>
       </c>
       <c r="K4" s="2">
         <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-13.529576939317401</v>
+        <v>-14.984370158598841</v>
       </c>
       <c r="L4" s="2">
         <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
@@ -32007,55 +32007,55 @@
       </c>
       <c r="M4" s="2">
         <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-16.081430298607003</v>
+        <v>-13.80575619974752</v>
       </c>
       <c r="N4" s="2">
         <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-16.233141905197634</v>
+        <v>-13.957467806338151</v>
       </c>
       <c r="O4" s="2">
         <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-12.213267770524148</v>
+        <v>-10.804044566232902</v>
       </c>
       <c r="P4" s="2">
         <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.3875935908927075</v>
+        <v>-1.5044435774941989</v>
       </c>
       <c r="Q4" s="2">
         <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>8.9104660510156872</v>
+        <v>9.2633557956103694</v>
       </c>
       <c r="R4" s="2">
         <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>11.637373109129125</v>
+        <v>11.392375780515881</v>
       </c>
       <c r="S4" s="2">
         <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>13.352354409421839</v>
+        <v>12.127367766355615</v>
       </c>
       <c r="T4" s="2">
         <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>12.249866430662237</v>
+        <v>11.26987711620926</v>
       </c>
       <c r="U4" s="2">
         <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>13.352354409421839</v>
+        <v>11.759871773435748</v>
       </c>
       <c r="V4" s="2">
         <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>11.26987711620926</v>
+        <v>13.229855745115218</v>
       </c>
       <c r="W4" s="2">
         <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>27.077611485841334</v>
+        <v>26.822162320880565</v>
       </c>
       <c r="X4" s="2">
         <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>41.39057207057067</v>
+        <v>36.314369835500685</v>
       </c>
       <c r="Y4" s="2">
         <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>39.438186595543755</v>
+        <v>42.952480450592205</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E1165-1089-485F-8084-1CB19F42D3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED8F64-43AC-4FE9-9E5D-DA31207AF49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2790" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/IEEE9/ieee9/ieee9_2025.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2802BF1D-7E73-4B3F-A0B7-183F8E702E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583B2E5-468E-4581-B4FD-1C6B4FD8E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1152,1344 +1152,1344 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>63.422291817218287</v>
+            <v>65.200486914897311</v>
           </cell>
           <cell r="C2">
-            <v>49.023229549805052</v>
+            <v>52.673895580109686</v>
           </cell>
           <cell r="D2">
-            <v>45.662114649047275</v>
+            <v>47.135086089339119</v>
           </cell>
           <cell r="E2">
-            <v>51.912091810331013</v>
+            <v>52.88241128342132</v>
           </cell>
           <cell r="F2">
-            <v>53.828750461022118</v>
+            <v>55.860024063324843</v>
           </cell>
           <cell r="G2">
-            <v>55.925930030343807</v>
+            <v>54.281049735333688</v>
           </cell>
           <cell r="H2">
-            <v>64.176359308110079</v>
+            <v>60.206687598330085</v>
           </cell>
           <cell r="I2">
-            <v>76.922513612384435</v>
+            <v>66.567559856871142</v>
           </cell>
           <cell r="J2">
-            <v>72.021390459762614</v>
+            <v>83.764008469506507</v>
           </cell>
           <cell r="K2">
             <v>84.994645258927761</v>
           </cell>
           <cell r="L2">
-            <v>73.519121445856328</v>
+            <v>83.321670971970505</v>
           </cell>
           <cell r="M2">
-            <v>76.794084843309179</v>
+            <v>75.177367267660586</v>
           </cell>
           <cell r="N2">
-            <v>81.984743186982286</v>
+            <v>73.14325127466067</v>
           </cell>
           <cell r="O2">
-            <v>72.422087707441094</v>
+            <v>74.783677523988089</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>76.213874839285126</v>
           </cell>
           <cell r="Q2">
-            <v>79.323930407587724</v>
+            <v>69.595523848166593</v>
           </cell>
           <cell r="R2">
-            <v>78.280472524826905</v>
+            <v>79.055526708241032</v>
           </cell>
           <cell r="S2">
-            <v>84.23722791786723</v>
+            <v>95.644352531745085</v>
           </cell>
           <cell r="T2">
-            <v>88.573950304318672</v>
+            <v>96.626127604711286</v>
           </cell>
           <cell r="U2">
-            <v>90</v>
+            <v>91.8</v>
           </cell>
           <cell r="V2">
-            <v>79.464544760881481</v>
+            <v>83.830728538951888</v>
           </cell>
           <cell r="W2">
-            <v>85.831924633066535</v>
+            <v>87.498563946329966</v>
           </cell>
           <cell r="X2">
-            <v>82.825348491275236</v>
+            <v>83.585214073764007</v>
           </cell>
           <cell r="Y2">
-            <v>61.791837631949036</v>
+            <v>73.881544994721679</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>59.827260644376715</v>
+            <v>66.191862840587007</v>
           </cell>
           <cell r="C3">
-            <v>64.114975875403942</v>
+            <v>56.397432482994198</v>
           </cell>
           <cell r="D3">
-            <v>52.875792022779684</v>
+            <v>53.438300448553932</v>
           </cell>
           <cell r="E3">
-            <v>57.528421658327233</v>
+            <v>50.267552905334476</v>
           </cell>
           <cell r="F3">
-            <v>56.526548580397851</v>
+            <v>57.657079552005811</v>
           </cell>
           <cell r="G3">
             <v>57.164091267968814</v>
           </cell>
           <cell r="H3">
-            <v>66.727850756206578</v>
+            <v>71.91779470391154</v>
           </cell>
           <cell r="I3">
-            <v>85.674654363204752</v>
+            <v>82.104877098071228</v>
           </cell>
           <cell r="J3">
-            <v>94.248047548766152</v>
+            <v>105.90759982284034</v>
           </cell>
           <cell r="K3">
-            <v>96.407050061777014</v>
+            <v>98.374540879364304</v>
           </cell>
           <cell r="L3">
-            <v>104.33451839808464</v>
+            <v>91.890951983634167</v>
           </cell>
           <cell r="M3">
-            <v>99.099486811719004</v>
+            <v>101.98587963147781</v>
           </cell>
           <cell r="N3">
-            <v>104.78609135609095</v>
+            <v>90.365987041032554</v>
           </cell>
           <cell r="O3">
-            <v>93.618569452122742</v>
+            <v>90.781643105088719</v>
           </cell>
           <cell r="P3">
-            <v>86.499788221577433</v>
+            <v>84.716287433503666</v>
           </cell>
           <cell r="Q3">
-            <v>88.352544410866756</v>
+            <v>87.48634299507394</v>
           </cell>
           <cell r="R3">
-            <v>95.623098353139326</v>
+            <v>99.23151715891818</v>
           </cell>
           <cell r="S3">
-            <v>101</v>
+            <v>107</v>
           </cell>
           <cell r="T3">
-            <v>96.648376534123486</v>
+            <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>104.40487231335351</v>
+            <v>106.35636525379002</v>
           </cell>
           <cell r="V3">
-            <v>99.732480222433779</v>
+            <v>98.773514066448826</v>
           </cell>
           <cell r="W3">
-            <v>90.779731461050815</v>
+            <v>97.970205240143954</v>
           </cell>
           <cell r="X3">
-            <v>73.911338909997738</v>
+            <v>81.774247304678354</v>
           </cell>
           <cell r="Y3">
-            <v>75.616730481595908</v>
+            <v>70.623172808282959</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>74.336615932945676</v>
+            <v>69.380841537415961</v>
           </cell>
           <cell r="C4">
-            <v>59.209209482053083</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
-            <v>53.581530209713733</v>
+            <v>64.297836251656477</v>
           </cell>
           <cell r="E4">
-            <v>64.673679465287549</v>
+            <v>57.630011404711681</v>
           </cell>
           <cell r="F4">
-            <v>65.724323889746898</v>
+            <v>59.981421802293276</v>
           </cell>
           <cell r="G4">
-            <v>65.191324830497848</v>
+            <v>73.173936034232284</v>
           </cell>
           <cell r="H4">
-            <v>105.92898032576646</v>
+            <v>90.089132800418199</v>
           </cell>
           <cell r="I4">
-            <v>105.85037865175464</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>119.67565910192454</v>
+            <v>128.13757439195962</v>
           </cell>
           <cell r="K4">
-            <v>130.62417023420494</v>
+            <v>123.36727188786023</v>
           </cell>
           <cell r="L4">
-            <v>119.96111733012988</v>
+            <v>111.96370950812121</v>
           </cell>
           <cell r="M4">
-            <v>131.25</v>
+            <v>121.25</v>
           </cell>
           <cell r="N4">
-            <v>117.88563603094119</v>
+            <v>122.60106147217884</v>
           </cell>
           <cell r="O4">
-            <v>114.77078476646699</v>
+            <v>100.42443667065861</v>
           </cell>
           <cell r="P4">
-            <v>114.49717872796617</v>
+            <v>117.7073800007129</v>
           </cell>
           <cell r="Q4">
-            <v>97.988283243669002</v>
+            <v>105.98732677376444</v>
           </cell>
           <cell r="R4">
-            <v>99.051334073102836</v>
+            <v>105.05444522904847</v>
           </cell>
           <cell r="S4">
-            <v>102.74435260524353</v>
+            <v>100.6259123453416</v>
           </cell>
           <cell r="T4">
-            <v>95.329811695586784</v>
+            <v>108.04045325499835</v>
           </cell>
           <cell r="U4">
-            <v>97.840599792012483</v>
+            <v>109.66748548115686</v>
           </cell>
           <cell r="V4">
-            <v>98.337128667012223</v>
+            <v>106.70624600037497</v>
           </cell>
           <cell r="W4">
-            <v>87.915328620299306</v>
+            <v>91.696633077086361</v>
           </cell>
           <cell r="X4">
-            <v>78.35389154813025</v>
+            <v>83.151068581689245</v>
           </cell>
           <cell r="Y4">
-            <v>84.331988109494873</v>
+            <v>74.274044573500063</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>64.607755215670963</v>
+            <v>62.236828418765612</v>
           </cell>
           <cell r="C2">
-            <v>52.152371861494736</v>
+            <v>51.109324424264841</v>
           </cell>
           <cell r="D2">
-            <v>48.117067049533681</v>
+            <v>47.6260765694364</v>
           </cell>
           <cell r="E2">
-            <v>50.941772337240714</v>
+            <v>43.664376289063469</v>
           </cell>
           <cell r="F2">
-            <v>47.227111253538276</v>
+            <v>52.305295259295072</v>
           </cell>
           <cell r="G2">
-            <v>58.66739718869399</v>
+            <v>54.829343167003728</v>
           </cell>
           <cell r="H2">
-            <v>68.807642969520089</v>
+            <v>62.191523453220078</v>
           </cell>
           <cell r="I2">
-            <v>80.620711382210601</v>
+            <v>76.922513612384435</v>
           </cell>
           <cell r="J2">
-            <v>81.415484867557737</v>
+            <v>75.935596463010569</v>
           </cell>
           <cell r="K2">
-            <v>81.756754010968606</v>
+            <v>87.423063694897124</v>
           </cell>
           <cell r="L2">
-            <v>75.969758827384879</v>
+            <v>84.138550099146698</v>
           </cell>
           <cell r="M2">
-            <v>88.111107872849502</v>
+            <v>84.877672721552273</v>
           </cell>
           <cell r="N2">
-            <v>82.788515179011526</v>
+            <v>84.396059163069992</v>
           </cell>
           <cell r="O2">
-            <v>81.081250368113402</v>
+            <v>72.422087707441094</v>
           </cell>
           <cell r="P2">
-            <v>70.878903600535168</v>
+            <v>73.165319845713711</v>
           </cell>
           <cell r="Q2">
-            <v>82.317286272025001</v>
+            <v>69.595523848166593</v>
           </cell>
           <cell r="R2">
             <v>73.630147424342141</v>
           </cell>
           <cell r="S2">
-            <v>93.889410283456186</v>
+            <v>95.644352531745085</v>
           </cell>
           <cell r="T2">
-            <v>84.995204837477502</v>
+            <v>95.731441238000997</v>
           </cell>
           <cell r="U2">
-            <v>91.8</v>
+            <v>92.7</v>
           </cell>
           <cell r="V2">
-            <v>81.211018272109655</v>
+            <v>86.450438805794136</v>
           </cell>
           <cell r="W2">
-            <v>80.832006693276242</v>
+            <v>89.165203259593397</v>
           </cell>
           <cell r="X2">
-            <v>74.466827083898835</v>
+            <v>69.147768006477492</v>
           </cell>
           <cell r="Y2">
-            <v>65.821740086206574</v>
+            <v>69.179992131421201</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>57.281419765892608</v>
+            <v>57.917879985513636</v>
           </cell>
           <cell r="C3">
-            <v>54.022803746868128</v>
+            <v>61.146689955246345</v>
           </cell>
           <cell r="D3">
-            <v>55.125825725876695</v>
+            <v>56.250842577425196</v>
           </cell>
           <cell r="E3">
-            <v>61.438120217631024</v>
+            <v>59.762535120786545</v>
           </cell>
           <cell r="F3">
-            <v>61.613937952633663</v>
+            <v>58.222345037809788</v>
           </cell>
           <cell r="G3">
-            <v>59.028137722359098</v>
+            <v>62.756230631139672</v>
           </cell>
           <cell r="H3">
-            <v>71.91779470391154</v>
+            <v>75.624897523700795</v>
           </cell>
           <cell r="I3">
-            <v>95.491541842321979</v>
+            <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
             <v>106.87922917901318</v>
           </cell>
           <cell r="K3">
-            <v>96.407050061777014</v>
+            <v>108.21199496730074</v>
           </cell>
           <cell r="L3">
-            <v>100.50572873209987</v>
+            <v>88.06216231764941</v>
           </cell>
           <cell r="M3">
-            <v>103.91014151131702</v>
+            <v>98.1373558717994</v>
           </cell>
           <cell r="N3">
             <v>102.86341078074983</v>
           </cell>
           <cell r="O3">
-            <v>94.564211567800754</v>
+            <v>101.18370637754681</v>
           </cell>
           <cell r="P3">
-            <v>92.742040979835608</v>
+            <v>87.391538615614309</v>
           </cell>
           <cell r="Q3">
-            <v>84.021537331902692</v>
+            <v>94.415954321416436</v>
           </cell>
           <cell r="R3">
-            <v>88.406260741581633</v>
+            <v>96.52520305458404</v>
           </cell>
           <cell r="S3">
-            <v>108</v>
+            <v>94</v>
           </cell>
           <cell r="T3">
-            <v>98.641126565754902</v>
+            <v>101.63025161320202</v>
           </cell>
           <cell r="U3">
-            <v>92.69591467073441</v>
+            <v>93.671661140952665</v>
           </cell>
           <cell r="V3">
-            <v>86.306954038644605</v>
+            <v>105.48627715834341</v>
           </cell>
           <cell r="W3">
-            <v>89.880922238664169</v>
+            <v>93.476159128210739</v>
           </cell>
           <cell r="X3">
-            <v>71.552466391593555</v>
+            <v>84.133119823082538</v>
           </cell>
           <cell r="Y3">
-            <v>69.909807426381107</v>
+            <v>67.769711280675565</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>72.212712620575786</v>
+            <v>68.672873766625997</v>
           </cell>
           <cell r="C4">
-            <v>63.814370219546092</v>
+            <v>65.13013043025839</v>
           </cell>
           <cell r="D4">
-            <v>63.107135580329505</v>
+            <v>57.153632223694643</v>
           </cell>
           <cell r="E4">
-            <v>65.31401292533991</v>
+            <v>60.831678704973442</v>
           </cell>
           <cell r="F4">
-            <v>67.63862458556477</v>
+            <v>59.981421802293276</v>
           </cell>
           <cell r="G4">
-            <v>69.182630432365059</v>
+            <v>61.865236828941839</v>
           </cell>
           <cell r="H4">
-            <v>103.94899938509792</v>
+            <v>101.96901844442939</v>
           </cell>
           <cell r="I4">
-            <v>114.67124353940086</v>
+            <v>115.77385165035665</v>
           </cell>
           <cell r="J4">
-            <v>111.21374381188947</v>
+            <v>128.13757439195962</v>
           </cell>
           <cell r="K4">
-            <v>108.85347519517079</v>
+            <v>118.52933965696374</v>
           </cell>
           <cell r="L4">
-            <v>110.82122267640568</v>
+            <v>102.82381485439703</v>
           </cell>
           <cell r="M4">
-            <v>121.25</v>
+            <v>136.25</v>
           </cell>
           <cell r="N4">
-            <v>127.31648691341648</v>
+            <v>121.42220511186943</v>
           </cell>
           <cell r="O4">
-            <v>99.320871432519496</v>
+            <v>115.87435000460609</v>
           </cell>
           <cell r="P4">
-            <v>104.86657490972603</v>
+            <v>96.306038182401451</v>
           </cell>
           <cell r="Q4">
-            <v>94.988641919883207</v>
+            <v>103.98756589124058</v>
           </cell>
           <cell r="R4">
-            <v>90.046667339184395</v>
+            <v>104.05392670305753</v>
           </cell>
           <cell r="S4">
+            <v>95.329811695586784</v>
+          </cell>
+          <cell r="T4">
             <v>111.21811364485124</v>
           </cell>
-          <cell r="T4">
-            <v>95.329811695586784</v>
-          </cell>
           <cell r="U4">
-            <v>115.04334261258612</v>
+            <v>118.26885689144368</v>
           </cell>
           <cell r="V4">
-            <v>102.52168733369361</v>
+            <v>104.61396666703429</v>
           </cell>
           <cell r="W4">
-            <v>90.751306962889601</v>
+            <v>91.696633077086361</v>
           </cell>
           <cell r="X4">
-            <v>78.35389154813025</v>
+            <v>82.351539076096074</v>
           </cell>
           <cell r="Y4">
-            <v>79.689860323651118</v>
+            <v>70.405604751963608</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>62.829560117991953</v>
+            <v>53.938584629596861</v>
           </cell>
           <cell r="C2">
-            <v>54.759990454569476</v>
+            <v>48.501705831190108</v>
           </cell>
           <cell r="D2">
-            <v>48.117067049533681</v>
+            <v>50.081028969922819</v>
           </cell>
           <cell r="E2">
-            <v>51.426932073785864</v>
+            <v>53.367571019966469</v>
           </cell>
           <cell r="F2">
-            <v>53.320932060446438</v>
+            <v>54.844387262173477</v>
           </cell>
           <cell r="G2">
-            <v>49.346408850303355</v>
+            <v>58.66739718869399</v>
           </cell>
           <cell r="H2">
-            <v>67.484419066260088</v>
+            <v>60.868299549960085</v>
           </cell>
           <cell r="I2">
-            <v>72.484676288593022</v>
+            <v>81.360350936175848</v>
           </cell>
           <cell r="J2">
-            <v>80.632643666908137</v>
+            <v>83.764008469506507</v>
           </cell>
           <cell r="K2">
-            <v>84.185172446937969</v>
+            <v>89.042009318876708</v>
           </cell>
           <cell r="L2">
-            <v>75.969758827384879</v>
+            <v>79.237275336089596</v>
           </cell>
           <cell r="M2">
-            <v>75.177367267660586</v>
+            <v>72.75229090418766</v>
           </cell>
           <cell r="N2">
-            <v>80.377199202923805</v>
+            <v>77.162111234806844</v>
           </cell>
           <cell r="O2">
-            <v>73.209284312956768</v>
+            <v>80.294053762597741</v>
           </cell>
           <cell r="P2">
-            <v>70.878903600535168</v>
+            <v>81.548846078035083</v>
           </cell>
           <cell r="Q2">
-            <v>71.092201780385224</v>
+            <v>68.847184882057277</v>
           </cell>
           <cell r="R2">
             <v>82.930797625311683</v>
           </cell>
           <cell r="S2">
-            <v>82.482285669578317</v>
+            <v>89.502054662733926</v>
           </cell>
           <cell r="T2">
-            <v>94.836754871290708</v>
+            <v>92.152695771159827</v>
           </cell>
           <cell r="U2">
-            <v>95.4</v>
+            <v>88.2</v>
           </cell>
           <cell r="V2">
-            <v>88.19691231702231</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>89.998522916225099</v>
+            <v>85.831924633066535</v>
           </cell>
           <cell r="X2">
-            <v>72.187230336432549</v>
+            <v>75.986558248876364</v>
           </cell>
           <cell r="Y2">
-            <v>71.866593767592903</v>
+            <v>61.120187222906111</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>58.554340205134665</v>
+            <v>68.737703719071135</v>
           </cell>
           <cell r="C3">
-            <v>58.178404035088754</v>
+            <v>62.334004323309379</v>
           </cell>
           <cell r="D3">
-            <v>52.875792022779684</v>
+            <v>54.56331730010244</v>
           </cell>
           <cell r="E3">
-            <v>57.528421658327233</v>
+            <v>55.29430819586792</v>
           </cell>
           <cell r="F3">
-            <v>61.613937952633663</v>
+            <v>56.526548580397851</v>
           </cell>
           <cell r="G3">
-            <v>62.134881813009578</v>
+            <v>67.727021176180443</v>
           </cell>
           <cell r="H3">
-            <v>69.693533012037975</v>
+            <v>66.727850756206578</v>
           </cell>
           <cell r="I3">
-            <v>80.319988465504466</v>
+            <v>91.921764577188441</v>
           </cell>
           <cell r="J3">
-            <v>89.389900767901935</v>
+            <v>102.99271175432179</v>
           </cell>
           <cell r="K3">
-            <v>99.358286288157942</v>
+            <v>105.26075874091981</v>
           </cell>
           <cell r="L3">
-            <v>105.29171581458083</v>
+            <v>88.06216231764941</v>
           </cell>
           <cell r="M3">
             <v>97.175224931879796</v>
           </cell>
           <cell r="N3">
-            <v>100.94073020540871</v>
+            <v>104.78609135609095</v>
           </cell>
           <cell r="O3">
-            <v>89.836000989410707</v>
+            <v>92.672927336444744</v>
           </cell>
           <cell r="P3">
-            <v>90.066789797724951</v>
+            <v>96.309042555983126</v>
           </cell>
           <cell r="Q3">
-            <v>88.352544410866756</v>
+            <v>78.824328837145828</v>
           </cell>
           <cell r="R3">
-            <v>91.112574845915773</v>
+            <v>98.329412457473467</v>
           </cell>
           <cell r="S3">
-            <v>108</v>
+            <v>93</v>
           </cell>
           <cell r="T3">
-            <v>106.61212669228055</v>
+            <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>97.574647021825697</v>
+            <v>93.671661140952665</v>
           </cell>
           <cell r="V3">
-            <v>99.732480222433779</v>
+            <v>89.183852506599436</v>
           </cell>
           <cell r="W3">
-            <v>96.172586795370663</v>
+            <v>97.970205240143954</v>
           </cell>
           <cell r="X3">
-            <v>78.629083946806105</v>
+            <v>70.766175552125503</v>
           </cell>
           <cell r="Y3">
-            <v>74.189999717792205</v>
+            <v>68.483076662577417</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>77.168487016105502</v>
+            <v>67.256938225046071</v>
           </cell>
           <cell r="C4">
-            <v>66.445890640970674</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
-            <v>58.939683230685098</v>
+            <v>58.344332895021616</v>
           </cell>
           <cell r="E4">
-            <v>67.235013305496963</v>
+            <v>60.831678704973442</v>
           </cell>
           <cell r="F4">
-            <v>63.171922961989729</v>
+            <v>66.362424121686189</v>
           </cell>
           <cell r="G4">
-            <v>70.513065632987477</v>
+            <v>69.182630432365059</v>
           </cell>
           <cell r="H4">
-            <v>107.908961266435</v>
+            <v>104.9389898554322</v>
           </cell>
           <cell r="I4">
-            <v>112.46602731748931</v>
+            <v>113.56863542844509</v>
           </cell>
           <cell r="J4">
             <v>112.42258885332305</v>
           </cell>
           <cell r="K4">
-            <v>129.41468717648084</v>
+            <v>118.52933965696374</v>
           </cell>
           <cell r="L4">
-            <v>116.5336568349833</v>
+            <v>109.67873584469017</v>
           </cell>
           <cell r="M4">
-            <v>113.75</v>
+            <v>120</v>
           </cell>
           <cell r="N4">
-            <v>108.4547851484659</v>
+            <v>106.09707242784707</v>
           </cell>
           <cell r="O4">
-            <v>103.73513238507591</v>
+            <v>116.9779152427452</v>
           </cell>
           <cell r="P4">
-            <v>102.72644072789488</v>
+            <v>105.9366420006416</v>
           </cell>
           <cell r="Q4">
-            <v>91.989000596097441</v>
+            <v>93.988761478621285</v>
           </cell>
           <cell r="R4">
-            <v>106.05496375503941</v>
+            <v>97.050297021120969</v>
           </cell>
           <cell r="S4">
-            <v>96.389031825537742</v>
+            <v>115.4549941646551</v>
           </cell>
           <cell r="T4">
-            <v>97.448251955488715</v>
+            <v>99.566692215390631</v>
           </cell>
           <cell r="U4">
-            <v>97.840599792012483</v>
+            <v>113.96817118630027</v>
           </cell>
           <cell r="V4">
-            <v>114.02922366706738</v>
+            <v>105.66010633370463</v>
           </cell>
           <cell r="W4">
-            <v>86.024676391905771</v>
+            <v>93.587285305479895</v>
           </cell>
           <cell r="X4">
-            <v>78.35389154813025</v>
+            <v>75.155773525757581</v>
           </cell>
           <cell r="Y4">
-            <v>74.274044573500063</v>
+            <v>81.237236252265703</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>12.423748043064537</v>
+            <v>10.698227481527795</v>
           </cell>
           <cell r="C2">
-            <v>9.4058687373930283</v>
+            <v>9.5833379588532743</v>
           </cell>
           <cell r="D2">
-            <v>8.2797890952702495</v>
+            <v>8.0519049917307015</v>
           </cell>
           <cell r="E2">
-            <v>7.2846581675253317</v>
+            <v>8.176657126814149</v>
           </cell>
           <cell r="F2">
-            <v>8.194972446200298</v>
+            <v>8.6173937063137149</v>
           </cell>
           <cell r="G2">
-            <v>11.119277069265504</v>
+            <v>9.5457944651241586</v>
           </cell>
           <cell r="H2">
-            <v>16.275141045371267</v>
+            <v>14.64762694083414</v>
           </cell>
           <cell r="I2">
-            <v>18.080638107367527</v>
+            <v>18.279326438217723</v>
           </cell>
           <cell r="J2">
-            <v>20.889616348880764</v>
+            <v>24.33295970309188</v>
           </cell>
           <cell r="K2">
-            <v>27.55341713433593</v>
+            <v>25.78393163029601</v>
           </cell>
           <cell r="L2">
-            <v>27.531029903260166</v>
+            <v>27.021196016162754</v>
           </cell>
           <cell r="M2">
-            <v>25.034607639743612</v>
+            <v>23.532531181358994</v>
           </cell>
           <cell r="N2">
-            <v>24.13557958636536</v>
+            <v>26.901114747303062</v>
           </cell>
           <cell r="O2">
-            <v>27.373144648710593</v>
+            <v>26.377757570575664</v>
           </cell>
           <cell r="P2">
-            <v>20.203965921428502</v>
+            <v>22.22436251357135</v>
           </cell>
           <cell r="Q2">
             <v>21.328424277652452</v>
           </cell>
           <cell r="R2">
-            <v>22.231108734240113</v>
+            <v>23.771878646514182</v>
           </cell>
           <cell r="S2">
-            <v>30</v>
+            <v>33</v>
           </cell>
           <cell r="T2">
-            <v>31.154707063350411</v>
+            <v>27.559933171425364</v>
           </cell>
           <cell r="U2">
-            <v>31.075281512529919</v>
+            <v>28.751895978882821</v>
           </cell>
           <cell r="V2">
-            <v>29.032268344303642</v>
+            <v>24.46237425307066</v>
           </cell>
           <cell r="W2">
-            <v>26.058431559463255</v>
+            <v>21.994272508904764</v>
           </cell>
           <cell r="X2">
-            <v>18.134029354960045</v>
+            <v>18.524008480873164</v>
           </cell>
           <cell r="Y2">
-            <v>14.809861311821411</v>
+            <v>14.061888518295078</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-29.09616619718722</v>
+            <v>-27.350396225355986</v>
           </cell>
           <cell r="C3">
-            <v>-32.888478552585298</v>
+            <v>-31.307301699095618</v>
           </cell>
           <cell r="D3">
             <v>-36.106691410508809</v>
           </cell>
           <cell r="E3">
-            <v>-30.433452412962168</v>
+            <v>-33.81494712551352</v>
           </cell>
           <cell r="F3">
-            <v>-33.6</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="G3">
-            <v>-29.598758974154759</v>
+            <v>-28.664061322339347</v>
           </cell>
           <cell r="H3">
-            <v>-23.897917868165113</v>
+            <v>-22.041768907530926</v>
           </cell>
           <cell r="I3">
-            <v>-9.932361984990342</v>
+            <v>-9.3593411012408989</v>
           </cell>
           <cell r="J3">
-            <v>-2.9250234820326075</v>
+            <v>-2.7843973530887323</v>
           </cell>
           <cell r="K3">
-            <v>-0.40037484372235577</v>
+            <v>-0.40477456727974426</v>
           </cell>
           <cell r="L3">
-            <v>-3.8708245677799979</v>
+            <v>-4.0683156171565287</v>
           </cell>
           <cell r="M3">
-            <v>-3.1651765401365459</v>
+            <v>-2.7586401037887325</v>
           </cell>
           <cell r="N3">
-            <v>-4.260456173894049</v>
+            <v>-3.8987193289407798</v>
           </cell>
           <cell r="O3">
-            <v>-4.2572692471308899</v>
+            <v>-3.8518150331184242</v>
           </cell>
           <cell r="P3">
-            <v>-11.172496779753342</v>
+            <v>-10.454996986558173</v>
           </cell>
           <cell r="Q3">
-            <v>-13.728296850246544</v>
+            <v>-15.49968999221384</v>
           </cell>
           <cell r="R3">
-            <v>-13.652865881744731</v>
+            <v>-12.077535203081878</v>
           </cell>
           <cell r="S3">
-            <v>-4.9293153105021688</v>
+            <v>-4.7052555236611608</v>
           </cell>
           <cell r="T3">
-            <v>-6.7792742422181274</v>
+            <v>-7.1703862177307123</v>
           </cell>
           <cell r="U3">
-            <v>-7.7024609741411112</v>
+            <v>-7.8663431225270921</v>
           </cell>
           <cell r="V3">
-            <v>-12.87149065841772</v>
+            <v>-12.485345938665189</v>
           </cell>
           <cell r="W3">
-            <v>-17.710512627028248</v>
+            <v>-15.705548933402408</v>
           </cell>
           <cell r="X3">
-            <v>-21.743612887160861</v>
+            <v>-21.967773844760455</v>
           </cell>
           <cell r="Y3">
-            <v>-24.221973744975092</v>
+            <v>-23.969661518464932</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.153484322237276</v>
+            <v>41.575349331860195</v>
           </cell>
           <cell r="C4">
-            <v>47</v>
+            <v>54</v>
           </cell>
           <cell r="D4">
             <v>53.5</v>
           </cell>
           <cell r="E4">
-            <v>50.5</v>
+            <v>52.5</v>
           </cell>
           <cell r="F4">
-            <v>54</v>
+            <v>45.5</v>
           </cell>
           <cell r="G4">
-            <v>38.892155474248909</v>
+            <v>39.702408713295767</v>
           </cell>
           <cell r="H4">
-            <v>17.089252129885086</v>
+            <v>18.191784525361541</v>
           </cell>
           <cell r="I4">
-            <v>2.4839433213733546</v>
+            <v>2.6022263366768481</v>
           </cell>
           <cell r="J4">
-            <v>-13.011346808666968</v>
+            <v>-14.949206971659921</v>
           </cell>
           <cell r="K4">
-            <v>-15.087625554730847</v>
+            <v>-14.533951222447145</v>
           </cell>
           <cell r="L4">
-            <v>-1.096708304065388</v>
+            <v>-1.2039949859848282</v>
           </cell>
           <cell r="M4">
-            <v>-15.589625912929476</v>
+            <v>-15.300929136764116</v>
           </cell>
           <cell r="N4">
-            <v>-14.146142032102672</v>
+            <v>-13.13570331552391</v>
           </cell>
           <cell r="O4">
-            <v>-10.503148946321804</v>
+            <v>-10.950091454675924</v>
           </cell>
           <cell r="P4">
-            <v>-1.2924530018652911</v>
+            <v>-1.4453237870321534</v>
           </cell>
           <cell r="Q4">
-            <v>8.3940620872536957</v>
+            <v>8.8137651916163815</v>
           </cell>
           <cell r="R4">
-            <v>12.471200517598739</v>
+            <v>11.305667758944649</v>
           </cell>
           <cell r="S4">
-            <v>10.722901379617607</v>
+            <v>11.305667758944649</v>
           </cell>
           <cell r="T4">
-            <v>11.305667758944649</v>
+            <v>10.489794827886788</v>
           </cell>
           <cell r="U4">
-            <v>11.655327586540876</v>
+            <v>11.888434138271693</v>
           </cell>
           <cell r="V4">
-            <v>11.888434138271693</v>
+            <v>10.489794827886788</v>
           </cell>
           <cell r="W4">
-            <v>24.06206042340866</v>
+            <v>23.089855961856795</v>
           </cell>
           <cell r="X4">
             <v>34.923402423234421</v>
           </cell>
           <cell r="Y4">
-            <v>39.010183557868238</v>
+            <v>40.867811346338151</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>11.848574522552289</v>
+            <v>11.158366297937592</v>
           </cell>
           <cell r="C2">
-            <v>9.1396649052026593</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.1403685775725076</v>
+            <v>6.9884458418794768</v>
           </cell>
           <cell r="E2">
             <v>7.953657386991944</v>
           </cell>
           <cell r="F2">
-            <v>7.6035826820415133</v>
+            <v>8.4484252022683481</v>
           </cell>
           <cell r="G2">
-            <v>9.4408956248480695</v>
+            <v>11.014378228989415</v>
           </cell>
           <cell r="H2">
-            <v>15.624135403556416</v>
+            <v>17.414400918547258</v>
           </cell>
           <cell r="I2">
-            <v>18.080638107367527</v>
+            <v>17.881949776517335</v>
           </cell>
           <cell r="J2">
-            <v>24.562515926705952</v>
+            <v>24.103403479477805</v>
           </cell>
           <cell r="K2">
-            <v>24.772797056558908</v>
+            <v>24.014446126256086</v>
           </cell>
           <cell r="L2">
-            <v>24.726943524224406</v>
+            <v>22.942524919383469</v>
           </cell>
           <cell r="M2">
-            <v>24.033223334153867</v>
+            <v>25.034607639743612</v>
           </cell>
           <cell r="N2">
-            <v>22.627105862217526</v>
+            <v>25.644053310513197</v>
           </cell>
           <cell r="O2">
-            <v>23.640443105704602</v>
+            <v>24.138136644772068</v>
           </cell>
           <cell r="P2">
-            <v>21.999874003333257</v>
+            <v>24.244759105714202</v>
           </cell>
           <cell r="Q2">
             <v>21.115140034875928</v>
           </cell>
           <cell r="R2">
-            <v>20.250118847030599</v>
+            <v>21.570778771836942</v>
           </cell>
           <cell r="S2">
-            <v>27.3</v>
+            <v>31.5</v>
           </cell>
           <cell r="T2">
-            <v>29.357320117387886</v>
+            <v>27.260368680431611</v>
           </cell>
           <cell r="U2">
-            <v>29.042319170588708</v>
+            <v>28.751895978882821</v>
           </cell>
           <cell r="V2">
-            <v>25.537643451007831</v>
+            <v>26.075278049976415</v>
           </cell>
           <cell r="W2">
-            <v>22.472408867793998</v>
+            <v>24.863090662240168</v>
           </cell>
           <cell r="X2">
-            <v>18.913987606786282</v>
+            <v>20.863883236351882</v>
           </cell>
           <cell r="Y2">
-            <v>16.006617781463547</v>
+            <v>15.857023222758279</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-28.514242873243475</v>
+            <v>-26.477511239440371</v>
           </cell>
           <cell r="C3">
-            <v>-33.837184664679107</v>
+            <v>-29.726124845605938</v>
           </cell>
           <cell r="D3">
-            <v>-30.656624782507482</v>
+            <v>-35.425433082008645</v>
           </cell>
           <cell r="E3">
             <v>-35.167545010534063</v>
           </cell>
           <cell r="F3">
-            <v>-37.800000000000004</v>
+            <v>-31.85</v>
           </cell>
           <cell r="G3">
-            <v>-33.96068134929336</v>
+            <v>-28.975627206277821</v>
           </cell>
           <cell r="H3">
-            <v>-21.34571304729311</v>
+            <v>-22.969843387848019</v>
           </cell>
           <cell r="I3">
-            <v>-9.3593411012408989</v>
+            <v>-10.123368946240156</v>
           </cell>
           <cell r="J3">
-            <v>-2.8406478046662822</v>
+            <v>-2.5593955467785316</v>
           </cell>
           <cell r="K3">
-            <v>-0.4091742908371328</v>
+            <v>-0.39597512016496722</v>
           </cell>
           <cell r="L3">
-            <v>-3.8313263579046914</v>
+            <v>-3.6338353085281616</v>
           </cell>
           <cell r="M3">
-            <v>-3.1070999063725728</v>
+            <v>-3.0490232726085993</v>
           </cell>
           <cell r="N3">
-            <v>-4.1800702083488774</v>
+            <v>-4.3006491566666343</v>
           </cell>
           <cell r="O3">
-            <v>-3.8112696117171776</v>
+            <v>-3.9329058759209174</v>
           </cell>
           <cell r="P3">
-            <v>-10.044997104732362</v>
+            <v>-10.249997045645268</v>
           </cell>
           <cell r="Q3">
-            <v>-15.056841706722016</v>
+            <v>-15.794922182541724</v>
           </cell>
           <cell r="R3">
-            <v>-12.996478098968542</v>
+            <v>-11.946257646526639</v>
           </cell>
           <cell r="S3">
-            <v>-4.7500674810293626</v>
+            <v>-4.5708196515565565</v>
           </cell>
           <cell r="T3">
-            <v>-5.866679632688764</v>
+            <v>-6.1274209496971528</v>
           </cell>
           <cell r="U3">
-            <v>-7.7024609741411112</v>
+            <v>-8.7676949386499885</v>
           </cell>
           <cell r="V3">
-            <v>-13.38635028475443</v>
+            <v>-13.257635378170251</v>
           </cell>
           <cell r="W3">
-            <v>-17.877592934830403</v>
+            <v>-15.371388317798102</v>
           </cell>
           <cell r="X3">
-            <v>-24.657705335955615</v>
+            <v>-24.433544378356018</v>
           </cell>
           <cell r="Y3">
-            <v>-23.717349291954775</v>
+            <v>-26.997408236586821</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>36.731619312614349</v>
+            <v>43.997214341483122</v>
           </cell>
           <cell r="C4">
+            <v>50</v>
+          </cell>
+          <cell r="D4">
+            <v>46</v>
+          </cell>
+          <cell r="E4">
             <v>54</v>
           </cell>
-          <cell r="D4">
-            <v>52.5</v>
-          </cell>
-          <cell r="E4">
-            <v>52.5</v>
-          </cell>
           <cell r="F4">
-            <v>50</v>
+            <v>53</v>
           </cell>
           <cell r="G4">
-            <v>41.728041810912899</v>
+            <v>40.512661952342619</v>
           </cell>
           <cell r="H4">
-            <v>19.661827719330152</v>
+            <v>20.029338517822307</v>
           </cell>
           <cell r="I4">
-            <v>2.5549131305554504</v>
+            <v>2.2000640846449713</v>
           </cell>
           <cell r="J4">
             <v>-14.11869547323437</v>
           </cell>
           <cell r="K4">
-            <v>-14.533951222447145</v>
+            <v>-14.395532639376221</v>
           </cell>
           <cell r="L4">
-            <v>-1.2516779557268016</v>
+            <v>-1.1324705313718679</v>
           </cell>
           <cell r="M4">
-            <v>-12.991354927441231</v>
+            <v>-15.012232360598755</v>
           </cell>
           <cell r="N4">
-            <v>-15.300929136764116</v>
+            <v>-14.001793644019992</v>
           </cell>
           <cell r="O4">
-            <v>-12.290918979738283</v>
+            <v>-10.279677692144746</v>
           </cell>
           <cell r="P4">
-            <v>-1.4036317547139181</v>
+            <v>-1.3063503459713692</v>
           </cell>
           <cell r="Q4">
-            <v>9.1495276751065298</v>
+            <v>9.0655870542339922</v>
           </cell>
           <cell r="R4">
+            <v>12.587753793464147</v>
+          </cell>
+          <cell r="S4">
             <v>11.072561207213832</v>
           </cell>
-          <cell r="S4">
+          <cell r="T4">
+            <v>11.538774310675468</v>
+          </cell>
+          <cell r="U4">
+            <v>11.072561207213832</v>
+          </cell>
+          <cell r="V4">
             <v>11.189114483079241</v>
           </cell>
-          <cell r="T4">
-            <v>11.888434138271693</v>
-          </cell>
-          <cell r="U4">
-            <v>10.489794827886788</v>
-          </cell>
-          <cell r="V4">
-            <v>12.704307069329555</v>
-          </cell>
           <cell r="W4">
-            <v>24.791213769572561</v>
+            <v>25.520367115736459</v>
           </cell>
           <cell r="X4">
-            <v>38.638658000174253</v>
+            <v>33.808825750152472</v>
           </cell>
           <cell r="Y4">
-            <v>34.180351307846458</v>
+            <v>37.895606884786282</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>11.848574522552289</v>
+            <v>12.078643930757188</v>
           </cell>
           <cell r="C2">
-            <v>8.252318797901431</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.3682526811120566</v>
+            <v>8.2038277274237341</v>
           </cell>
           <cell r="E2">
-            <v>7.5076579073475358</v>
+            <v>7.2103249209179303</v>
           </cell>
           <cell r="F2">
-            <v>9.2932677224951838</v>
+            <v>8.9553307144044503</v>
           </cell>
           <cell r="G2">
-            <v>10.804580548437235</v>
+            <v>10.594782867885055</v>
           </cell>
           <cell r="H2">
-            <v>16.763395276732407</v>
+            <v>16.437892455824979</v>
           </cell>
           <cell r="I2">
-            <v>21.855716393521188</v>
+            <v>18.080638107367527</v>
           </cell>
           <cell r="J2">
-            <v>23.185178585021507</v>
+            <v>21.578285019722983</v>
           </cell>
           <cell r="K2">
-            <v>25.278364343427459</v>
+            <v>25.025580699993185</v>
           </cell>
           <cell r="L2">
             <v>26.766279072614047</v>
           </cell>
           <cell r="M2">
-            <v>27.037376250923103</v>
+            <v>26.787030174525668</v>
           </cell>
           <cell r="N2">
-            <v>23.884167299007387</v>
+            <v>23.632755011649415</v>
           </cell>
           <cell r="O2">
-            <v>23.142749566637139</v>
+            <v>22.645056027569673</v>
           </cell>
           <cell r="P2">
-            <v>23.122316554523731</v>
+            <v>23.795782085238013</v>
           </cell>
           <cell r="Q2">
-            <v>22.181561248758552</v>
+            <v>21.7549927632055</v>
           </cell>
           <cell r="R2">
-            <v>22.231108734240113</v>
+            <v>24.212098621449631</v>
           </cell>
           <cell r="S2">
-            <v>32.400000000000006</v>
+            <v>31.8</v>
           </cell>
           <cell r="T2">
-            <v>30.855142572356655</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>27.880626403765159</v>
+            <v>31.075281512529919</v>
           </cell>
           <cell r="V2">
-            <v>29.301085643787935</v>
+            <v>26.344095349460709</v>
           </cell>
           <cell r="W2">
-            <v>21.755204329460149</v>
+            <v>25.341227021129402</v>
           </cell>
           <cell r="X2">
-            <v>21.448851925221561</v>
+            <v>18.134029354960045</v>
           </cell>
           <cell r="Y2">
-            <v>14.211483077000343</v>
+            <v>13.613104842179277</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-26.477511239440371</v>
+            <v>-29.969051183102838</v>
           </cell>
           <cell r="C3">
-            <v>-32.888478552585298</v>
+            <v>-33.837184664679107</v>
           </cell>
           <cell r="D3">
-            <v>-37.128578903259061</v>
+            <v>-35.425433082008645</v>
           </cell>
           <cell r="E3">
-            <v>-33.476797654258384</v>
+            <v>-35.843843953044335</v>
           </cell>
           <cell r="F3">
-            <v>-34.299999999999997</v>
+            <v>-34.65</v>
           </cell>
           <cell r="G3">
-            <v>-30.2218907420317</v>
+            <v>-33.337549581416418</v>
           </cell>
           <cell r="H3">
             <v>-21.577731667372383</v>
           </cell>
           <cell r="I3">
-            <v>-9.932361984990342</v>
+            <v>-9.1683341399910834</v>
           </cell>
           <cell r="J3">
-            <v>-2.7562721272999569</v>
+            <v>-3.0375243851877078</v>
           </cell>
           <cell r="K3">
-            <v>-0.47517014419796066</v>
+            <v>-0.43557263218146391</v>
           </cell>
           <cell r="L3">
-            <v>-4.1868102467824473</v>
+            <v>-4.1078138270318343</v>
           </cell>
           <cell r="M3">
-            <v>-2.6715251531427726</v>
+            <v>-2.7876784206707192</v>
           </cell>
           <cell r="N3">
-            <v>-4.1398772255762921</v>
+            <v>-3.7379473978504389</v>
           </cell>
           <cell r="O3">
-            <v>-4.4194509327358764</v>
+            <v>-4.3789055113346302</v>
           </cell>
           <cell r="P3">
-            <v>-10.35249701610172</v>
+            <v>-9.8399971638194561</v>
           </cell>
           <cell r="Q3">
-            <v>-15.794922182541724</v>
+            <v>-14.909225611558075</v>
           </cell>
           <cell r="R3">
-            <v>-14.046698551410445</v>
+            <v>-13.390310768634256</v>
           </cell>
           <cell r="S3">
-            <v>-4.6604435662929591</v>
+            <v>-4.6156316089247573</v>
           </cell>
           <cell r="T3">
-            <v>-7.1703862177307123</v>
+            <v>-6.5185329252097377</v>
           </cell>
           <cell r="U3">
-            <v>-8.6857538644569985</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-11.713056499160126</v>
+            <v>-12.227916125496833</v>
           </cell>
           <cell r="W3">
-            <v>-15.705548933402408</v>
+            <v>-17.710512627028248</v>
           </cell>
           <cell r="X3">
-            <v>-22.864417675158844</v>
+            <v>-23.312739590358035</v>
           </cell>
           <cell r="Y3">
-            <v>-25.988159330546193</v>
+            <v>-26.240471557056349</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.960772658778247</v>
+            <v>37.538907649155327</v>
           </cell>
           <cell r="C4">
-            <v>51.5</v>
+            <v>53.5</v>
           </cell>
           <cell r="D4">
-            <v>54</v>
+            <v>53</v>
           </cell>
           <cell r="E4">
+            <v>53</v>
+          </cell>
+          <cell r="F4">
             <v>55.000000000000007</v>
           </cell>
-          <cell r="F4">
-            <v>47</v>
-          </cell>
           <cell r="G4">
-            <v>44.563928147576881</v>
+            <v>40.917788571866048</v>
           </cell>
           <cell r="H4">
-            <v>18.191784525361541</v>
+            <v>20.029338517822307</v>
           </cell>
           <cell r="I4">
             <v>2.3183470999484643</v>
           </cell>
           <cell r="J4">
-            <v>-14.949206971659921</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="K4">
-            <v>-13.011346808666968</v>
+            <v>-14.395532639376221</v>
           </cell>
           <cell r="L4">
-            <v>-1.1563120162428546</v>
+            <v>-1.2039949859848282</v>
           </cell>
           <cell r="M4">
-            <v>-13.857445255937311</v>
+            <v>-13.56874847977195</v>
           </cell>
           <cell r="N4">
-            <v>-14.867883972516074</v>
+            <v>-15.589625912929476</v>
           </cell>
           <cell r="O4">
-            <v>-10.056206437967687</v>
+            <v>-10.614884573410334</v>
           </cell>
           <cell r="P4">
-            <v>-1.3063503459713692</v>
+            <v>-1.2785556577592125</v>
           </cell>
           <cell r="Q4">
-            <v>8.4780027081262332</v>
+            <v>8.0582996037635475</v>
           </cell>
           <cell r="R4">
-            <v>10.489794827886788</v>
+            <v>11.422221034810059</v>
           </cell>
           <cell r="S4">
-            <v>12.004987414137103</v>
+            <v>12.121540690002512</v>
           </cell>
           <cell r="T4">
-            <v>11.771880862406285</v>
+            <v>10.839454655483015</v>
           </cell>
           <cell r="U4">
-            <v>10.489794827886788</v>
+            <v>11.305667758944649</v>
           </cell>
           <cell r="V4">
-            <v>10.489794827886788</v>
+            <v>12.354647241733328</v>
           </cell>
           <cell r="W4">
-            <v>23.089855961856795</v>
+            <v>25.277316000348492</v>
           </cell>
           <cell r="X4">
-            <v>38.267132442480268</v>
+            <v>40.496285788644172</v>
           </cell>
           <cell r="Y4">
-            <v>35.666453538622385</v>
+            <v>36.03797909631637</v>
           </cell>
         </row>
       </sheetData>
@@ -2499,966 +2499,966 @@
             <v>63.960777126019032</v>
           </cell>
           <cell r="C2">
-            <v>59.717230791638556</v>
+            <v>51.186197821404477</v>
           </cell>
           <cell r="D2">
-            <v>54.317843104822856</v>
+            <v>55.931244385164135</v>
           </cell>
           <cell r="E2">
-            <v>49.470629264515217</v>
+            <v>46.866911934803895</v>
           </cell>
           <cell r="F2">
-            <v>55.755718641197433</v>
+            <v>50.787387277130335</v>
           </cell>
           <cell r="G2">
-            <v>49.551764715380848</v>
+            <v>45.506722697798743</v>
           </cell>
           <cell r="H2">
-            <v>55.150118657573884</v>
+            <v>61.080238943334521</v>
           </cell>
           <cell r="I2">
-            <v>66.764994401541841</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>76.766103459551658</v>
+            <v>81.41859457831238</v>
           </cell>
           <cell r="K2">
-            <v>88.216051139302991</v>
+            <v>74.900420778653483</v>
           </cell>
           <cell r="L2">
-            <v>85.027135869064523</v>
+            <v>79.015116161150885</v>
           </cell>
           <cell r="M2">
-            <v>79.393193597122007</v>
+            <v>93.352436427385214</v>
           </cell>
           <cell r="N2">
-            <v>89.847926221756808</v>
+            <v>84.510425654127687</v>
           </cell>
           <cell r="O2">
-            <v>89.686944234089282</v>
+            <v>93.274422003452855</v>
           </cell>
           <cell r="P2">
-            <v>81.900000000000006</v>
+            <v>93.600000000000009</v>
           </cell>
           <cell r="Q2">
-            <v>90.07135452915179</v>
+            <v>79.678505929634284</v>
           </cell>
           <cell r="R2">
-            <v>89.249932875964035</v>
+            <v>78.851882443812897</v>
           </cell>
           <cell r="S2">
-            <v>90.766646793154507</v>
+            <v>80.773988430605371</v>
           </cell>
           <cell r="T2">
-            <v>88.732912600898402</v>
+            <v>91.24422144809364</v>
           </cell>
           <cell r="U2">
-            <v>86.086508148057391</v>
+            <v>92.838391140061901</v>
           </cell>
           <cell r="V2">
-            <v>84.541811502142835</v>
+            <v>92.075240249858538</v>
           </cell>
           <cell r="W2">
-            <v>91.040685716509756</v>
+            <v>78.901927620975115</v>
           </cell>
           <cell r="X2">
-            <v>90.642277245784783</v>
+            <v>76.24116777682832</v>
           </cell>
           <cell r="Y2">
-            <v>77.981531376022531</v>
+            <v>81.767042607868277</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>79.490977289436046</v>
+            <v>80.220252310440046</v>
           </cell>
           <cell r="C3">
-            <v>65.595320224710775</v>
+            <v>63.607583248204378</v>
           </cell>
           <cell r="D3">
-            <v>61.194513166275655</v>
+            <v>59.24149678862856</v>
           </cell>
           <cell r="E3">
             <v>62.336872711126148</v>
           </cell>
           <cell r="F3">
-            <v>61.043000120445676</v>
+            <v>58.445425647235226</v>
           </cell>
           <cell r="G3">
-            <v>59.859503092867492</v>
+            <v>63.077755947322729</v>
           </cell>
           <cell r="H3">
-            <v>70.877581291242578</v>
+            <v>66.70831180352242</v>
           </cell>
           <cell r="I3">
-            <v>87.448965925689905</v>
+            <v>80.849043969034057</v>
           </cell>
           <cell r="J3">
-            <v>98.726701026299679</v>
+            <v>86.503395184948289</v>
           </cell>
           <cell r="K3">
-            <v>91.099768724681368</v>
+            <v>106.60611233739311</v>
           </cell>
           <cell r="L3">
-            <v>104.56794794895464</v>
+            <v>89.218524396814502</v>
           </cell>
           <cell r="M3">
-            <v>108.51145168014767</v>
+            <v>105.55204845250728</v>
           </cell>
           <cell r="N3">
-            <v>90</v>
+            <v>108</v>
           </cell>
           <cell r="O3">
-            <v>97.168685469816282</v>
+            <v>101.09469296354624</v>
           </cell>
           <cell r="P3">
-            <v>86.769752423933539</v>
+            <v>85.826602941064692</v>
           </cell>
           <cell r="Q3">
             <v>99.570827764762939</v>
           </cell>
           <cell r="R3">
-            <v>101.30801238196327</v>
+            <v>97.624084658982781</v>
           </cell>
           <cell r="S3">
-            <v>84.637371196340837</v>
+            <v>92.078019213601564</v>
           </cell>
           <cell r="T3">
-            <v>100.87511585447588</v>
+            <v>92.468856199936212</v>
           </cell>
           <cell r="U3">
-            <v>96.449469792286052</v>
+            <v>93.693770655363593</v>
           </cell>
           <cell r="V3">
-            <v>90.289974098180465</v>
+            <v>92.132626630796395</v>
           </cell>
           <cell r="W3">
-            <v>97.867544444634348</v>
+            <v>96.908058714785</v>
           </cell>
           <cell r="X3">
-            <v>86.75261286865566</v>
+            <v>95.696181205630481</v>
           </cell>
           <cell r="Y3">
-            <v>86.904303796169714</v>
+            <v>79.525636492721333</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>89.010098698494829</v>
+            <v>75.700177397785325</v>
           </cell>
           <cell r="C4">
-            <v>69.684728604628845</v>
+            <v>78.77404103131957</v>
           </cell>
           <cell r="D4">
-            <v>75.638687729960338</v>
+            <v>73.477582366247191</v>
           </cell>
           <cell r="E4">
-            <v>66.693430599037058</v>
+            <v>71.55649324688352</v>
           </cell>
           <cell r="F4">
-            <v>71.55649324688352</v>
+            <v>65.99870736363043</v>
           </cell>
           <cell r="G4">
             <v>77.469481083673088</v>
           </cell>
           <cell r="H4">
-            <v>98.933637287347509</v>
+            <v>86.800266676635076</v>
           </cell>
           <cell r="I4">
-            <v>106.81361191856124</v>
+            <v>116.00187961048047</v>
           </cell>
           <cell r="J4">
-            <v>125.86445999077027</v>
+            <v>118.67220513415482</v>
           </cell>
           <cell r="K4">
-            <v>123.23023358419498</v>
+            <v>112.66764213412111</v>
           </cell>
           <cell r="L4">
-            <v>121.99864183587977</v>
+            <v>127.86396115491246</v>
           </cell>
           <cell r="M4">
-            <v>116.25</v>
+            <v>118.75</v>
           </cell>
           <cell r="N4">
-            <v>112.5</v>
+            <v>122.5</v>
           </cell>
           <cell r="O4">
-            <v>132.5</v>
+            <v>120</v>
           </cell>
           <cell r="P4">
-            <v>109.2297925267945</v>
+            <v>130.60083889073255</v>
           </cell>
           <cell r="Q4">
-            <v>112.40031790052809</v>
+            <v>121.39234333257035</v>
           </cell>
           <cell r="R4">
-            <v>99.471380436252844</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="S4">
-            <v>104.70671624868721</v>
+            <v>110.98911922360845</v>
           </cell>
           <cell r="T4">
-            <v>110.98911922360845</v>
+            <v>107.84791773614783</v>
           </cell>
           <cell r="U4">
-            <v>97.377246111279121</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="V4">
-            <v>112.03618638609532</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="W4">
-            <v>95.283111786305369</v>
+            <v>103.65964908620035</v>
           </cell>
           <cell r="X4">
-            <v>104.98130510466393</v>
+            <v>99.934126974632008</v>
           </cell>
           <cell r="Y4">
-            <v>86.892727278962852</v>
+            <v>103.89347826832515</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>61.376503302745533</v>
+            <v>65.898982493474151</v>
           </cell>
           <cell r="C2">
-            <v>53.461139946800223</v>
+            <v>52.323668884102354</v>
           </cell>
           <cell r="D2">
-            <v>56.469044811944556</v>
+            <v>58.620246519066256</v>
           </cell>
           <cell r="E2">
-            <v>51.55360312828428</v>
+            <v>56.76103778770694</v>
           </cell>
           <cell r="F2">
-            <v>57.411829095886468</v>
+            <v>54.651645004738072</v>
           </cell>
           <cell r="G2">
-            <v>49.046134463183087</v>
+            <v>46.517983202194273</v>
           </cell>
           <cell r="H2">
-            <v>58.708190829030265</v>
+            <v>62.266263000486646</v>
           </cell>
           <cell r="I2">
-            <v>70.894787869678467</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>72.113612340790965</v>
+            <v>80.643179391852257</v>
           </cell>
           <cell r="K2">
-            <v>87.383824241762397</v>
+            <v>77.397101471275263</v>
           </cell>
           <cell r="L2">
-            <v>78.156256202877501</v>
+            <v>85.027135869064523</v>
           </cell>
           <cell r="M2">
-            <v>90.735078396710861</v>
+            <v>81.138098950904904</v>
           </cell>
           <cell r="N2">
-            <v>92.516676505571368</v>
+            <v>80.062508514436757</v>
           </cell>
           <cell r="O2">
-            <v>95.965030330475543</v>
+            <v>97.758769215157329</v>
           </cell>
           <cell r="P2">
-            <v>85.5</v>
+            <v>84.6</v>
           </cell>
           <cell r="Q2">
-            <v>80.544576646260737</v>
+            <v>86.60707166264595</v>
           </cell>
           <cell r="R2">
-            <v>81.451395051850668</v>
+            <v>79.718386646492149</v>
           </cell>
           <cell r="S2">
-            <v>79.108545370180522</v>
+            <v>82.439431491030234</v>
           </cell>
           <cell r="T2">
-            <v>77.85057426305238</v>
+            <v>85.38450080463808</v>
           </cell>
           <cell r="U2">
-            <v>83.554552026055703</v>
+            <v>91.150420392060781</v>
           </cell>
           <cell r="V2">
-            <v>82.030668586237596</v>
+            <v>88.727049695318215</v>
           </cell>
           <cell r="W2">
-            <v>80.636035920337207</v>
+            <v>87.572469117785573</v>
           </cell>
           <cell r="X2">
-            <v>85.559532727329568</v>
+            <v>91.489401332193992</v>
           </cell>
           <cell r="Y2">
-            <v>71.167611158700169</v>
+            <v>69.653406665961867</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>73.656777121404033</v>
+            <v>78.032427247428046</v>
           </cell>
           <cell r="C3">
-            <v>69.570794177723542</v>
+            <v>60.957267279529205</v>
           </cell>
           <cell r="D3">
-            <v>65.751551380785543</v>
+            <v>67.704567758432646</v>
           </cell>
           <cell r="E3">
-            <v>67.531612103719993</v>
+            <v>64.284899983348836</v>
           </cell>
           <cell r="F3">
-            <v>66.887542685169208</v>
+            <v>64.939361830261362</v>
           </cell>
           <cell r="G3">
-            <v>68.226960514451122</v>
+            <v>61.146804234649579</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>74.351972531009366</v>
           </cell>
           <cell r="I3">
-            <v>80.024053724452074</v>
+            <v>85.798985436525939</v>
           </cell>
           <cell r="J3">
-            <v>93.085175253368263</v>
+            <v>90.264412366902562</v>
           </cell>
           <cell r="K3">
-            <v>106.60611233739311</v>
+            <v>94.00720815206482</v>
           </cell>
           <cell r="L3">
-            <v>98.811914116902088</v>
+            <v>92.09654131284077</v>
           </cell>
           <cell r="M3">
-            <v>95.687371027039305</v>
+            <v>108.51145168014767</v>
           </cell>
           <cell r="N3">
-            <v>95</v>
+            <v>105</v>
           </cell>
           <cell r="O3">
-            <v>106.00220233070868</v>
+            <v>98.150187343248774</v>
           </cell>
           <cell r="P3">
-            <v>92.428649321146594</v>
+            <v>100.91699466696618</v>
           </cell>
           <cell r="Q3">
-            <v>92.329313018234714</v>
+            <v>91.42412367491869</v>
           </cell>
           <cell r="R3">
-            <v>93.940156936002296</v>
+            <v>99.466048520473024</v>
           </cell>
           <cell r="S3">
-            <v>94.868262220074342</v>
+            <v>102.30891023733508</v>
           </cell>
           <cell r="T3">
-            <v>84.062596545396559</v>
+            <v>95.270942751449425</v>
           </cell>
           <cell r="U3">
-            <v>86.345239623570365</v>
+            <v>85.426673244596216</v>
           </cell>
           <cell r="V3">
-            <v>92.132626630796395</v>
+            <v>100.42456302756808</v>
           </cell>
           <cell r="W3">
-            <v>103.62445882373049</v>
+            <v>87.313201416291434</v>
           </cell>
           <cell r="X3">
-            <v>90.330040203445591</v>
+            <v>91.224397037143063</v>
           </cell>
           <cell r="Y3">
-            <v>87.72415571877508</v>
+            <v>90.183711486591207</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>88.178228617200489</v>
+            <v>89.84196877978917</v>
           </cell>
           <cell r="C4">
-            <v>74.986827520198432</v>
+            <v>73.471942115749968</v>
           </cell>
           <cell r="D4">
-            <v>70.596108547962984</v>
+            <v>71.316477002534043</v>
           </cell>
           <cell r="E4">
-            <v>72.251216482290161</v>
+            <v>72.945939717696788</v>
           </cell>
           <cell r="F4">
-            <v>68.777600305256968</v>
+            <v>62.525091186597251</v>
           </cell>
           <cell r="G4">
-            <v>80.449076509968208</v>
+            <v>67.785795948213959</v>
           </cell>
           <cell r="H4">
-            <v>91.466947680755226</v>
+            <v>99.866973488171539</v>
           </cell>
           <cell r="I4">
             <v>103.36801153409151</v>
           </cell>
           <cell r="J4">
-            <v>109.08253199200091</v>
+            <v>131.85800570461649</v>
           </cell>
           <cell r="K4">
-            <v>112.66764213412111</v>
+            <v>117.36212722304283</v>
           </cell>
           <cell r="L4">
-            <v>121.99864183587977</v>
+            <v>111.44106706162093</v>
           </cell>
           <cell r="M4">
-            <v>127.5</v>
+            <v>116.25</v>
           </cell>
           <cell r="N4">
-            <v>130</v>
+            <v>135</v>
           </cell>
           <cell r="O4">
-            <v>121.25</v>
+            <v>120</v>
           </cell>
           <cell r="P4">
-            <v>106.85523181969026</v>
+            <v>130.60083889073255</v>
           </cell>
           <cell r="Q4">
-            <v>105.6562988264964</v>
+            <v>121.39234333257035</v>
           </cell>
           <cell r="R4">
-            <v>108.8949848986347</v>
+            <v>109.94205206112159</v>
           </cell>
           <cell r="S4">
-            <v>113.08325354858221</v>
+            <v>102.61258192371346</v>
           </cell>
           <cell r="T4">
-            <v>94.236044623818501</v>
+            <v>104.70671624868721</v>
           </cell>
           <cell r="U4">
-            <v>110.98911922360845</v>
+            <v>101.56551476122659</v>
           </cell>
           <cell r="V4">
-            <v>96.330178948792238</v>
+            <v>102.61258192371346</v>
           </cell>
           <cell r="W4">
-            <v>109.94205206112159</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="X4">
-            <v>95.896384470606463</v>
+            <v>97.915255722619236</v>
           </cell>
           <cell r="Y4">
-            <v>102.00450593617379</v>
+            <v>100.11553360402242</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>70.421461684202782</v>
+            <v>69.129324772566022</v>
           </cell>
           <cell r="C2">
             <v>58.011024197591738</v>
           </cell>
           <cell r="D2">
-            <v>55.931244385164135</v>
+            <v>57.544645665505406</v>
           </cell>
           <cell r="E2">
-            <v>55.719550855822412</v>
+            <v>47.387655400746162</v>
           </cell>
           <cell r="F2">
-            <v>52.443497731819363</v>
+            <v>50.235350458900655</v>
           </cell>
           <cell r="G2">
-            <v>53.091176480765199</v>
+            <v>46.012352949996504</v>
           </cell>
           <cell r="H2">
-            <v>62.266263000486646</v>
+            <v>56.336142714726009</v>
           </cell>
           <cell r="I2">
-            <v>68.141592224254055</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>69.787366781410611</v>
+            <v>79.867764205392135</v>
           </cell>
           <cell r="K2">
-            <v>78.229328368815843</v>
+            <v>79.061555266356436</v>
           </cell>
           <cell r="L2">
-            <v>90.180295618704804</v>
+            <v>79.015116161150885</v>
           </cell>
           <cell r="M2">
-            <v>81.138098950904904</v>
+            <v>92.479983750493759</v>
           </cell>
           <cell r="N2">
-            <v>83.620842226189495</v>
+            <v>85.400009082065864</v>
           </cell>
           <cell r="O2">
-            <v>95.965030330475543</v>
+            <v>93.274422003452855</v>
           </cell>
           <cell r="P2">
-            <v>85.5</v>
+            <v>81</v>
           </cell>
           <cell r="Q2">
-            <v>92.669566679031178</v>
+            <v>78.812435213007817</v>
           </cell>
           <cell r="R2">
-            <v>94.448958092039618</v>
+            <v>79.718386646492149</v>
           </cell>
           <cell r="S2">
-            <v>76.610380779543249</v>
+            <v>79.108545370180522</v>
           </cell>
           <cell r="T2">
-            <v>80.361883110247604</v>
+            <v>82.873191957442842</v>
           </cell>
           <cell r="U2">
-            <v>86.930493522057958</v>
+            <v>81.866581278054582</v>
           </cell>
           <cell r="V2">
-            <v>82.030668586237596</v>
+            <v>83.70476386350775</v>
           </cell>
           <cell r="W2">
-            <v>78.901927620975115</v>
+            <v>90.173631566828703</v>
           </cell>
           <cell r="X2">
-            <v>86.406656813738763</v>
+            <v>92.336525418603202</v>
           </cell>
           <cell r="Y2">
-            <v>73.438917897807613</v>
+            <v>77.224429129653373</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>74.386052142408033</v>
+            <v>78.761702268432046</v>
           </cell>
           <cell r="C3">
-            <v>66.920478209048355</v>
+            <v>60.957267279529205</v>
           </cell>
           <cell r="D3">
-            <v>66.402556840001239</v>
+            <v>70.959595054511141</v>
           </cell>
           <cell r="E3">
-            <v>59.090160590754998</v>
+            <v>70.128981800016916</v>
           </cell>
           <cell r="F3">
-            <v>62.341787357050904</v>
+            <v>67.536936303471819</v>
           </cell>
           <cell r="G3">
-            <v>68.870611085342162</v>
+            <v>61.146804234649579</v>
           </cell>
           <cell r="H3">
-            <v>76.436607274869445</v>
+            <v>68.09806829942913</v>
           </cell>
           <cell r="I3">
-            <v>83.324014702780005</v>
+            <v>75.074112256960206</v>
           </cell>
           <cell r="J3">
-            <v>103.42797250374252</v>
+            <v>101.54746391276539</v>
           </cell>
           <cell r="K3">
-            <v>105.63696586159863</v>
+            <v>91.099768724681368</v>
           </cell>
           <cell r="L3">
-            <v>96.893236172884571</v>
+            <v>100.73059206091961</v>
           </cell>
           <cell r="M3">
-            <v>98.646774254679698</v>
+            <v>105.55204845250728</v>
           </cell>
           <cell r="N3">
-            <v>105</v>
+            <v>103</v>
           </cell>
           <cell r="O3">
-            <v>96.187183596383804</v>
+            <v>90.298172355788878</v>
           </cell>
           <cell r="P3">
-            <v>100.91699466696618</v>
+            <v>87.712901906802372</v>
           </cell>
           <cell r="Q3">
-            <v>86.898176958338553</v>
+            <v>88.708555644970616</v>
           </cell>
           <cell r="R3">
-            <v>97.624084658982781</v>
+            <v>93.019175005257182</v>
           </cell>
           <cell r="S3">
-            <v>100.4487482330199</v>
+            <v>92.078019213601564</v>
           </cell>
           <cell r="T3">
-            <v>87.798711947414176</v>
+            <v>91.534827349431808</v>
           </cell>
           <cell r="U3">
-            <v>82.670974107673757</v>
+            <v>85.426673244596216</v>
           </cell>
           <cell r="V3">
-            <v>89.368647831872494</v>
+            <v>96.739257962336225</v>
           </cell>
           <cell r="W3">
-            <v>91.151144335688855</v>
+            <v>86.353715686442072</v>
           </cell>
           <cell r="X3">
-            <v>81.386471866470785</v>
+            <v>83.175185533865744</v>
           </cell>
           <cell r="Y3">
-            <v>74.606524957089093</v>
+            <v>77.885932647510586</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>85.682618373317453</v>
+            <v>77.363917560374006</v>
           </cell>
           <cell r="C4">
-            <v>79.531483733543794</v>
+            <v>71.957056711301519</v>
           </cell>
           <cell r="D4">
-            <v>66.273897820536689</v>
+            <v>79.240530002815603</v>
           </cell>
           <cell r="E4">
-            <v>76.419555894729982</v>
+            <v>72.251216482290161</v>
           </cell>
           <cell r="F4">
-            <v>71.55649324688352</v>
+            <v>69.472323540663609</v>
           </cell>
           <cell r="G4">
-            <v>78.959278796820655</v>
+            <v>68.530694804787728</v>
           </cell>
           <cell r="H4">
-            <v>86.800266676635076</v>
+            <v>84.933594274987001</v>
           </cell>
           <cell r="I4">
-            <v>105.66507845707133</v>
+            <v>112.55627922601076</v>
           </cell>
           <cell r="J4">
-            <v>124.66575084800104</v>
+            <v>112.67865942030862</v>
           </cell>
           <cell r="K4">
-            <v>119.70936976750369</v>
+            <v>122.05661231196456</v>
           </cell>
           <cell r="L4">
-            <v>125.51783342729938</v>
+            <v>106.7488116063948</v>
           </cell>
           <cell r="M4">
-            <v>117.5</v>
+            <v>112.5</v>
           </cell>
           <cell r="N4">
-            <v>131.25</v>
+            <v>127.5</v>
           </cell>
           <cell r="O4">
-            <v>130</v>
+            <v>120</v>
           </cell>
           <cell r="P4">
-            <v>122.28987641586775</v>
+            <v>129.41355853718045</v>
           </cell>
           <cell r="Q4">
-            <v>120.26834015356506</v>
+            <v>114.64832425853866</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>97.377246111279121</v>
           </cell>
           <cell r="S4">
-            <v>112.03618638609532</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="T4">
-            <v>105.75378341117408</v>
+            <v>108.8949848986347</v>
           </cell>
           <cell r="U4">
-            <v>114.13032071106907</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="V4">
-            <v>97.377246111279121</v>
+            <v>103.65964908620035</v>
           </cell>
           <cell r="W4">
-            <v>99.471380436252844</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="X4">
-            <v>90.849206340574554</v>
+            <v>92.868077592587326</v>
           </cell>
           <cell r="Y4">
-            <v>101.06001977009809</v>
+            <v>91.615158109341266</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>13.080431516400919</v>
+            <v>13.849868664424504</v>
           </cell>
           <cell r="C2">
-            <v>9.6291199216575318</v>
+            <v>9.0395819672703368</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>8.8456956957665511</v>
           </cell>
           <cell r="E2">
-            <v>8.0508883066686785</v>
+            <v>7.4816335779143275</v>
           </cell>
           <cell r="F2">
-            <v>9.1745480002675723</v>
+            <v>9.5490193472172695</v>
           </cell>
           <cell r="G2">
-            <v>4.0842519685488439</v>
+            <v>4.5187468588199975</v>
           </cell>
           <cell r="H2">
-            <v>8.2632039978382394</v>
+            <v>7.5809210989341649</v>
           </cell>
           <cell r="I2">
-            <v>15.587370087262485</v>
+            <v>14.713311951528139</v>
           </cell>
           <cell r="J2">
-            <v>21.191462776499023</v>
+            <v>20.343804265439061</v>
           </cell>
           <cell r="K2">
-            <v>26.692232986483276</v>
+            <v>27.699487061444909</v>
           </cell>
           <cell r="L2">
-            <v>29.414605104538332</v>
+            <v>25.565965184318362</v>
           </cell>
           <cell r="M2">
-            <v>26.214411163641351</v>
+            <v>29.633682184985876</v>
           </cell>
           <cell r="N2">
-            <v>30.370220952287916</v>
+            <v>26.797253781430513</v>
           </cell>
           <cell r="O2">
-            <v>27.900000000000002</v>
+            <v>28.799999999999997</v>
           </cell>
           <cell r="P2">
             <v>28.297707575904976</v>
           </cell>
           <cell r="Q2">
-            <v>29.371401827683549</v>
+            <v>28.507537068045796</v>
           </cell>
           <cell r="R2">
-            <v>30.143854799065242</v>
+            <v>27.951574450042312</v>
           </cell>
           <cell r="S2">
-            <v>23.831174073352976</v>
+            <v>21.885772108181303</v>
           </cell>
           <cell r="T2">
-            <v>22.994767963354381</v>
+            <v>25.657320043321736</v>
           </cell>
           <cell r="U2">
-            <v>21.644702762152292</v>
+            <v>22.796016738862523</v>
           </cell>
           <cell r="V2">
-            <v>19.718052131480995</v>
+            <v>21.586078122884459</v>
           </cell>
           <cell r="W2">
-            <v>25.628670071555877</v>
+            <v>25.131025992496539</v>
           </cell>
           <cell r="X2">
-            <v>22.295360429205871</v>
+            <v>22.741267637789988</v>
           </cell>
           <cell r="Y2">
-            <v>19.198377044260045</v>
+            <v>19.37780112878584</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.675724829047194</v>
+            <v>-22.211247004570051</v>
           </cell>
           <cell r="C3">
-            <v>-33.002683923603286</v>
+            <v>-31.733349926541621</v>
           </cell>
           <cell r="D3">
-            <v>-36.375326717286569</v>
+            <v>-32.178173634522736</v>
           </cell>
           <cell r="E3">
-            <v>-29.683446118076031</v>
+            <v>-30.960153477993277</v>
           </cell>
           <cell r="F3">
-            <v>-35.579921540699196</v>
+            <v>-31.132431348111798</v>
           </cell>
           <cell r="G3">
-            <v>-33.6</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="H3">
-            <v>-32.154209579280376</v>
+            <v>-29.727476780844121</v>
           </cell>
           <cell r="I3">
-            <v>-4.5777343692523207</v>
+            <v>-4.6249275070796649</v>
           </cell>
           <cell r="J3">
-            <v>13.633784980259477</v>
+            <v>16.512028476092034</v>
           </cell>
           <cell r="K3">
-            <v>22.935629409547531</v>
+            <v>24.258838798559889</v>
           </cell>
           <cell r="L3">
-            <v>18.896255942231068</v>
+            <v>18.376175503454068</v>
           </cell>
           <cell r="M3">
-            <v>21.013763201257479</v>
+            <v>21.93744510021385</v>
           </cell>
           <cell r="N3">
-            <v>18.64803111206465</v>
+            <v>20.287418462575825</v>
           </cell>
           <cell r="O3">
-            <v>21.109341408044209</v>
+            <v>19.842780923561556</v>
           </cell>
           <cell r="P3">
-            <v>10.455979658368168</v>
+            <v>10.3470632035935</v>
           </cell>
           <cell r="Q3">
-            <v>2.8912168113593277</v>
+            <v>2.5883274311216837</v>
           </cell>
           <cell r="R3">
-            <v>6.1867842128164199</v>
+            <v>6.1255289235806138</v>
           </cell>
           <cell r="S3">
-            <v>7.5148037358652813</v>
+            <v>7.3659957410956709</v>
           </cell>
           <cell r="T3">
-            <v>4.2136070029193373</v>
+            <v>4.4377350349895144</v>
           </cell>
           <cell r="U3">
-            <v>-0.83620585243776402</v>
+            <v>-0.78603350129149818</v>
           </cell>
           <cell r="V3">
             <v>-3.3297015915532708</v>
           </cell>
           <cell r="W3">
-            <v>-2.0894459722325776</v>
+            <v>-2.452827880446939</v>
           </cell>
           <cell r="X3">
-            <v>-11.980967005802917</v>
+            <v>-11.000706068964496</v>
           </cell>
           <cell r="Y3">
-            <v>-13.416059138286169</v>
+            <v>-15.774926679083737</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-34.420620107858348</v>
+            <v>-40.094348697065769</v>
           </cell>
           <cell r="C4">
-            <v>-34.420620107858348</v>
+            <v>-39.716100124451934</v>
           </cell>
           <cell r="D4">
-            <v>-45.229801489612136</v>
+            <v>-46.108050062225963</v>
           </cell>
           <cell r="E4">
+            <v>-52.5</v>
+          </cell>
+          <cell r="F4">
+            <v>-51</v>
+          </cell>
+          <cell r="G4">
             <v>-53</v>
-          </cell>
-          <cell r="F4">
-            <v>-46.5</v>
-          </cell>
-          <cell r="G4">
-            <v>-55.000000000000007</v>
           </cell>
           <cell r="H4">
             <v>-21.13298315662022</v>
           </cell>
           <cell r="I4">
-            <v>4.421821968909363</v>
+            <v>3.9259167013681258</v>
           </cell>
           <cell r="J4">
-            <v>13.385902192807253</v>
+            <v>11.942324505347646</v>
           </cell>
           <cell r="K4">
-            <v>12.860964851912849</v>
+            <v>12.073558840571247</v>
           </cell>
           <cell r="L4">
-            <v>10.919593652363849</v>
+            <v>11.519571325570652</v>
           </cell>
           <cell r="M4">
             <v>15.351323602826358</v>
           </cell>
           <cell r="N4">
-            <v>24.235309308405526</v>
+            <v>20.577149412797144</v>
           </cell>
           <cell r="O4">
-            <v>24.272915130419349</v>
+            <v>24.979893241014086</v>
           </cell>
           <cell r="P4">
-            <v>13.877935913823569</v>
+            <v>13.481423459142894</v>
           </cell>
           <cell r="Q4">
-            <v>9.282387161774464</v>
+            <v>9.6949377022977714</v>
           </cell>
           <cell r="R4">
-            <v>-1.7577656607223706</v>
+            <v>-1.7242844100419445</v>
           </cell>
           <cell r="S4">
-            <v>-1.6573219086810922</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="T4">
-            <v>-1.5736187819800269</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="U4">
-            <v>-1.6238406580006661</v>
+            <v>-1.6405812833408793</v>
           </cell>
           <cell r="V4">
-            <v>-10.345013339462946</v>
+            <v>-10.984911071800861</v>
           </cell>
           <cell r="W4">
-            <v>-14.754883063862271</v>
+            <v>-13.388690187578726</v>
           </cell>
           <cell r="X4">
-            <v>-38.199450462699041</v>
+            <v>-35.525488930310111</v>
           </cell>
           <cell r="Y4">
-            <v>-37.435461453445058</v>
+            <v>-39.345433976580011</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>14.106347713765699</v>
+            <v>13.978108189095101</v>
           </cell>
           <cell r="C2">
-            <v>10.218657876044729</v>
+            <v>9.8256325731199308</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>8.8456956957665511</v>
           </cell>
           <cell r="E2">
-            <v>8.2135325148842071</v>
+            <v>8.1322104107764428</v>
           </cell>
           <cell r="F2">
-            <v>9.080930163530148</v>
+            <v>9.4554015104798452</v>
           </cell>
           <cell r="G2">
-            <v>4.0842519685488439</v>
+            <v>4.3449489027115362</v>
           </cell>
           <cell r="H2">
-            <v>8.1115855758595572</v>
+            <v>7.884157942891532</v>
           </cell>
           <cell r="I2">
-            <v>15.73304644321821</v>
+            <v>13.984930171749518</v>
           </cell>
           <cell r="J2">
             <v>19.708060382144094</v>
           </cell>
           <cell r="K2">
-            <v>26.188605949002458</v>
+            <v>25.181351874040825</v>
           </cell>
           <cell r="L2">
-            <v>28.589896550205481</v>
+            <v>29.964410807426898</v>
           </cell>
           <cell r="M2">
-            <v>27.354168170756193</v>
+            <v>30.203560688543298</v>
           </cell>
           <cell r="N2">
-            <v>32.752199066192851</v>
+            <v>27.690495574144865</v>
           </cell>
           <cell r="O2">
-            <v>27.900000000000002</v>
+            <v>29.099999999999998</v>
           </cell>
           <cell r="P2">
-            <v>32.467896060775182</v>
+            <v>28.893448788029289</v>
           </cell>
           <cell r="Q2">
-            <v>30.523221507200549</v>
+            <v>29.947311667442051</v>
           </cell>
           <cell r="R2">
-            <v>28.225609493670181</v>
+            <v>29.047714624553777</v>
           </cell>
           <cell r="S2">
-            <v>23.831174073352976</v>
+            <v>26.262926529817566</v>
           </cell>
           <cell r="T2">
-            <v>26.625520799673499</v>
+            <v>24.93116947605791</v>
           </cell>
           <cell r="U2">
             <v>23.717067920230708</v>
           </cell>
           <cell r="V2">
-            <v>20.133169018459544</v>
+            <v>19.925610574970271</v>
           </cell>
           <cell r="W2">
-            <v>26.623958229674553</v>
+            <v>24.633381913437205</v>
           </cell>
           <cell r="X2">
-            <v>24.524896472126461</v>
+            <v>21.403546012037637</v>
           </cell>
           <cell r="Y2">
             <v>16.507015776373123</v>
@@ -3466,374 +3466,374 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.62836192835006</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
-            <v>-28.877348433152875</v>
+            <v>-29.512015431683707</v>
           </cell>
           <cell r="D3">
-            <v>-35.675801203492597</v>
+            <v>-31.478648120728764</v>
           </cell>
           <cell r="E3">
-            <v>-34.790275557745026</v>
+            <v>-34.471098717765713</v>
           </cell>
           <cell r="F3">
-            <v>-35.579921540699196</v>
+            <v>-36.948380061495321</v>
           </cell>
           <cell r="G3">
-            <v>-34.65</v>
+            <v>-38.5</v>
           </cell>
           <cell r="H3">
-            <v>-33.064234378693975</v>
+            <v>-31.547526379671314</v>
           </cell>
           <cell r="I3">
-            <v>-4.483348093597634</v>
+            <v>-4.2945755422882606</v>
           </cell>
           <cell r="J3">
-            <v>15.90608247696939</v>
+            <v>16.209055476530711</v>
           </cell>
           <cell r="K3">
-            <v>23.376699205884982</v>
+            <v>21.612420020535172</v>
           </cell>
           <cell r="L3">
-            <v>18.029455210936067</v>
+            <v>16.122493602087058</v>
           </cell>
           <cell r="M3">
-            <v>24.015729372865692</v>
+            <v>20.782842726518385</v>
           </cell>
           <cell r="N3">
-            <v>21.926805813087004</v>
+            <v>22.541576069528698</v>
           </cell>
           <cell r="O3">
-            <v>19.842780923561556</v>
+            <v>20.687154579883323</v>
           </cell>
           <cell r="P3">
-            <v>9.9113973844948262</v>
+            <v>11.76297711566419</v>
           </cell>
           <cell r="Q3">
-            <v>2.7260044221387947</v>
+            <v>3.0013584041730166</v>
           </cell>
           <cell r="R3">
-            <v>6.1255289235806138</v>
+            <v>6.4318053697596449</v>
           </cell>
           <cell r="S3">
-            <v>7.5892077332500856</v>
+            <v>6.8451677594020381</v>
           </cell>
           <cell r="T3">
-            <v>4.2584326093333722</v>
+            <v>4.3929094285754795</v>
           </cell>
           <cell r="U3">
-            <v>-0.82784379391338636</v>
+            <v>-0.88637820358402986</v>
           </cell>
           <cell r="V3">
-            <v>-3.1011926587996146</v>
+            <v>-3.4929222578058825</v>
           </cell>
           <cell r="W3">
-            <v>-2.2257141878129629</v>
+            <v>-2.339271034129951</v>
           </cell>
           <cell r="X3">
-            <v>-11.654213360190111</v>
+            <v>-10.565034541480752</v>
           </cell>
           <cell r="Y3">
-            <v>-15.627497457783889</v>
+            <v>-13.710917580885864</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-41.607342987521079</v>
+            <v>-35.933614398313658</v>
           </cell>
           <cell r="C4">
-            <v>-34.798868680472175</v>
+            <v>-34.420620107858348</v>
           </cell>
           <cell r="D4">
-            <v>-39.521185767622256</v>
+            <v>-43.034180058077567</v>
           </cell>
           <cell r="E4">
-            <v>-54</v>
+            <v>-47</v>
           </cell>
           <cell r="F4">
-            <v>-49.5</v>
+            <v>-52</v>
           </cell>
           <cell r="G4">
             <v>-53.5</v>
           </cell>
           <cell r="H4">
-            <v>-21.531718687877206</v>
+            <v>-19.73740879722077</v>
           </cell>
           <cell r="I4">
-            <v>4.0912184572152048</v>
+            <v>4.0085675792916655</v>
           </cell>
           <cell r="J4">
-            <v>12.204793175794848</v>
+            <v>14.042073868925256</v>
           </cell>
           <cell r="K4">
-            <v>12.598496181465649</v>
+            <v>12.467261846242048</v>
           </cell>
           <cell r="L4">
-            <v>11.039589187005211</v>
+            <v>11.399575790929292</v>
           </cell>
           <cell r="M4">
-            <v>16.363498785430291</v>
+            <v>17.375673968034231</v>
           </cell>
           <cell r="N4">
-            <v>22.634864354076857</v>
+            <v>21.720324380174759</v>
           </cell>
           <cell r="O4">
-            <v>22.623299539031624</v>
+            <v>25.215552611212335</v>
           </cell>
           <cell r="P4">
-            <v>13.613594277369785</v>
+            <v>12.820569368008439</v>
           </cell>
           <cell r="Q4">
-            <v>9.4886624320361186</v>
+            <v>10.004350607690254</v>
           </cell>
           <cell r="R4">
-            <v>-1.6238406580006661</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="S4">
-            <v>-1.8079875367430098</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="T4">
+            <v>-1.7912469114027969</v>
+          </cell>
+          <cell r="U4">
             <v>-1.556878156639814</v>
           </cell>
-          <cell r="U4">
-            <v>-1.7242844100419445</v>
-          </cell>
           <cell r="V4">
-            <v>-10.025064473293989</v>
+            <v>-9.8117652291813524</v>
           </cell>
           <cell r="W4">
-            <v>-14.481644488605562</v>
+            <v>-13.79854805046379</v>
           </cell>
           <cell r="X4">
-            <v>-39.345433976580011</v>
+            <v>-34.37950541642914</v>
           </cell>
           <cell r="Y4">
-            <v>-40.491417490460982</v>
+            <v>-36.289477939564087</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>12.56747341771853</v>
+            <v>12.823952467059724</v>
           </cell>
           <cell r="C2">
-            <v>10.808195830431925</v>
+            <v>10.02214522458233</v>
           </cell>
           <cell r="D2">
-            <v>10.149271903563729</v>
+            <v>9.3112586271226867</v>
           </cell>
           <cell r="E2">
-            <v>8.1322104107764428</v>
+            <v>8.3761767230997357</v>
           </cell>
           <cell r="F2">
-            <v>9.7362550206921181</v>
+            <v>9.6426371839546938</v>
           </cell>
           <cell r="G2">
-            <v>3.9973529904946137</v>
+            <v>4.1277014575759594</v>
           </cell>
           <cell r="H2">
-            <v>8.0357763648702143</v>
+            <v>8.2632039978382394</v>
           </cell>
           <cell r="I2">
-            <v>13.256548391970899</v>
+            <v>13.547901103882348</v>
           </cell>
           <cell r="J2">
             <v>20.979548148734033</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>23.166843724117559</v>
           </cell>
           <cell r="L2">
-            <v>27.490285144428345</v>
+            <v>27.76518799587263</v>
           </cell>
           <cell r="M2">
-            <v>28.208985926092325</v>
+            <v>27.354168170756193</v>
           </cell>
           <cell r="N2">
-            <v>26.797253781430513</v>
+            <v>28.881484631097329</v>
           </cell>
           <cell r="O2">
-            <v>31.5</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="P2">
-            <v>27.106225151656346</v>
+            <v>29.489190000153606</v>
           </cell>
           <cell r="Q2">
-            <v>27.931627228287294</v>
+            <v>27.067762468649544</v>
           </cell>
           <cell r="R2">
-            <v>27.677539406414446</v>
+            <v>29.869819755437376</v>
           </cell>
           <cell r="S2">
             <v>23.587998827706517</v>
           </cell>
           <cell r="T2">
-            <v>25.899370232409677</v>
+            <v>22.994767963354381</v>
           </cell>
           <cell r="U2">
-            <v>22.105228352836384</v>
+            <v>24.407856306256846</v>
           </cell>
           <cell r="V2">
-            <v>20.133169018459544</v>
+            <v>19.30293524450245</v>
           </cell>
           <cell r="W2">
-            <v>24.882203952966872</v>
+            <v>24.633381913437205</v>
           </cell>
           <cell r="X2">
-            <v>21.403546012037637</v>
+            <v>24.078989263542343</v>
           </cell>
           <cell r="Y2">
-            <v>16.148167607321533</v>
+            <v>19.557225213311636</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-22.699406279395767</v>
+            <v>-24.896123016111485</v>
           </cell>
           <cell r="C3">
-            <v>-33.002683923603286</v>
+            <v>-29.512015431683707</v>
           </cell>
           <cell r="D3">
-            <v>-35.326038446595611</v>
+            <v>-35.675801203492597</v>
           </cell>
           <cell r="E3">
-            <v>-29.683446118076031</v>
+            <v>-30.002622958055341</v>
           </cell>
           <cell r="F3">
-            <v>-30.790316717912766</v>
+            <v>-35.922036170898224</v>
           </cell>
           <cell r="G3">
-            <v>-38.150000000000006</v>
+            <v>-33.949999999999996</v>
           </cell>
           <cell r="H3">
-            <v>-28.210768781821464</v>
+            <v>-27.300743982407869</v>
           </cell>
           <cell r="I3">
-            <v>-4.5777343692523207</v>
+            <v>-5.191245161007787</v>
           </cell>
           <cell r="J3">
-            <v>15.603109477408069</v>
+            <v>13.785271480040139</v>
           </cell>
           <cell r="K3">
-            <v>21.391885122366446</v>
+            <v>23.597234104053708</v>
           </cell>
           <cell r="L3">
-            <v>17.509374772159063</v>
+            <v>16.989294333382063</v>
           </cell>
           <cell r="M3">
-            <v>23.092047473909318</v>
+            <v>21.93744510021385</v>
           </cell>
           <cell r="N3">
-            <v>19.672648206134134</v>
+            <v>22.541576069528698</v>
           </cell>
           <cell r="O3">
-            <v>20.687154579883323</v>
+            <v>21.109341408044209</v>
           </cell>
           <cell r="P3">
-            <v>10.782729022692173</v>
+            <v>11.00056193224151</v>
           </cell>
           <cell r="Q3">
-            <v>2.7810752185456389</v>
+            <v>2.67093362573195</v>
           </cell>
           <cell r="R3">
-            <v>5.7579971881657768</v>
+            <v>6.615571237467063</v>
           </cell>
           <cell r="S3">
-            <v>6.9195717567868433</v>
+            <v>6.9939757541716467</v>
           </cell>
           <cell r="T3">
-            <v>4.3480838221614437</v>
+            <v>4.9308167055439052</v>
           </cell>
           <cell r="U3">
-            <v>-0.88637820358402986</v>
+            <v>-0.75258526719398766</v>
           </cell>
           <cell r="V3">
-            <v>-2.9706161257975259</v>
+            <v>-3.3297015915532708</v>
           </cell>
           <cell r="W3">
-            <v>-2.3619824033933483</v>
+            <v>-2.15758008002277</v>
           </cell>
           <cell r="X3">
-            <v>-10.782870305222625</v>
+            <v>-11.763131242061046</v>
           </cell>
           <cell r="Y3">
-            <v>-16.069785121683434</v>
+            <v>-13.858346802185711</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.446608688768968</v>
+            <v>-39.337851551838106</v>
           </cell>
           <cell r="C4">
-            <v>-34.420620107858348</v>
+            <v>-34.04237153524452</v>
           </cell>
           <cell r="D4">
-            <v>-40.399434340236084</v>
+            <v>-43.473304344384481</v>
           </cell>
           <cell r="E4">
-            <v>-48.5</v>
+            <v>-47.5</v>
           </cell>
           <cell r="F4">
-            <v>-45.5</v>
+            <v>-51.5</v>
           </cell>
           <cell r="G4">
-            <v>-53</v>
+            <v>-46.5</v>
           </cell>
           <cell r="H4">
-            <v>-18.142466672192832</v>
+            <v>-21.531718687877206</v>
           </cell>
           <cell r="I4">
             <v>4.1738693351387441</v>
           </cell>
           <cell r="J4">
-            <v>13.385902192807253</v>
+            <v>13.779605198478054</v>
           </cell>
           <cell r="K4">
-            <v>12.598496181465649</v>
+            <v>12.72973051668925</v>
           </cell>
           <cell r="L4">
-            <v>12.239544533418819</v>
+            <v>12.719526671984264</v>
           </cell>
           <cell r="M4">
-            <v>18.219153286870842</v>
+            <v>17.713065695568876</v>
           </cell>
           <cell r="N4">
-            <v>22.17759436712581</v>
+            <v>25.149849282307621</v>
           </cell>
           <cell r="O4">
-            <v>21.916321428436888</v>
+            <v>22.151980798635133</v>
           </cell>
           <cell r="P4">
-            <v>14.274448368504242</v>
+            <v>11.895373640420202</v>
           </cell>
           <cell r="Q4">
             <v>10.932589323867703</v>
           </cell>
           <cell r="R4">
-            <v>-1.5233969059593879</v>
+            <v>-1.5401375312996011</v>
           </cell>
           <cell r="S4">
-            <v>-1.7577656607223706</v>
+            <v>-1.6908031593615185</v>
           </cell>
           <cell r="T4">
-            <v>-1.6908031593615185</v>
+            <v>-1.7410250353821577</v>
           </cell>
           <cell r="U4">
-            <v>-1.8079875367430098</v>
+            <v>-1.5903594073202401</v>
           </cell>
           <cell r="V4">
-            <v>-10.984911071800861</v>
+            <v>-9.9184148512376709</v>
           </cell>
           <cell r="W4">
-            <v>-14.481644488605562</v>
+            <v>-13.935167338092144</v>
           </cell>
           <cell r="X4">
-            <v>-38.963439471953023</v>
+            <v>-35.143494425683116</v>
           </cell>
           <cell r="Y4">
-            <v>-41.63740100434196</v>
+            <v>-38.581444967326028</v>
           </cell>
         </row>
       </sheetData>
@@ -4336,7 +4336,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4512,100 +4512,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>12.452970902561264</v>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <v>11.727555121829539</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>9.6058796699142572</v>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <v>9.326096766907046</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>7.5045991364469469</v>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <v>7.3449268143948849</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>8.3593738487806384</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>7.9914418155919424</v>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <v>8.8793797951021585</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>9.9224761836604394</v>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <v>11.576222214270514</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>16.421123333261011</v>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <v>18.302710381863839</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>19.002932363064311</v>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <v>18.794108930503167</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>25.815451094709267</v>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <v>25.332919298546482</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>26.036458675531108</v>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <v>25.239424226280157</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>25.988266152214962</v>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <v>24.112824264941718</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>25.259159260493544</v>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <v>26.311624229680774</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>23.781315665867243</v>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <v>26.952157754649544</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>24.846343292912792</v>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <v>25.369424204342536</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>23.122088678436974</v>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <v>25.481485482359112</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>22.192224385923463</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>21.283078423948584</v>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <v>22.671105277684358</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>28.69257436773</v>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <v>33.106816578149996</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>30.854838487377577</v>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <v>28.650921452564898</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>30.523769326500627</v>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <v>30.218531633235621</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>26.840319922879676</v>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <v>27.405379289677139</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>23.618727570007852</v>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <v>26.131358162561881</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>19.878791062199227</v>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <v>21.928150965518739</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>16.823116156427552</v>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <v>16.665890771788042</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4613,100 +4613,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-29.96875583077119</v>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <v>-27.828130414287536</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-35.563221149667335</v>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <v>-31.24245596325915</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-32.220420748560088</v>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <v>-37.232486198336098</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-36.96144324341541</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-39.728179893780002</v>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <v>-33.474670095684999</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-35.693017406350947</v>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <v>-30.453675401748974</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-22.434558939255755</v>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <v>-24.141536249851299</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-9.8367615597181857</v>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <v>-10.639762503368649</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.9855493914987639</v>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <v>-2.6899504418454212</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.43004629191236687</v>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <v>-0.41617383088293569</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-4.0267625073708597</v>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <v>-3.8191974296713318</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-3.2655932282623428</v>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <v>-3.2045541025004298</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-4.3932957990982704</v>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <v>-4.5200254856107218</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-4.0056826655554785</v>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <v>-4.1335236016902277</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-10.557392910299114</v>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <v>-10.772849908468483</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-15.824891956529674</v>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <v>-16.600621954398775</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-13.659429097920478</v>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <v>-12.55563684758347</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.9923686612150506</v>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <v>-4.8039773909805206</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-6.1659392546728666</v>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <v>-6.4399809993249937</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-8.0953638943253434</v>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <v>-9.2149354967320409</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-14.069188683435902</v>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <v>-13.933908023018247</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-18.789529846103505</v>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <v>-16.155483605995538</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-25.915496120493746</v>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <v>-25.679900701216528</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-24.927172467576586</v>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <v>-28.374547383305266</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4714,100 +4714,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>38.605301054004933</v>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <v>46.241514449302613</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <v>52.550502504999997</v>
+      </c>
+      <c r="D4" s="2">
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <v>48.346462304599996</v>
+      </c>
+      <c r="E4" s="2">
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>56.754542705399999</v>
       </c>
-      <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>55.178027630249993</v>
-      </c>
-      <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>55.178027630249993</v>
-      </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>52.550502504999997</v>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <v>55.703532655299995</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>43.856591314262459</v>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <v>42.579214868215978</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>20.664778536350749</v>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <v>21.05103607908628</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.6852393773462317</v>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <v>2.3122894638259219</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>-14.838890836670696</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-15.27532880245513</v>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <v>-15.129849480526985</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-1.3155261109574912</v>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <v>-1.1902379099139204</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>-13.65404459315689</v>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <v>-15.778007085425738</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-16.081430298607003</v>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <v>-14.716025839291312</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-12.917879372669773</v>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <v>-10.804044566232902</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.4752310808438258</v>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <v>-1.372987342567521</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>9.6162455402050497</v>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <v>9.5280231040563788</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <v>13.229855745115218</v>
+      </c>
+      <c r="S4" s="2">
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>11.637373109129125</v>
       </c>
-      <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+      <c r="T4" s="2">
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <v>12.127367766355615</v>
+      </c>
+      <c r="U4" s="2">
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <v>11.637373109129125</v>
+      </c>
+      <c r="V4" s="2">
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>11.759871773435748</v>
       </c>
-      <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>12.494863759275482</v>
-      </c>
-      <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>11.024879787596014</v>
-      </c>
-      <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>13.352354409421839</v>
-      </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>26.055814825998265</v>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <v>26.822162320880565</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>40.609617880559902</v>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <v>35.533415645489917</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>35.923892740495305</v>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <v>39.828663690549135</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5659,100 +5659,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>12.452970902561264</v>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <v>12.694776162805173</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>8.6732699932235544</v>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <v>9.326096766907046</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>7.7441076195250416</v>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <v>8.6223053908113876</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>7.890623913334994</v>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <v>7.5781239563712317</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>9.7673177746123763</v>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <v>9.4121425828082899</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>11.355722743522502</v>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <v>11.135223272774493</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>17.61849690964463</v>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <v>17.276390173535024</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>22.970577581726094</v>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <v>19.002932363064311</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>24.367855706220901</v>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <v>22.678994419651129</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>26.567814975031744</v>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <v>26.30213682528143</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>28.131628309098669</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>28.416554168055239</v>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <v>28.153437925758432</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>25.102499869526532</v>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <v>24.838263028794675</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>24.323262381483051</v>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <v>23.800181470053307</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>24.301787080398043</v>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <v>25.009606121574684</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>23.313043799353942</v>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <v>22.86471603398175</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>23.365118704552248</v>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <v>25.447158985155916</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>34.052725623240001</v>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <v>33.42211959318</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>32.429064940815209</v>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <v>33.05875552219026</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>29.302818553440602</v>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <v>32.660433179355671</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>30.795735490461947</v>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <v>27.687908973075874</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>22.864938392241648</v>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <v>26.633884281072685</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>22.542958936514594</v>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <v>19.059047100871428</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>14.936411540753433</v>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <v>14.307510002195395</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5760,100 +5760,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-27.828130414287536</v>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <v>-31.497773985402375</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-34.566121491265449</v>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <v>-35.563221149667335</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-39.022509573256109</v>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <v>-37.232486198336098</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-35.184450779789664</v>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <v>-37.672240228865704</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-36.049644718429995</v>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <v>-36.417498235964999</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-31.763510902899462</v>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <v>-35.038099655775703</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-22.678412840769404</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-10.439012267456034</v>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <v>-9.6360113238055689</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-2.8968697066027609</v>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <v>-3.1924686562561044</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.49940859705952284</v>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <v>-0.45779121397122924</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-4.4003796472300127</v>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <v>-4.3173536161502009</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.8077997850479952</v>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <v>-2.9298780365718211</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-4.3510525702607872</v>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <v>-3.9286202818859541</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-4.6448873462292246</v>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <v>-4.6022737008509758</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-10.88057840755317</v>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <v>-10.341935912129744</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-16.600621954398775</v>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <v>-15.669745956955854</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-14.763221348257488</v>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <v>-14.073351191796858</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.8981730260977852</v>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <v>-4.8510752085391529</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-7.5361479779335045</v>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <v>-6.8510436163031851</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-9.1288146042392171</v>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <v>-7.7508803243540525</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-12.310540098006415</v>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <v>-12.851662739677023</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-16.506689771343265</v>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <v>-18.613926763429639</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-24.030732766276021</v>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <v>-24.501923604830449</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-27.313816640004134</v>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <v>-27.578999325829415</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5861,100 +5861,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>41.999173674137232</v>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <v>39.453769209038008</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>54.127017580149996</v>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <v>56.229037680349997</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>56.754542705399999</v>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <v>55.703532655299995</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <v>55.703532655299995</v>
+      </c>
+      <c r="F4" s="2">
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>57.805552755500003</v>
       </c>
-      <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>49.3974723547</v>
-      </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>46.837136355037572</v>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <v>43.005007016898141</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>19.119748365408636</v>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <v>21.05103607908628</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>2.4366061016660252</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-15.711766768239562</v>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <v>-13.093138973532968</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-13.675056261245544</v>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <v>-15.129849480526985</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-1.2152955501226346</v>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <v>-1.2654108305400631</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-14.56431423270068</v>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <v>-14.260891019519415</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-15.626295478835104</v>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <v>-16.384853511788265</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-10.56917403218436</v>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <v>-11.156350367305711</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.372987342567521</v>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <v>-1.3437748459171484</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>8.9104660510156872</v>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <v>8.4693538702723359</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>11.024879787596014</v>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <v>12.004869102048993</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>12.617362423582104</v>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <v>12.739861087888727</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>12.37236509496886</v>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <v>11.392375780515881</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>11.024879787596014</v>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <v>11.88237043774237</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>11.024879787596014</v>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <v>12.984858416501972</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>24.267670671272892</v>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <v>26.5667131559198</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>40.219140785554522</v>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <v>42.562003355586825</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>37.485801120516832</v>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <v>37.87627821552222</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -13884,100 +13884,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>70.808968528152192</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>66.468564497653304</v>
+        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>57.502363108202822</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>60.406347622423809</v>
+        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>62.102048582906697</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>55.138886311776659</v>
+        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>52.402353230630524</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.17630493044642</v>
+        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>55.954538734584858</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>54.266147080055831</v>
+        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>50.014767266500257</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>60.637539963817666</v>
+        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>66.87015598245398</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>70.635100738890699</v>
+        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>76.422373325355935</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>81.090356343005169</v>
+        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>85.980171266823675</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>93.311359909042991</v>
+        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>79.316498576583669</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>89.715023572605006</v>
+        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>83.396330438188514</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>83.881210073110196</v>
+        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>98.552514579503196</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>95.129162989209718</v>
+        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>89.519396250217056</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>95.548079846286072</v>
+        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>99.318555036397527</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>87.449981039189993</v>
+        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>99.74679862536</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>96.015402495258684</v>
+        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>85.092414167998072</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>94.559593715888582</v>
+        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>83.631138210251095</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>96.938697842482327</v>
+        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>86.436313476227369</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>94.164103011189141</v>
+        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>96.80351384849638</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>91.114029833123851</v>
+        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>98.210326714819857</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>89.820475150411895</v>
+        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.738184475973355</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>96.281829566547259</v>
+        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>83.523872812407618</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>97.991498323770344</v>
+        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>82.855787539306831</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>85.245032452888154</v>
+        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>89.223642802324477</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -13985,100 +13985,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>87.52975930846813</v>
+        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>88.296234684830225</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>73.0581794306988</v>
+        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>70.969047891435196</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>68.002435703732473</v>
+        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>65.949795862815478</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>69.010855011198004</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.019566934843922</v>
+        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>64.289490057616518</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>65.342655304595766</v>
+        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>68.725071398391222</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>77.464395808875679</v>
+        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>73.082451675706523</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>92.425764978752525</v>
+        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>85.489180672431573</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>104.21654399185894</v>
+        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>91.369726707152594</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>96.408332026425768</v>
+        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>112.70565500368976</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>110.29157448268501</v>
+        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>94.159176066144084</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>114.53347703677574</v>
+        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>111.42311450222729</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>95.366559563999999</v>
+        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>114.2847404658</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>103.55437619878275</v>
+        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>107.68064953146084</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>92.720612882242989</v>
+        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>91.729353297001211</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>106.14938918754196</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>107.31686949409863</v>
+        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>103.44502443340413</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>90.668105351398466</v>
+        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>98.488301196796129</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>107.02622733805599</v>
+        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>98.191163957384646</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>102.076300513509</v>
+        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>99.180033025551595</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>95.969205320456354</v>
+        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>97.90585165107791</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>103.52327713491913</v>
+        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>102.51484798991993</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>94.206261302391681</v>
+        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>103.60604150830835</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>94.988029191717942</v>
+        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>87.23297569944944</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -14086,100 +14086,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>98.530437398760981</v>
+        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>84.541576345675239</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>78.385398395705863</v>
+        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>87.938357104656632</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>84.10500517431386</v>
+        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>81.833661717726329</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>74.463184960234798</v>
+        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>79.574312677387354</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>78.785043952387355</v>
+        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>72.943755132784446</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>84.458348144972248</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>107.69442901320032</v>
+        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>94.942134559753583</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>112.90720826388899</v>
+        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>122.56416995110524</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>132.85204865070889</v>
+        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>125.29291651352553</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>130.34316339190946</v>
+        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>119.24177362278149</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>128.70881150555994</v>
+        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>134.87332105690899</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>122.788481786625</v>
+        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>125.41600691187499</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>119.208199455</v>
+        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>129.71829995599998</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>141.04522065699999</v>
+        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>127.90759503074999</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>116.70752351599887</v>
+        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>139.16870802565083</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>120.00817438538995</v>
+        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>129.45888348522115</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>105.59683344207225</v>
+        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>100.0944428875553</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>112.18953310283922</v>
+        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>118.79240176825958</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>117.90751321825958</v>
+        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>114.60607888554941</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>103.22813735776549</v>
+        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>99.926703025055303</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>119.09307676666297</v>
+        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>106.98781754672565</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>100.97288852345871</v>
+        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>109.77671341068584</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>114.12189836886621</v>
+        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>108.81726342955774</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>95.888545282038379</v>
+        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>113.75650543110567</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -15033,100 +15033,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>68.092870767681404</v>
+        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>72.846041848505294</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>59.893350145389611</v>
+        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>58.697856626796224</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>62.667282236400993</v>
+        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.928216850378163</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>57.328112776693573</v>
+        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>62.801178938985856</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>62.91689366240027</v>
+        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>60.015912442477173</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>53.734724603361386</v>
+        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>51.077612219889154</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>64.377109574999452</v>
+        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>68.116679186181244</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>74.975555178739626</v>
+        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>76.422373325355935</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>76.200541419186678</v>
+        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>85.165202112853919</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>92.436681075764284</v>
+        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>81.940535076419792</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>82.493659990414713</v>
+        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>89.715023572605006</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>95.8016449845545</v>
+        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>85.715123136409318</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>97.934046358706041</v>
+        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>84.844590634389846</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>102.14641142898111</v>
+        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>104.03164902403684</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>91.233617219549984</v>
+        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>90.287708174459979</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>86.00266319526979</v>
+        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>92.374406386171813</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>86.363252086660452</v>
+        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>84.541842835720871</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>84.685916081851559</v>
+        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>88.186710870603207</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>82.726656049524451</v>
+        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>90.644888561446152</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>88.452918502487861</v>
+        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>96.436252494395859</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>87.18123870855807</v>
+        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>94.219202553501574</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>85.346438062998999</v>
+        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>92.63669906536451</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>92.649482752783229</v>
+        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>98.881834252268206</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>78.083533823902783</v>
+        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>76.49208968412826</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -15134,100 +15134,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>81.397956297571383</v>
+        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>85.996808555743939</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>77.236442509226009</v>
+        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>68.183539172417085</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>72.791928665872121</v>
+        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>74.84456850678913</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>74.470578320464512</v>
+        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>71.058251252172937</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>73.162239908605585</v>
+        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.114682250685021</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>74.136937148463986</v>
+        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>66.695621742113943</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>69.43083156473223</v>
+        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>81.116015919849971</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>84.622107634141457</v>
+        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>90.691618902172294</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>98.287243706609857</v>
+        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>95.322593563985308</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>112.70565500368976</v>
+        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>99.464080084662768</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>104.24192507648216</v>
+        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>97.1840007692455</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>101.05523938706587</v>
+        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>114.53347703677574</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>100.62160981449999</v>
+        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>111.13171031549999</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>112.83849119730847</v>
+        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>104.58594453195228</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>98.668170393693615</v>
+        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>107.58950666086955</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>98.538484410993433</v>
+        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>97.587121313924868</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>99.573179372709617</v>
+        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>105.38094696375137</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>101.42087463882027</v>
+        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>109.24107048421794</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>89.356100576713317</v>
+        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>101.13618508427508</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>91.456653057665179</v>
+        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>90.491230561679387</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>97.90585165107791</v>
+        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>106.62076013887493</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>109.57385200491437</v>
+        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>92.430556539927849</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>97.966173384758349</v>
+        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>98.906151405350016</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>95.849701801969985</v>
+        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>98.434719632726171</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -15235,100 +15235,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>97.656133582943127</v>
+        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>99.404741214578848</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>83.957957642593811</v>
+        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>82.365797857768669</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>78.805203775609613</v>
+        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>79.562318261138799</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>80.304473779837735</v>
+        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>81.034634882288088</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>75.864399542585886</v>
+        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>69.292949620532639</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>87.589932883240408</v>
+        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>74.280697745600719</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>99.846863195694624</v>
+        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>108.67537474038853</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>109.28584763118289</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>115.21407366394772</v>
+        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>139.15132543169506</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>119.24177362278149</v>
+        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>124.17572463128282</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>128.70881150555994</v>
+        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>117.61269431313167</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>134.61234485025</v>
+        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>122.788481786625</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>137.60087533174999</v>
+        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>142.85592558224999</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>129.22135759337499</v>
+        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>127.90759503074999</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>114.21183634825977</v>
+        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>139.16870802565083</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>112.92014256051654</v>
+        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>129.45888348522115</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>115.50113644020279</v>
+        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>116.60161455110619</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>120.99335799006637</v>
+        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>109.98857688103243</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>100.29986344380531</v>
+        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>111.30464455283922</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>117.53435279950958</v>
+        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>107.63004980137904</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>102.58590510311208</v>
+        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>109.18877376853243</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>116.3795820761062</v>
+        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>105.37480096707226</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>104.57355547811095</v>
+        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>106.69540945383434</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>111.77117652565374</v>
+        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>109.78584762020182</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -16182,100 +16182,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>77.599212929329198</v>
+        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>76.241164049093783</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>64.675324219763198</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>62.102048582906697</v>
+        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>63.797749543389585</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>61.706565706527407</v>
+        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>52.949659846859753</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>57.695127466538707</v>
+        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>55.374342490600235</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>57.986104416916966</v>
+        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>50.546189743194702</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>68.116679186181244</v>
+        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>61.88406316754493</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>72.081918885507022</v>
+        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>76.422373325355935</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>73.755633957277439</v>
+        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>84.350232958884163</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>82.815213909698471</v>
+        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>83.689892742977179</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>95.131046259247739</v>
+        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>83.396330438188514</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>85.715123136409318</v>
+        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>97.635558047853621</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>88.584435127051606</v>
+        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>90.454357373382493</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>102.14641142898111</v>
+        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>99.318555036397527</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>91.233617219549984</v>
+        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>86.504071994099988</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>98.746149577073851</v>
+        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>84.182165140726354</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>100.02382146870735</v>
+        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>84.541842835720871</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>82.060319990287823</v>
+        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>84.685916081851559</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>85.366066886831675</v>
+        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>88.005477724138913</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>92.001066943335857</v>
+        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>86.678844282063864</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>87.18123870855807</v>
+        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>88.940729669793939</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>83.523872812407618</v>
+        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>95.370546941251561</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>93.539818681281076</v>
+        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>99.772170180766068</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>80.470700033564569</v>
+        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>84.449310383000892</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -16283,100 +16283,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>82.164431673933464</v>
+        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>86.763283932106035</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>74.45093379020787</v>
+        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>68.183539172417085</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>73.47614194617779</v>
+        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>78.265634908317452</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>65.598527942906443</v>
+        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>77.200439975097751</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>68.384605373457617</v>
+        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>73.844759127912425</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>74.813420367223074</v>
+        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>66.695621742113943</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>83.306987986434564</v>
+        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>74.543099720096237</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>88.090399787301948</v>
+        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>79.419669404400764</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>109.15762756289985</v>
+        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>107.18119413448349</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>111.68707231761074</v>
+        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>96.408332026425768</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>102.22537527441455</v>
+        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>106.25847487854978</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>104.1656019216143</v>
+        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>111.42311450222729</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>111.13171031549999</v>
+        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>109.02969021529999</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>102.52280786561325</v>
+        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>96.333397866596101</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>107.58950666086955</v>
+        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>93.711872467484753</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>92.830305828582055</v>
+        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>94.733032022719186</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>103.44502443340413</v>
+        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>98.605218107536004</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>107.28602152286852</v>
+        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>98.488301196796129</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>93.282795412567239</v>
+        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>97.209490248421162</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>87.594963073721985</v>
+        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>90.491230561679387</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>95.000882155145561</v>
+        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>102.74746747763182</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>96.46427311992467</v>
+        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>91.422127394928637</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>88.566393178841693</v>
+        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>90.446349220025013</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>82.062940037937096</v>
+        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>85.509630478945326</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -16384,100 +16384,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>95.033222135489552</v>
+        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>86.290183977310946</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>88.734436997069196</v>
+        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>80.773638072943541</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>74.262516862434538</v>
+        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>87.890577601959777</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>84.68544039453991</v>
+        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>80.304473779837735</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>78.785043952387355</v>
+        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>76.594560645036253</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>86.024140514106335</v>
+        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>75.063593930167755</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>94.942134559753583</v>
+        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>92.980243105377156</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>111.70008805298696</v>
+        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>118.94280931839914</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>131.5921932945117</v>
+        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>118.99363973253938</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>126.64270013553347</v>
+        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>129.10967563978411</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>132.40751723636936</v>
+        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>112.68108667205244</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>124.10224434924999</v>
+        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>118.84719409874999</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>138.91463789437498</v>
+        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>134.97335020649999</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>138.41769553174998</v>
+        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>127.90759503074999</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>130.43380293856399</v>
+        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>137.9208644417813</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>128.27754484774223</v>
+        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>122.37085166034777</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>114.4006583292994</v>
+        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>103.39587722026549</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>119.89287987916298</v>
+        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.2852301047087</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>112.40512266374262</v>
+        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>115.70655699645279</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>120.83578713221976</v>
+        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>105.42909357957225</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>103.68638321401549</v>
+        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>110.28925187943584</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>105.37480096707226</v>
+        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>100.97288852345871</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>99.26892053880249</v>
+        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>101.39077451452589</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>110.77851207292778</v>
+        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>100.85186754566817</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -17331,100 +17331,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>13.747664983382148</v>
+        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <v>14.556351158875216</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>10.120301811280189</v>
+        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <v>9.5006914963038529</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>9.3947773403388215</v>
+        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <v>9.2969150763769566</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>8.4615645225413516</v>
+        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <v>7.8632720815535793</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>9.642542153406076</v>
+        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <v>10.03611530252469</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>4.2925898660855442</v>
+        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <v>4.7492483624776227</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>8.6847104477544885</v>
+        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <v>7.9676242639949431</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>16.382482616340983</v>
+        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <v>15.463838731312517</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>22.272440354420521</v>
+        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <v>21.381542740243699</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>28.053805128404658</v>
+        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <v>29.112439284193513</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>30.915045584592544</v>
+        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <v>26.870086349225296</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>27.551609590440695</v>
+        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <v>31.14529779788948</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>31.91940744461219</v>
+        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <v>28.164183039363696</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>29.323180397790001</v>
+        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <v>30.269089442879995</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
         <v>29.741175057067036</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>30.869638506420916</v>
+        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <v>29.961707962114417</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>31.681494342572684</v>
+        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <v>29.377385663112847</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>25.04680345677653</v>
+        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <v>23.002166439896811</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>24.167732229202961</v>
+        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <v>26.96610122416331</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>22.748800134449287</v>
+        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <v>23.958842694792338</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>20.72387095858225</v>
+        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <v>22.687185049395307</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>26.93598981590231</v>
+        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <v>26.412960887438189</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>23.432647881697218</v>
+        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <v>23.901300839331164</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>20.17768721912644</v>
+        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <v>20.366263735193041</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -17432,100 +17432,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-24.883424738730703</v>
+        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <v>-23.344243827056644</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-34.686152483980749</v>
+        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <v>-33.352069696135338</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-38.230833955539225</v>
+        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <v>-33.81958388374624</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-31.197600191699738</v>
+        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <v>-32.539432458009401</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-37.39485512104433</v>
+        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <v>-32.72049823091379</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-35.313937683360002</v>
+        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <v>-39.360326376244998</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-33.794397420845364</v>
+        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <v>-31.243876860781565</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-4.8112448287723728</v>
+        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <v>-4.860845290924666</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>14.329245035155139</v>
+        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <v>17.354307875910113</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>24.105577014803583</v>
+        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <v>25.49628338104225</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>19.860154904546697</v>
+        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <v>19.313545136531651</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>22.085676314943157</v>
+        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <v>23.056475273841755</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>19.599268113357425</v>
+        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <v>21.32228069475148</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>22.186129970846547</v>
+        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <v>20.854962172595755</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>10.989339704586108</v>
+        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <v>10.87486741599667</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>3.038697925756729</v>
+        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <v>2.7203581430584047</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>6.5023723854700739</v>
+        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <v>6.4379924608614596</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>7.8981342509234356</v>
+        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <v>7.7417355528853475</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>4.4285433072399636</v>
+        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <v>4.6641041214548542</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.87886075486452753</v>
+        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <v>-0.82612910957265584</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
         <v>-3.4995498365564526</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-2.1960287159574046</v>
+        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <v>-2.5779467535152141</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-12.59211673301537</v>
+        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <v>-11.561852636677747</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-14.100412987074709</v>
+        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <v>-16.579606479307625</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -17533,100 +17533,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-36.176417664033266</v>
+        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <v>-42.139563432829959</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-36.176417664033266</v>
+        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <v>-41.742020381576843</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-47.5369759296103</v>
+        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <v>-48.460024005913418</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <v>-55.178027630249993</v>
+      </c>
+      <c r="F4" s="2">
+        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <v>-53.601512555099994</v>
+      </c>
+      <c r="G4" s="2">
+        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
         <v>-55.703532655299995</v>
       </c>
-      <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-48.871967329649998</v>
-      </c>
-      <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-57.805552755500003</v>
-      </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
         <v>-22.210977686201872</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>4.6473793290767098</v>
+        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <v>4.1261779089933404</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>14.068717734296049</v>
+        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <v>12.551503076675885</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>13.517003313343261</v>
+        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <v>12.689431681914083</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>11.476602671642571</v>
+        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <v>12.107185236018534</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
         <v>16.134395388907841</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>25.471553650416286</v>
+        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <v>21.626790835259111</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>25.511077747295086</v>
+        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <v>26.254118846730865</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>14.585850120072298</v>
+        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <v>14.169111545213088</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>9.7558821959441762</v>
+        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <v>10.189476960208358</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.8474293751398783</v>
+        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <v>-1.8122402441848329</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.7418619822747423</v>
+        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <v>-1.8826185060949236</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>-1.6538891548871288</v>
+        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <v>-1.9002130715724461</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.7066728513196969</v>
+        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <v>-1.7242674167972196</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-10.872712988194118</v>
+        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <v>-11.545251935917467</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>-15.507530388169526</v>
+        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <v>-14.071647944820494</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-40.148006344593782</v>
+        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <v>-37.337645900472225</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-39.345046217701906</v>
+        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <v>-41.352446534931595</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -18480,99 +18480,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>14.825913217372905</v>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <v>14.691132188124062</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>10.739912126256529</v>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <v>10.32683858293897</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>9.3947773403388215</v>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <v>9.2969150763769566</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>8.6325052199664292</v>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <v>8.5470348712538904</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>9.544148866126422</v>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <v>9.9377220152450363</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>4.2925898660855442</v>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <v>4.5665849639207918</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>8.5253579624745903</v>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <v>8.2863292345547421</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>16.535589930512398</v>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <v>14.698302160455462</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>20.713369529611089</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>27.524488050510229</v>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <v>26.465853894721374</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>30.048268605585278</v>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <v>31.492896903930724</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>28.749505659590291</v>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <v>31.74424583246428</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>34.422890381444518</v>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <v>29.10298914067582</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>29.323180397790001</v>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <v>30.584392457909995</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>34.124085065476912</v>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <v>30.367305058268446</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>32.080212565496247</v>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <v>31.474925535958583</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>29.665399248045329</v>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <v>30.529440002842765</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>25.04680345677653</v>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <v>27.602599727876179</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>27.983689949603434</v>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <v>26.202909680083213</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>24.926876743066778</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>21.16016297876293</v>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <v>20.942016968672593</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>27.982047672830557</v>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <v>25.889931958974067</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>25.775912669866944</v>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <v>22.495341966429329</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>17.349039478127406</v>
       </c>
     </row>
@@ -18581,100 +18581,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-26.935665954296127</v>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <v>-25.139954890676382</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-30.350383423483159</v>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <v>-31.017424817405864</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-37.495625610240388</v>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <v>-33.084375538447404</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-36.564929256938406</v>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <v>-36.229471190360982</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-37.39485512104433</v>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <v>-38.833118779546034</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-36.417498235964999</v>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <v>-40.463886928849995</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-34.750842630869293</v>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <v>-33.15676728082942</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-4.7120439044677882</v>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <v>-4.513642055858619</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>16.717452541014328</v>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <v>17.035880208462221</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>24.569145803549805</v>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <v>22.714870648564911</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>18.94913862452162</v>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <v>16.944902808466448</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>25.240772931363612</v>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <v>21.842976575218508</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>23.045293276145543</v>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <v>23.691422994168317</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>20.854962172595755</v>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <v>21.742407371429614</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>10.416978261638915</v>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <v>12.363007167659374</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>2.8650580442849161</v>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <v>3.1544578467379378</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>6.4379924608614596</v>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <v>6.7598920839045329</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>7.9763335999424791</v>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <v>7.1943401097520407</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>4.4756554700829412</v>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <v>4.6169919586118766</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.87007214731588223</v>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <v>-0.9315924001563991</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-3.2593846516947349</v>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <v>-3.6710963971719655</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.3392479800415829</v>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <v>-2.4585973667783985</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-12.248695367569496</v>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <v>-11.103957482749916</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>-16.424656886043067</v>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <v>-14.410312173603822</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -18682,100 +18682,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-43.72973563784241</v>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <v>-37.766589869045717</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-36.573960715286383</v>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <v>-36.176417664033266</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-41.537163433640075</v>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <v>-45.229355738852519</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-56.754542705399999</v>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <v>-49.3974723547</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-52.024997479949995</v>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <v>-54.652522605199998</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-56.229037680349997</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-22.630052736884927</v>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <v>-20.744215008811182</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>4.2999117156877968</v>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <v>4.213044812340569</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>12.827360287152279</v>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <v>14.758360760487033</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>13.241146102866869</v>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <v>13.103217497628671</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>11.602719184517763</v>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <v>11.981068723143341</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>17.198201678286377</v>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <v>18.262007967664921</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>23.78946991878502</v>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <v>22.828279214995725</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>23.777315181944932</v>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <v>26.501799213209459</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>14.308024403499489</v>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <v>13.474547253781074</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>9.9726795780762689</v>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <v>10.514673033406499</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.7066728513196969</v>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <v>-1.8826185060949236</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>-1.9002130715724461</v>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <v>-1.8826185060949236</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <v>-1.8826185060949236</v>
+      </c>
+      <c r="U4" s="2">
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>-1.6362945894096064</v>
       </c>
-      <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.8122402441848329</v>
-      </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-10.536443514332445</v>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <v>-10.31226386509133</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-15.22035389949972</v>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <v>-14.502412677825204</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-41.352446534931595</v>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <v>-36.133205710134412</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-42.556886725269408</v>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <v>-38.140606027364093</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -19629,100 +19629,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>13.20854086638677</v>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <v>13.478102924884459</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>11.359522441232869</v>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <v>10.53337535459775</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>10.666986771843037</v>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <v>9.7862263961862723</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>8.5470348712538904</v>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <v>8.8034459173915067</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>10.232901877083998</v>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <v>10.134508589804344</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>4.2012581668071283</v>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <v>4.3382557157247517</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>8.4456817198346386</v>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <v>8.6847104477544885</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>13.932765589598407</v>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <v>14.238980217941231</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>22.049715950876315</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>26.201195355774161</v>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <v>24.348585583143663</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>28.892565966908919</v>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <v>29.181491626578008</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>29.647927711452486</v>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <v>28.749505659590291</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>28.164183039363696</v>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <v>30.35473060909198</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>33.106816578149996</v>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <v>34.052725623240001</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>28.488915054664215</v>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <v>30.993435059469856</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>29.35642093257675</v>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <v>28.448490388270255</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>29.089372078180368</v>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <v>31.393480757640205</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>24.791223829666567</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>27.22049840552334</v>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <v>24.167732229202961</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>23.232817158586506</v>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <v>25.652902279272606</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>21.16016297876293</v>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <v>20.287578938401573</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>26.151446423206128</v>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <v>25.889931958974067</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>22.495341966429329</v>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <v>25.307259712232998</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>16.971886445994201</v>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <v>20.554840251259645</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -19730,100 +19730,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>-23.857304130947998</v>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <v>-26.166075498459094</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-34.686152483980749</v>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <v>-31.017424817405864</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-37.128021437590974</v>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <v>-37.495625610240388</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-31.197600191699738</v>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <v>-31.533058258277151</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-32.360932316288363</v>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <v>-37.75442103566975</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-40.096033411315005</v>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <v>-35.681791200894992</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-29.649801510741693</v>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <v>-28.693356300717767</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.8112448287723728</v>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <v>-5.4560508367521763</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>16.399024873566439</v>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <v>14.488458868879087</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>22.4830862541918</v>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <v>24.800930197922916</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>18.402528856506571</v>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <v>17.855919088491525</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>24.26997397246501</v>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <v>23.056475273841755</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>20.67615097672871</v>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <v>23.691422994168317</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>21.742407371429614</v>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <v>22.186129970846547</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>11.332756570354425</v>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <v>11.561701147533302</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>2.9229380047755202</v>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <v>2.8071780837943114</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>6.051712913209772</v>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <v>6.9530318577303767</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>7.2725394587710843</v>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <v>7.350738807790127</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>4.5698797957688981</v>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <v>5.1823379127276166</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.9315924001563991</v>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <v>-0.79097467937807475</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.1221474032023253</v>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <v>-3.4995498365564526</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-2.4824672441257611</v>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <v>-2.2676383479994935</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-11.332905059713832</v>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <v>-12.363169156051455</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-16.88950566583674</v>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <v>-14.565261766868378</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -19831,100 +19831,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-39.356762074058167</v>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <v>-41.344477330323727</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-36.176417664033266</v>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <v>-35.778874612780157</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-42.460211509943186</v>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <v>-45.690879777004078</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-50.973987429849998</v>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <v>-49.922977379749994</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-47.820957279549994</v>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <v>-54.127017580149996</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-55.703532655299995</v>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <v>-48.871967329649998</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-19.067914806078967</v>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <v>-22.630052736884927</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>4.3867786190350246</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>14.068717734296049</v>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <v>14.482503550010639</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>13.241146102866869</v>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <v>13.379074708105065</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>12.863884313269693</v>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <v>13.368350364770466</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>19.148513208813704</v>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <v>18.616610064124433</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>23.308874566890374</v>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <v>26.432744354205578</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>23.034274082509157</v>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <v>23.281954448987747</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>15.002588694931505</v>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <v>12.502157245776255</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>11.490261253000918</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>-1.6011054584545612</v>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <v>-1.6187000239320839</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.8474293751398783</v>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <v>-1.7770511132297877</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.7770511132297877</v>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <v>-1.8298348096623558</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.9002130715724461</v>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <v>-1.6714837203646518</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-11.545251935917467</v>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <v>-10.424353689711888</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>-15.22035389949972</v>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <v>-14.646000922160107</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-40.950966471485664</v>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <v>-36.93616583702628</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-43.761326915607228</v>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <v>-40.549486408039719</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -28319,100 +28319,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>70.243015056771412</v>
+        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>72.111915975470623</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>55.2290617167044</v>
+        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>59.065948404113243</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>51.309090024467118</v>
+        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>52.85719781172412</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>57.704887984371794</v>
+        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>58.724703502397439</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>59.151042006859257</v>
+        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>61.28593097738225</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>60.965458887080736</v>
+        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>59.236673165813649</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>70.124209602152376</v>
+        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>65.952044739575939</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>81.310755513570086</v>
+        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>70.427595048204878</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>76.10361529538676</v>
+        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>88.44522483811285</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>89.925629953317383</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>77.61998475711745</v>
+        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>87.922562825666432</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>81.14952065155002</v>
+        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>79.45033423137005</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>86.864878593885877</v>
+        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>77.572381736157993</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>77.402542123244245</v>
+        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>79.884596754648953</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>82.27482183328371</v>
+        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>81.473806349152184</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>84.719751730807687</v>
+        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>74.495098665397322</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>83.030580642669989</v>
+        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>83.84517037881028</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>90.076212983242755</v>
+        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.06521559517147</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>93.997032039896865</v>
+        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>102.4599513077966</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>95.2271491005</v>
+        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>97.118967190679996</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>84.484216778307726</v>
+        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>89.073119809643316</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>90.807369319278678</v>
+        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>92.559023987410299</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>89.775827641865135</v>
+        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>90.574454005785924</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>68.229501619825825</v>
+        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>80.935905560867837</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -28420,100 +28420,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.862995492192127</v>
+        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>73.552256365297666</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>71.50232264196859</v>
+        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>63.391106974463092</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>59.259376177938854</v>
+        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>59.850578186693518</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>63.95712462929243</v>
+        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>56.325878597439988</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>62.272730975464022</v>
+        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>63.46093038857331</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>62.509750387468877</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>73.102987311345998</v>
+        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>78.557670559839579</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>90.560945694571998</v>
+        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>86.809073912298174</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>99.50943417605589</v>
+        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>111.76374079577417</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>101.98633805042145</v>
+        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>104.05419067318516</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>110.04623767873031</v>
+        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>96.967924318056035</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>104.64140736886908</v>
+        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>107.67503523097206</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>110.90689018094832</v>
+        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>95.751215622331571</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>99.823168585165845</v>
+        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>96.84153048303962</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>92.436877792399486</v>
+        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>90.562400539772682</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>94.358860637727531</v>
+        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>93.448474244318433</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>101.34196771585017</v>
+        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>105.13445214569359</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>107.86539267009999</v>
+        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>114.17145297069999</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>102.58388183321279</v>
+        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>110.96148307553962</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>110.43750851574177</v>
+        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>112.48854720883973</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.89337415517738</v>
+        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>104.88549108753143</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>96.073914455943566</v>
+        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>103.63117466275098</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>80.709953315754788</v>
+        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>88.973949061579773</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>83.124676196860321</v>
+        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>77.876396896454423</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -28521,100 +28521,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>83.108459542199682</v>
+        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>77.899890846469702</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>67.375522517863999</v>
+        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>79.821417362686802</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>60.922710943895886</v>
+        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>72.185656293925064</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>72.340406219963199</v>
+        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>64.937440298729598</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>72.655375344151508</v>
+        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>66.619527533497475</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>71.553882526186911</v>
+        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>79.943687127352661</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>115.04660485047572</v>
+        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>98.398765909283071</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>111.8948404198846</v>
+        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>107.25943159613942</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>126.34755671846422</v>
+        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>135.24111473138595</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>138.11426512087263</v>
+        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>130.48719202631028</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>126.56735277269178</v>
+        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>118.16199677701232</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>138.55363253812499</v>
+        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>128.04353203712498</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>124.86855704969986</v>
+        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>129.82451657893785</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>122.41163726617077</v>
+        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>107.33348123524317</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>122.24359935118837</v>
+        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>125.61755315168899</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>104.86098111864155</v>
+        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>113.26805625995922</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>105.15536049289364</v>
+        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>111.46469064965993</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>110.12706919162906</v>
+        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>107.90056718793568</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>101.44942362870222</v>
+        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>114.80843565086252</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>103.71512673296708</v>
+        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>116.14530245364168</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>104.69522942700665</v>
+        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>113.49125585483702</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>93.22927436902873</v>
+        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>97.203463355599851</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>86.136219112780324</v>
+        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>91.178100387159745</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>93.1971826792428</v>
+        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>82.626182939573923</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -29466,100 +29466,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>71.488949002570877</v>
+        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.997081110971948</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>58.517821734483405</v>
+        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>57.421568395223737</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.889269669895448</v>
+        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>53.373233740809788</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>56.685072466346149</v>
+        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>49.036456081153844</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>52.212652852659538</v>
+        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>57.549875278967008</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>63.846768422525862</v>
+        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>59.812935072902675</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>74.99173527515822</v>
+        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>68.038127170864158</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>85.197598536914796</v>
+        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>81.310755513570086</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.976902929567643</v>
+        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>80.217485142962119</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>86.522573710581483</v>
+        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>92.477922135369312</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>80.195629274254699</v>
+        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>88.781110998045534</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>93.043825592810052</v>
+        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>89.645452752450055</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>87.709651035497501</v>
+        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>89.39919591872075</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>86.503409105061507</v>
+        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>77.402542123244245</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>75.866697960231534</v>
+        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>78.269744412626082</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>87.865798827857034</v>
+        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>74.495098665397322</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>78.143042225828211</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>100.22075365487474</v>
+        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.06521559517147</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>90.235734587496992</v>
+        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>101.51962694469663</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>97.118967190679996</v>
+        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>98.064876235770001</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>86.31977799084197</v>
+        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>91.826461628444676</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>85.552405314883785</v>
+        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>94.310678655541935</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>80.990937638736554</v>
+        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>75.400553091291087</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>72.464969600173148</v>
+        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>75.994526250462599</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -29567,100 +29567,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>64.187291142949917</v>
+        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>64.856217230260469</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>60.895348307538335</v>
+        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>68.382624308312614</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>61.62418421295753</v>
+        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>62.806588230466865</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>68.066257107982196</v>
+        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>66.305200331400869</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.619628334455797</v>
+        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>64.055030095127947</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.468881944886334</v>
+        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>68.387145059721249</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>78.557670559839579</v>
+        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>82.453872880192137</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>100.87859309582505</v>
+        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>91.498913640140472</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>112.78493301408402</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>101.98633805042145</v>
+        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>114.39345378700368</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>106.02214126006129</v>
+        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>92.943827899387031</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>109.69745380570738</v>
+        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>103.63019808150142</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>108.88613357313275</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>100.81704795254127</v>
+        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>107.77420352416917</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>98.99754817659327</v>
+        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>93.374116418712873</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>89.806928670682055</v>
+        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>100.73156539159119</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>93.756998856163364</v>
+        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>102.29008882331104</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>115.22246302079999</v>
+        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>100.50832231939999</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>104.67828214379449</v>
+        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>107.81988260966705</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>98.131276357153894</v>
+        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>99.156795703702869</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>91.783011208134255</v>
+        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>111.94067256105299</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>95.129256930092637</v>
+        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>98.907887033496337</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>78.230754592007301</v>
+        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>91.453147785327275</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>77.126642710682148</v>
+        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>74.877380153365351</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -29668,100 +29668,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>80.876215815458252</v>
+        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>77.155809604222554</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>72.215592735295075</v>
+        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>73.598469940275393</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>70.934217921699599</v>
+        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.677026060572274</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>73.013403121893532</v>
+        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>68.302424808381232</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>74.667324614369505</v>
+        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>66.619527533497475</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>75.748784826769779</v>
+        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>68.058130609034521</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>112.96562498282663</v>
+        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>110.88464511517755</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>121.16565806737499</v>
+        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>122.3245102733113</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>117.4539987055425</v>
+        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>135.24111473138595</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>115.23304583718556</v>
+        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>125.40247662993538</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>116.96123163477239</v>
+        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>108.55587563909295</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>128.04353203712498</v>
+        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>143.80868278862499</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>134.78047610817583</v>
+        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>128.58552669662836</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>106.17362307901797</v>
+        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>123.57149542239597</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>112.12173794968653</v>
+        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>103.12452781501825</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>101.70832794064741</v>
+        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>111.16628747462981</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>95.691365257744209</v>
+        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>110.4131356235322</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>119.03307720640258</v>
+        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.33431217870222</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>101.44942362870222</v>
+        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>118.14818865640258</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>121.79538232667558</v>
+        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>125.18543025049593</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>109.09324264092184</v>
+        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>111.29224924787943</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>96.209916108957074</v>
+        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>97.203463355599851</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>86.136219112780324</v>
+        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>90.337786841429832</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>88.318259722472547</v>
+        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>78.560413808932054</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -30613,100 +30613,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>69.62004808387168</v>
+        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>60.275543490375682</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>61.25845508263258</v>
+        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>54.68093504707457</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>53.889269669895448</v>
+        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>55.953413386238132</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>57.194980225358975</v>
+        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>59.234611261410258</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>58.617319764228505</v>
+        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>60.218486492120746</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>54.050316002012408</v>
+        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>63.846768422525862</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>73.601013654299408</v>
+        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>66.647405550005345</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>76.646543885556426</v>
+        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>85.974967141583747</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>85.15412896005256</v>
+        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>88.44522483811285</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>89.074865892633397</v>
+        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>94.179450256737269</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>80.195629274254699</v>
+        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>83.629821963771022</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>79.45033423137005</v>
+        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>76.901554601100045</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>85.175333710662613</v>
+        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>81.796243944216101</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>78.229893667045829</v>
+        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>85.676057561259938</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>75.866697960231534</v>
+        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>87.080914738072835</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>76.068122213921981</v>
+        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>73.708586891134985</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>87.918119059511781</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>88.231751042946016</v>
+        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>95.609598804132915</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>100.57930258159666</v>
+        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>97.758329492296738</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>100.90260337104</v>
+        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>93.335331010320004</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>93.662022840978921</v>
+        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>90.908681022177561</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>95.186505989607724</v>
+        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>90.807369319278678</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>78.595058546974215</v>
+        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>82.588190366578118</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>78.818171570694162</v>
+        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>67.523590289767938</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -30714,100 +30714,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>65.525143317571022</v>
+        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>76.227960714539904</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>65.262925974656667</v>
+        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>69.630503641774993</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>59.259376177938854</v>
+        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>61.03298220420286</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>63.95712462929243</v>
+        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>61.609048927183984</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.619628334455797</v>
+        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>62.272730975464022</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>67.73410120724877</v>
+        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>73.611495879501163</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>76.21994916762803</v>
+        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>73.102987311345998</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>84.933138021161255</v>
+        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>97.126721313551215</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>94.403473084506629</v>
+        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>108.70016414084459</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>105.08811698456701</v>
+        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>111.29167485285814</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>111.05226178339755</v>
+        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>92.943827899387031</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>102.61898879413376</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>106.86537696531718</v>
+        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>110.90689018094832</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>95.847651115664192</v>
+        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>98.829289217790446</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>96.185832297653064</v>
+        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>102.74650268184686</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>94.358860637727531</v>
+        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>84.344610310227495</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>96.601362178545926</v>
+        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>104.18633103823274</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>115.22246302079999</v>
+        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>99.45731226929999</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>113.05588338612132</v>
+        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>110.96148307553962</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>103.25887308989883</v>
+        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>99.156795703702869</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.89337415517738</v>
+        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>94.806660411072073</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>101.74185961104912</v>
+        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>103.63117466275098</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>85.668350763249776</v>
+        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>77.404355017424805</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>81.625167825315771</v>
+        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>75.627134339137626</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -30815,100 +30815,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>86.084784511188232</v>
+        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>75.667647119728272</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>74.981347145255697</v>
+        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>79.821417362686802</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>66.554183618910471</v>
+        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>65.928464432797739</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>75.03239382768453</v>
+        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>68.302424808381232</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>69.97277631719416</v>
+        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>73.326025100890845</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>77.147085593630749</v>
+        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>75.748784826769779</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>117.12758471812479</v>
+        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>114.00611491665117</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>118.84795365550239</v>
+        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>120.00680586143871</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>118.72450699310275</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>136.84308627177893</v>
+        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>125.40247662993538</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>122.965057345972</v>
+        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>115.76046649253247</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>120.160956661375</v>
+        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>126.72976947449999</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>114.95663799122389</v>
+        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>112.47865822660488</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>110.81305570391876</v>
+        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>124.73135357862118</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>109.87243541601947</v>
+        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>113.24638921652007</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>98.555674762653297</v>
+        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>100.65744354798271</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>112.51624567578764</v>
+        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>103.05225044063822</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>103.44756318054891</v>
+        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>123.48608121378936</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>103.6759256323956</v>
+        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>105.90242763608897</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>103.71512673296708</v>
+        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>120.6653663520688</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>121.18777897918858</v>
+        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>112.39175255135822</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>91.242179875743162</v>
+        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>99.190557848885419</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>86.136219112780324</v>
+        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>82.774964929860715</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>82.626182939573923</v>
+        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>89.944567374729303</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -31760,100 +31760,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>13.057484053171034</v>
+        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <v>11.243944601341724</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>9.8856625729214702</v>
+        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <v>10.07218450825961</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>8.7021415518374177</v>
+        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <v>8.4626330687593239</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>7.6562489456121723</v>
+        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <v>8.5937488165034601</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>8.6129984012490937</v>
+        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <v>9.0569673910042017</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>11.686471949644517</v>
+        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <v>10.032725919034444</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>17.105336805480221</v>
+        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <v>15.394803124932197</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>19.002932363064311</v>
+        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <v>19.211755795625461</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>21.95519672540695</v>
+        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <v>25.574185196627877</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>28.958918322784601</v>
+        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <v>27.099171274532381</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>28.935389117930061</v>
+        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <v>28.399548578709133</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>26.311624229680774</v>
+        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <v>24.732926775899926</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>25.366736710258394</v>
+        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <v>28.273341958308837</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>28.769450128635864</v>
+        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <v>27.723288305776382</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>21.23457123529926</v>
+        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <v>23.358028358829184</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
         <v>22.416388268609559</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>23.365118704552248</v>
+        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <v>24.984483367243989</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>31.530301502999997</v>
+        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <v>34.683331653299994</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>32.743910231502738</v>
+        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <v>28.96576674325242</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>32.660433179355671</v>
+        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <v>30.218531633235621</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>30.513205807063212</v>
+        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <v>25.710201189284742</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>27.387673458838893</v>
+        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <v>23.116201451497048</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>19.059047100871428</v>
+        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <v>19.468919081535326</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>15.565313079311473</v>
+        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <v>14.779186156113923</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -31861,100 +31861,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-30.580363092623664</v>
+        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <v>-28.745541307066244</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-34.566121491265449</v>
+        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <v>-32.904288727262298</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
         <v>-37.948495548304102</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-31.985864345263334</v>
+        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <v>-35.539849272514815</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-35.313937683360002</v>
+        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <v>-39.360326376244998</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-31.108593152324215</v>
+        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <v>-30.126216526461345</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-25.116951855905899</v>
+        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <v>-23.166120643796699</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-10.439012267456034</v>
+        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <v>-9.8367615597181857</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-3.0742290763947673</v>
+        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <v>-2.9264296015680955</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.42079798455941275</v>
+        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <v>-0.42542213823588981</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-4.0682755229107661</v>
+        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <v>-4.2758406006102954</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-3.3266323540242557</v>
+        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <v>-2.8993584736908646</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-4.4777822567732386</v>
+        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <v>-4.097593197235887</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-4.4744327647162256</v>
+        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <v>-4.0482963109337282</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-11.742406400230648</v>
+        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <v>-10.988306906637854</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-14.42857796036529</v>
+        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <v>-16.290329955251135</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-14.349299254381108</v>
+        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <v>-12.693610878875598</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>-5.1807599314495807</v>
+        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <v>-4.9452708436564183</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-7.1250853609553131</v>
+        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <v>-7.5361479779335045</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-8.0953638943253434</v>
+        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <v>-8.2676056793109893</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-13.528066041765289</v>
+        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <v>-13.12222406051233</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-18.613926763429639</v>
+        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <v>-16.506689771343265</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-22.852755669889941</v>
+        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <v>-23.088351089167155</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-25.457537839227154</v>
+        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <v>-25.19235515340187</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -31962,100 +31962,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>41.150705519104157</v>
+        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <v>43.696109984203382</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>49.3974723547</v>
+        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <v>56.754542705399999</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
         <v>56.229037680349997</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>53.076007530049999</v>
+        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <v>55.178027630249993</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>56.754542705399999</v>
+        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <v>47.820957279549994</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>40.876046273487333</v>
+        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <v>41.727630570851659</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>17.960975737202055</v>
+        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <v>19.119748365408636</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.6106493946421696</v>
+        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <v>2.7349660324822733</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-13.675056261245544</v>
+        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <v>-15.711766768239562</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-15.857246090167706</v>
+        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <v>-15.27532880245513</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>-1.1526514496008493</v>
+        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <v>-1.2654108305400631</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-16.384853511788265</v>
+        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <v>-16.081430298607003</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-14.867737445881945</v>
+        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <v>-13.80575619974752</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-11.038915100281441</v>
+        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <v>-11.508656168378524</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.3583810942423349</v>
+        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <v>-1.5190498258193852</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>8.8222436148670162</v>
+        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <v>9.2633557956103694</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>13.107357080808596</v>
+        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <v>11.88237043774237</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>11.26987711620926</v>
+        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <v>11.88237043774237</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>11.88237043774237</v>
+        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <v>11.024879787596014</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>12.249866430662237</v>
+        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <v>12.494863759275482</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>12.494863759275482</v>
+        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <v>11.024879787596014</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>25.289467331115961</v>
+        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <v>24.267670671272892</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
         <v>36.704846930506065</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>41.00009497556529</v>
+        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <v>42.952480450592205</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
